--- a/modulo_pedidos/Informe/Informe_OrdenesPendIBS.xlsx
+++ b/modulo_pedidos/Informe/Informe_OrdenesPendIBS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Ordenes Pendientes</t>
   </si>
@@ -54,13 +54,13 @@
     <t>Analisis</t>
   </si>
   <si>
-    <t>2022-02-02 : 12-02-05 am</t>
+    <t>2022-06-07 : 11-06-22 am</t>
   </si>
   <si>
-    <t>303022004;353510971;313160037;</t>
+    <t>111100097;111110083;</t>
   </si>
   <si>
-    <t>Kimberly Mora</t>
+    <t>Yufary Botia D?vila</t>
   </si>
   <si>
     <t>Bogotá</t>
@@ -69,22 +69,28 @@
     <t>Falta en IBS</t>
   </si>
   <si>
-    <t>2022-02-02 : 12-02-25 am</t>
+    <t>2022-06-08 : 11-06-06 am</t>
   </si>
   <si>
-    <t>323221305;101000058;5757457415741000511;353520073;353520445;</t>
+    <t>111103311;111110848;818160184;313120597;</t>
   </si>
   <si>
-    <t>Santiago Uribe</t>
+    <t>Alice Dayana Rivera Chartano</t>
   </si>
   <si>
-    <t>2022-02-02 : 09-02-13 am</t>
+    <t>2022-06-08 : 11-06-08 am</t>
   </si>
   <si>
-    <t>111103926;</t>
+    <t>111110024;</t>
   </si>
   <si>
-    <t>DANIEL RAMIREZ</t>
+    <t>Ricardo Martinez</t>
+  </si>
+  <si>
+    <t>111111375;</t>
+  </si>
+  <si>
+    <t>Azucena MORALES</t>
   </si>
 </sst>
 </file>
@@ -438,7 +444,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K1174"/>
+  <dimension ref="A1:K1733"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,32 +507,32 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3">
-        <v>168133</v>
+        <v>229856</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3">
-        <v>1031162607</v>
+        <v>52367303</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3">
-        <v>11001000</v>
+        <v>130011</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -534,32 +540,32 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4">
-        <v>168136</v>
+        <v>230277</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4">
-        <v>1010013575</v>
+        <v>1013675971</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="s">
         <v>19</v>
       </c>
       <c r="H4">
-        <v>11001000</v>
+        <v>111911</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -567,49 +573,69 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5">
-        <v>168184</v>
+        <v>230279</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1010238380</v>
+        <v>79964342</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
         <v>22</v>
       </c>
       <c r="H5">
-        <v>111221</v>
+        <v>111311</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>230280</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>52336687</v>
+      </c>
       <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <v>111161</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7"/>
@@ -15794,6 +15820,7273 @@
       <c r="I1174"/>
       <c r="J1174"/>
       <c r="K1174"/>
+    </row>
+    <row r="1175" spans="1:11">
+      <c r="A1175"/>
+      <c r="B1175"/>
+      <c r="C1175"/>
+      <c r="D1175"/>
+      <c r="E1175"/>
+      <c r="F1175"/>
+      <c r="G1175"/>
+      <c r="H1175"/>
+      <c r="I1175"/>
+      <c r="J1175"/>
+      <c r="K1175"/>
+    </row>
+    <row r="1176" spans="1:11">
+      <c r="A1176"/>
+      <c r="B1176"/>
+      <c r="C1176"/>
+      <c r="D1176"/>
+      <c r="E1176"/>
+      <c r="F1176"/>
+      <c r="G1176"/>
+      <c r="H1176"/>
+      <c r="I1176"/>
+      <c r="J1176"/>
+      <c r="K1176"/>
+    </row>
+    <row r="1177" spans="1:11">
+      <c r="A1177"/>
+      <c r="B1177"/>
+      <c r="C1177"/>
+      <c r="D1177"/>
+      <c r="E1177"/>
+      <c r="F1177"/>
+      <c r="G1177"/>
+      <c r="H1177"/>
+      <c r="I1177"/>
+      <c r="J1177"/>
+      <c r="K1177"/>
+    </row>
+    <row r="1178" spans="1:11">
+      <c r="A1178"/>
+      <c r="B1178"/>
+      <c r="C1178"/>
+      <c r="D1178"/>
+      <c r="E1178"/>
+      <c r="F1178"/>
+      <c r="G1178"/>
+      <c r="H1178"/>
+      <c r="I1178"/>
+      <c r="J1178"/>
+      <c r="K1178"/>
+    </row>
+    <row r="1179" spans="1:11">
+      <c r="A1179"/>
+      <c r="B1179"/>
+      <c r="C1179"/>
+      <c r="D1179"/>
+      <c r="E1179"/>
+      <c r="F1179"/>
+      <c r="G1179"/>
+      <c r="H1179"/>
+      <c r="I1179"/>
+      <c r="J1179"/>
+      <c r="K1179"/>
+    </row>
+    <row r="1180" spans="1:11">
+      <c r="A1180"/>
+      <c r="B1180"/>
+      <c r="C1180"/>
+      <c r="D1180"/>
+      <c r="E1180"/>
+      <c r="F1180"/>
+      <c r="G1180"/>
+      <c r="H1180"/>
+      <c r="I1180"/>
+      <c r="J1180"/>
+      <c r="K1180"/>
+    </row>
+    <row r="1181" spans="1:11">
+      <c r="A1181"/>
+      <c r="B1181"/>
+      <c r="C1181"/>
+      <c r="D1181"/>
+      <c r="E1181"/>
+      <c r="F1181"/>
+      <c r="G1181"/>
+      <c r="H1181"/>
+      <c r="I1181"/>
+      <c r="J1181"/>
+      <c r="K1181"/>
+    </row>
+    <row r="1182" spans="1:11">
+      <c r="A1182"/>
+      <c r="B1182"/>
+      <c r="C1182"/>
+      <c r="D1182"/>
+      <c r="E1182"/>
+      <c r="F1182"/>
+      <c r="G1182"/>
+      <c r="H1182"/>
+      <c r="I1182"/>
+      <c r="J1182"/>
+      <c r="K1182"/>
+    </row>
+    <row r="1183" spans="1:11">
+      <c r="A1183"/>
+      <c r="B1183"/>
+      <c r="C1183"/>
+      <c r="D1183"/>
+      <c r="E1183"/>
+      <c r="F1183"/>
+      <c r="G1183"/>
+      <c r="H1183"/>
+      <c r="I1183"/>
+      <c r="J1183"/>
+      <c r="K1183"/>
+    </row>
+    <row r="1184" spans="1:11">
+      <c r="A1184"/>
+      <c r="B1184"/>
+      <c r="C1184"/>
+      <c r="D1184"/>
+      <c r="E1184"/>
+      <c r="F1184"/>
+      <c r="G1184"/>
+      <c r="H1184"/>
+      <c r="I1184"/>
+      <c r="J1184"/>
+      <c r="K1184"/>
+    </row>
+    <row r="1185" spans="1:11">
+      <c r="A1185"/>
+      <c r="B1185"/>
+      <c r="C1185"/>
+      <c r="D1185"/>
+      <c r="E1185"/>
+      <c r="F1185"/>
+      <c r="G1185"/>
+      <c r="H1185"/>
+      <c r="I1185"/>
+      <c r="J1185"/>
+      <c r="K1185"/>
+    </row>
+    <row r="1186" spans="1:11">
+      <c r="A1186"/>
+      <c r="B1186"/>
+      <c r="C1186"/>
+      <c r="D1186"/>
+      <c r="E1186"/>
+      <c r="F1186"/>
+      <c r="G1186"/>
+      <c r="H1186"/>
+      <c r="I1186"/>
+      <c r="J1186"/>
+      <c r="K1186"/>
+    </row>
+    <row r="1187" spans="1:11">
+      <c r="A1187"/>
+      <c r="B1187"/>
+      <c r="C1187"/>
+      <c r="D1187"/>
+      <c r="E1187"/>
+      <c r="F1187"/>
+      <c r="G1187"/>
+      <c r="H1187"/>
+      <c r="I1187"/>
+      <c r="J1187"/>
+      <c r="K1187"/>
+    </row>
+    <row r="1188" spans="1:11">
+      <c r="A1188"/>
+      <c r="B1188"/>
+      <c r="C1188"/>
+      <c r="D1188"/>
+      <c r="E1188"/>
+      <c r="F1188"/>
+      <c r="G1188"/>
+      <c r="H1188"/>
+      <c r="I1188"/>
+      <c r="J1188"/>
+      <c r="K1188"/>
+    </row>
+    <row r="1189" spans="1:11">
+      <c r="A1189"/>
+      <c r="B1189"/>
+      <c r="C1189"/>
+      <c r="D1189"/>
+      <c r="E1189"/>
+      <c r="F1189"/>
+      <c r="G1189"/>
+      <c r="H1189"/>
+      <c r="I1189"/>
+      <c r="J1189"/>
+      <c r="K1189"/>
+    </row>
+    <row r="1190" spans="1:11">
+      <c r="A1190"/>
+      <c r="B1190"/>
+      <c r="C1190"/>
+      <c r="D1190"/>
+      <c r="E1190"/>
+      <c r="F1190"/>
+      <c r="G1190"/>
+      <c r="H1190"/>
+      <c r="I1190"/>
+      <c r="J1190"/>
+      <c r="K1190"/>
+    </row>
+    <row r="1191" spans="1:11">
+      <c r="A1191"/>
+      <c r="B1191"/>
+      <c r="C1191"/>
+      <c r="D1191"/>
+      <c r="E1191"/>
+      <c r="F1191"/>
+      <c r="G1191"/>
+      <c r="H1191"/>
+      <c r="I1191"/>
+      <c r="J1191"/>
+      <c r="K1191"/>
+    </row>
+    <row r="1192" spans="1:11">
+      <c r="A1192"/>
+      <c r="B1192"/>
+      <c r="C1192"/>
+      <c r="D1192"/>
+      <c r="E1192"/>
+      <c r="F1192"/>
+      <c r="G1192"/>
+      <c r="H1192"/>
+      <c r="I1192"/>
+      <c r="J1192"/>
+      <c r="K1192"/>
+    </row>
+    <row r="1193" spans="1:11">
+      <c r="A1193"/>
+      <c r="B1193"/>
+      <c r="C1193"/>
+      <c r="D1193"/>
+      <c r="E1193"/>
+      <c r="F1193"/>
+      <c r="G1193"/>
+      <c r="H1193"/>
+      <c r="I1193"/>
+      <c r="J1193"/>
+      <c r="K1193"/>
+    </row>
+    <row r="1194" spans="1:11">
+      <c r="A1194"/>
+      <c r="B1194"/>
+      <c r="C1194"/>
+      <c r="D1194"/>
+      <c r="E1194"/>
+      <c r="F1194"/>
+      <c r="G1194"/>
+      <c r="H1194"/>
+      <c r="I1194"/>
+      <c r="J1194"/>
+      <c r="K1194"/>
+    </row>
+    <row r="1195" spans="1:11">
+      <c r="A1195"/>
+      <c r="B1195"/>
+      <c r="C1195"/>
+      <c r="D1195"/>
+      <c r="E1195"/>
+      <c r="F1195"/>
+      <c r="G1195"/>
+      <c r="H1195"/>
+      <c r="I1195"/>
+      <c r="J1195"/>
+      <c r="K1195"/>
+    </row>
+    <row r="1196" spans="1:11">
+      <c r="A1196"/>
+      <c r="B1196"/>
+      <c r="C1196"/>
+      <c r="D1196"/>
+      <c r="E1196"/>
+      <c r="F1196"/>
+      <c r="G1196"/>
+      <c r="H1196"/>
+      <c r="I1196"/>
+      <c r="J1196"/>
+      <c r="K1196"/>
+    </row>
+    <row r="1197" spans="1:11">
+      <c r="A1197"/>
+      <c r="B1197"/>
+      <c r="C1197"/>
+      <c r="D1197"/>
+      <c r="E1197"/>
+      <c r="F1197"/>
+      <c r="G1197"/>
+      <c r="H1197"/>
+      <c r="I1197"/>
+      <c r="J1197"/>
+      <c r="K1197"/>
+    </row>
+    <row r="1198" spans="1:11">
+      <c r="A1198"/>
+      <c r="B1198"/>
+      <c r="C1198"/>
+      <c r="D1198"/>
+      <c r="E1198"/>
+      <c r="F1198"/>
+      <c r="G1198"/>
+      <c r="H1198"/>
+      <c r="I1198"/>
+      <c r="J1198"/>
+      <c r="K1198"/>
+    </row>
+    <row r="1199" spans="1:11">
+      <c r="A1199"/>
+      <c r="B1199"/>
+      <c r="C1199"/>
+      <c r="D1199"/>
+      <c r="E1199"/>
+      <c r="F1199"/>
+      <c r="G1199"/>
+      <c r="H1199"/>
+      <c r="I1199"/>
+      <c r="J1199"/>
+      <c r="K1199"/>
+    </row>
+    <row r="1200" spans="1:11">
+      <c r="A1200"/>
+      <c r="B1200"/>
+      <c r="C1200"/>
+      <c r="D1200"/>
+      <c r="E1200"/>
+      <c r="F1200"/>
+      <c r="G1200"/>
+      <c r="H1200"/>
+      <c r="I1200"/>
+      <c r="J1200"/>
+      <c r="K1200"/>
+    </row>
+    <row r="1201" spans="1:11">
+      <c r="A1201"/>
+      <c r="B1201"/>
+      <c r="C1201"/>
+      <c r="D1201"/>
+      <c r="E1201"/>
+      <c r="F1201"/>
+      <c r="G1201"/>
+      <c r="H1201"/>
+      <c r="I1201"/>
+      <c r="J1201"/>
+      <c r="K1201"/>
+    </row>
+    <row r="1202" spans="1:11">
+      <c r="A1202"/>
+      <c r="B1202"/>
+      <c r="C1202"/>
+      <c r="D1202"/>
+      <c r="E1202"/>
+      <c r="F1202"/>
+      <c r="G1202"/>
+      <c r="H1202"/>
+      <c r="I1202"/>
+      <c r="J1202"/>
+      <c r="K1202"/>
+    </row>
+    <row r="1203" spans="1:11">
+      <c r="A1203"/>
+      <c r="B1203"/>
+      <c r="C1203"/>
+      <c r="D1203"/>
+      <c r="E1203"/>
+      <c r="F1203"/>
+      <c r="G1203"/>
+      <c r="H1203"/>
+      <c r="I1203"/>
+      <c r="J1203"/>
+      <c r="K1203"/>
+    </row>
+    <row r="1204" spans="1:11">
+      <c r="A1204"/>
+      <c r="B1204"/>
+      <c r="C1204"/>
+      <c r="D1204"/>
+      <c r="E1204"/>
+      <c r="F1204"/>
+      <c r="G1204"/>
+      <c r="H1204"/>
+      <c r="I1204"/>
+      <c r="J1204"/>
+      <c r="K1204"/>
+    </row>
+    <row r="1205" spans="1:11">
+      <c r="A1205"/>
+      <c r="B1205"/>
+      <c r="C1205"/>
+      <c r="D1205"/>
+      <c r="E1205"/>
+      <c r="F1205"/>
+      <c r="G1205"/>
+      <c r="H1205"/>
+      <c r="I1205"/>
+      <c r="J1205"/>
+      <c r="K1205"/>
+    </row>
+    <row r="1206" spans="1:11">
+      <c r="A1206"/>
+      <c r="B1206"/>
+      <c r="C1206"/>
+      <c r="D1206"/>
+      <c r="E1206"/>
+      <c r="F1206"/>
+      <c r="G1206"/>
+      <c r="H1206"/>
+      <c r="I1206"/>
+      <c r="J1206"/>
+      <c r="K1206"/>
+    </row>
+    <row r="1207" spans="1:11">
+      <c r="A1207"/>
+      <c r="B1207"/>
+      <c r="C1207"/>
+      <c r="D1207"/>
+      <c r="E1207"/>
+      <c r="F1207"/>
+      <c r="G1207"/>
+      <c r="H1207"/>
+      <c r="I1207"/>
+      <c r="J1207"/>
+      <c r="K1207"/>
+    </row>
+    <row r="1208" spans="1:11">
+      <c r="A1208"/>
+      <c r="B1208"/>
+      <c r="C1208"/>
+      <c r="D1208"/>
+      <c r="E1208"/>
+      <c r="F1208"/>
+      <c r="G1208"/>
+      <c r="H1208"/>
+      <c r="I1208"/>
+      <c r="J1208"/>
+      <c r="K1208"/>
+    </row>
+    <row r="1209" spans="1:11">
+      <c r="A1209"/>
+      <c r="B1209"/>
+      <c r="C1209"/>
+      <c r="D1209"/>
+      <c r="E1209"/>
+      <c r="F1209"/>
+      <c r="G1209"/>
+      <c r="H1209"/>
+      <c r="I1209"/>
+      <c r="J1209"/>
+      <c r="K1209"/>
+    </row>
+    <row r="1210" spans="1:11">
+      <c r="A1210"/>
+      <c r="B1210"/>
+      <c r="C1210"/>
+      <c r="D1210"/>
+      <c r="E1210"/>
+      <c r="F1210"/>
+      <c r="G1210"/>
+      <c r="H1210"/>
+      <c r="I1210"/>
+      <c r="J1210"/>
+      <c r="K1210"/>
+    </row>
+    <row r="1211" spans="1:11">
+      <c r="A1211"/>
+      <c r="B1211"/>
+      <c r="C1211"/>
+      <c r="D1211"/>
+      <c r="E1211"/>
+      <c r="F1211"/>
+      <c r="G1211"/>
+      <c r="H1211"/>
+      <c r="I1211"/>
+      <c r="J1211"/>
+      <c r="K1211"/>
+    </row>
+    <row r="1212" spans="1:11">
+      <c r="A1212"/>
+      <c r="B1212"/>
+      <c r="C1212"/>
+      <c r="D1212"/>
+      <c r="E1212"/>
+      <c r="F1212"/>
+      <c r="G1212"/>
+      <c r="H1212"/>
+      <c r="I1212"/>
+      <c r="J1212"/>
+      <c r="K1212"/>
+    </row>
+    <row r="1213" spans="1:11">
+      <c r="A1213"/>
+      <c r="B1213"/>
+      <c r="C1213"/>
+      <c r="D1213"/>
+      <c r="E1213"/>
+      <c r="F1213"/>
+      <c r="G1213"/>
+      <c r="H1213"/>
+      <c r="I1213"/>
+      <c r="J1213"/>
+      <c r="K1213"/>
+    </row>
+    <row r="1214" spans="1:11">
+      <c r="A1214"/>
+      <c r="B1214"/>
+      <c r="C1214"/>
+      <c r="D1214"/>
+      <c r="E1214"/>
+      <c r="F1214"/>
+      <c r="G1214"/>
+      <c r="H1214"/>
+      <c r="I1214"/>
+      <c r="J1214"/>
+      <c r="K1214"/>
+    </row>
+    <row r="1215" spans="1:11">
+      <c r="A1215"/>
+      <c r="B1215"/>
+      <c r="C1215"/>
+      <c r="D1215"/>
+      <c r="E1215"/>
+      <c r="F1215"/>
+      <c r="G1215"/>
+      <c r="H1215"/>
+      <c r="I1215"/>
+      <c r="J1215"/>
+      <c r="K1215"/>
+    </row>
+    <row r="1216" spans="1:11">
+      <c r="A1216"/>
+      <c r="B1216"/>
+      <c r="C1216"/>
+      <c r="D1216"/>
+      <c r="E1216"/>
+      <c r="F1216"/>
+      <c r="G1216"/>
+      <c r="H1216"/>
+      <c r="I1216"/>
+      <c r="J1216"/>
+      <c r="K1216"/>
+    </row>
+    <row r="1217" spans="1:11">
+      <c r="A1217"/>
+      <c r="B1217"/>
+      <c r="C1217"/>
+      <c r="D1217"/>
+      <c r="E1217"/>
+      <c r="F1217"/>
+      <c r="G1217"/>
+      <c r="H1217"/>
+      <c r="I1217"/>
+      <c r="J1217"/>
+      <c r="K1217"/>
+    </row>
+    <row r="1218" spans="1:11">
+      <c r="A1218"/>
+      <c r="B1218"/>
+      <c r="C1218"/>
+      <c r="D1218"/>
+      <c r="E1218"/>
+      <c r="F1218"/>
+      <c r="G1218"/>
+      <c r="H1218"/>
+      <c r="I1218"/>
+      <c r="J1218"/>
+      <c r="K1218"/>
+    </row>
+    <row r="1219" spans="1:11">
+      <c r="A1219"/>
+      <c r="B1219"/>
+      <c r="C1219"/>
+      <c r="D1219"/>
+      <c r="E1219"/>
+      <c r="F1219"/>
+      <c r="G1219"/>
+      <c r="H1219"/>
+      <c r="I1219"/>
+      <c r="J1219"/>
+      <c r="K1219"/>
+    </row>
+    <row r="1220" spans="1:11">
+      <c r="A1220"/>
+      <c r="B1220"/>
+      <c r="C1220"/>
+      <c r="D1220"/>
+      <c r="E1220"/>
+      <c r="F1220"/>
+      <c r="G1220"/>
+      <c r="H1220"/>
+      <c r="I1220"/>
+      <c r="J1220"/>
+      <c r="K1220"/>
+    </row>
+    <row r="1221" spans="1:11">
+      <c r="A1221"/>
+      <c r="B1221"/>
+      <c r="C1221"/>
+      <c r="D1221"/>
+      <c r="E1221"/>
+      <c r="F1221"/>
+      <c r="G1221"/>
+      <c r="H1221"/>
+      <c r="I1221"/>
+      <c r="J1221"/>
+      <c r="K1221"/>
+    </row>
+    <row r="1222" spans="1:11">
+      <c r="A1222"/>
+      <c r="B1222"/>
+      <c r="C1222"/>
+      <c r="D1222"/>
+      <c r="E1222"/>
+      <c r="F1222"/>
+      <c r="G1222"/>
+      <c r="H1222"/>
+      <c r="I1222"/>
+      <c r="J1222"/>
+      <c r="K1222"/>
+    </row>
+    <row r="1223" spans="1:11">
+      <c r="A1223"/>
+      <c r="B1223"/>
+      <c r="C1223"/>
+      <c r="D1223"/>
+      <c r="E1223"/>
+      <c r="F1223"/>
+      <c r="G1223"/>
+      <c r="H1223"/>
+      <c r="I1223"/>
+      <c r="J1223"/>
+      <c r="K1223"/>
+    </row>
+    <row r="1224" spans="1:11">
+      <c r="A1224"/>
+      <c r="B1224"/>
+      <c r="C1224"/>
+      <c r="D1224"/>
+      <c r="E1224"/>
+      <c r="F1224"/>
+      <c r="G1224"/>
+      <c r="H1224"/>
+      <c r="I1224"/>
+      <c r="J1224"/>
+      <c r="K1224"/>
+    </row>
+    <row r="1225" spans="1:11">
+      <c r="A1225"/>
+      <c r="B1225"/>
+      <c r="C1225"/>
+      <c r="D1225"/>
+      <c r="E1225"/>
+      <c r="F1225"/>
+      <c r="G1225"/>
+      <c r="H1225"/>
+      <c r="I1225"/>
+      <c r="J1225"/>
+      <c r="K1225"/>
+    </row>
+    <row r="1226" spans="1:11">
+      <c r="A1226"/>
+      <c r="B1226"/>
+      <c r="C1226"/>
+      <c r="D1226"/>
+      <c r="E1226"/>
+      <c r="F1226"/>
+      <c r="G1226"/>
+      <c r="H1226"/>
+      <c r="I1226"/>
+      <c r="J1226"/>
+      <c r="K1226"/>
+    </row>
+    <row r="1227" spans="1:11">
+      <c r="A1227"/>
+      <c r="B1227"/>
+      <c r="C1227"/>
+      <c r="D1227"/>
+      <c r="E1227"/>
+      <c r="F1227"/>
+      <c r="G1227"/>
+      <c r="H1227"/>
+      <c r="I1227"/>
+      <c r="J1227"/>
+      <c r="K1227"/>
+    </row>
+    <row r="1228" spans="1:11">
+      <c r="A1228"/>
+      <c r="B1228"/>
+      <c r="C1228"/>
+      <c r="D1228"/>
+      <c r="E1228"/>
+      <c r="F1228"/>
+      <c r="G1228"/>
+      <c r="H1228"/>
+      <c r="I1228"/>
+      <c r="J1228"/>
+      <c r="K1228"/>
+    </row>
+    <row r="1229" spans="1:11">
+      <c r="A1229"/>
+      <c r="B1229"/>
+      <c r="C1229"/>
+      <c r="D1229"/>
+      <c r="E1229"/>
+      <c r="F1229"/>
+      <c r="G1229"/>
+      <c r="H1229"/>
+      <c r="I1229"/>
+      <c r="J1229"/>
+      <c r="K1229"/>
+    </row>
+    <row r="1230" spans="1:11">
+      <c r="A1230"/>
+      <c r="B1230"/>
+      <c r="C1230"/>
+      <c r="D1230"/>
+      <c r="E1230"/>
+      <c r="F1230"/>
+      <c r="G1230"/>
+      <c r="H1230"/>
+      <c r="I1230"/>
+      <c r="J1230"/>
+      <c r="K1230"/>
+    </row>
+    <row r="1231" spans="1:11">
+      <c r="A1231"/>
+      <c r="B1231"/>
+      <c r="C1231"/>
+      <c r="D1231"/>
+      <c r="E1231"/>
+      <c r="F1231"/>
+      <c r="G1231"/>
+      <c r="H1231"/>
+      <c r="I1231"/>
+      <c r="J1231"/>
+      <c r="K1231"/>
+    </row>
+    <row r="1232" spans="1:11">
+      <c r="A1232"/>
+      <c r="B1232"/>
+      <c r="C1232"/>
+      <c r="D1232"/>
+      <c r="E1232"/>
+      <c r="F1232"/>
+      <c r="G1232"/>
+      <c r="H1232"/>
+      <c r="I1232"/>
+      <c r="J1232"/>
+      <c r="K1232"/>
+    </row>
+    <row r="1233" spans="1:11">
+      <c r="A1233"/>
+      <c r="B1233"/>
+      <c r="C1233"/>
+      <c r="D1233"/>
+      <c r="E1233"/>
+      <c r="F1233"/>
+      <c r="G1233"/>
+      <c r="H1233"/>
+      <c r="I1233"/>
+      <c r="J1233"/>
+      <c r="K1233"/>
+    </row>
+    <row r="1234" spans="1:11">
+      <c r="A1234"/>
+      <c r="B1234"/>
+      <c r="C1234"/>
+      <c r="D1234"/>
+      <c r="E1234"/>
+      <c r="F1234"/>
+      <c r="G1234"/>
+      <c r="H1234"/>
+      <c r="I1234"/>
+      <c r="J1234"/>
+      <c r="K1234"/>
+    </row>
+    <row r="1235" spans="1:11">
+      <c r="A1235"/>
+      <c r="B1235"/>
+      <c r="C1235"/>
+      <c r="D1235"/>
+      <c r="E1235"/>
+      <c r="F1235"/>
+      <c r="G1235"/>
+      <c r="H1235"/>
+      <c r="I1235"/>
+      <c r="J1235"/>
+      <c r="K1235"/>
+    </row>
+    <row r="1236" spans="1:11">
+      <c r="A1236"/>
+      <c r="B1236"/>
+      <c r="C1236"/>
+      <c r="D1236"/>
+      <c r="E1236"/>
+      <c r="F1236"/>
+      <c r="G1236"/>
+      <c r="H1236"/>
+      <c r="I1236"/>
+      <c r="J1236"/>
+      <c r="K1236"/>
+    </row>
+    <row r="1237" spans="1:11">
+      <c r="A1237"/>
+      <c r="B1237"/>
+      <c r="C1237"/>
+      <c r="D1237"/>
+      <c r="E1237"/>
+      <c r="F1237"/>
+      <c r="G1237"/>
+      <c r="H1237"/>
+      <c r="I1237"/>
+      <c r="J1237"/>
+      <c r="K1237"/>
+    </row>
+    <row r="1238" spans="1:11">
+      <c r="A1238"/>
+      <c r="B1238"/>
+      <c r="C1238"/>
+      <c r="D1238"/>
+      <c r="E1238"/>
+      <c r="F1238"/>
+      <c r="G1238"/>
+      <c r="H1238"/>
+      <c r="I1238"/>
+      <c r="J1238"/>
+      <c r="K1238"/>
+    </row>
+    <row r="1239" spans="1:11">
+      <c r="A1239"/>
+      <c r="B1239"/>
+      <c r="C1239"/>
+      <c r="D1239"/>
+      <c r="E1239"/>
+      <c r="F1239"/>
+      <c r="G1239"/>
+      <c r="H1239"/>
+      <c r="I1239"/>
+      <c r="J1239"/>
+      <c r="K1239"/>
+    </row>
+    <row r="1240" spans="1:11">
+      <c r="A1240"/>
+      <c r="B1240"/>
+      <c r="C1240"/>
+      <c r="D1240"/>
+      <c r="E1240"/>
+      <c r="F1240"/>
+      <c r="G1240"/>
+      <c r="H1240"/>
+      <c r="I1240"/>
+      <c r="J1240"/>
+      <c r="K1240"/>
+    </row>
+    <row r="1241" spans="1:11">
+      <c r="A1241"/>
+      <c r="B1241"/>
+      <c r="C1241"/>
+      <c r="D1241"/>
+      <c r="E1241"/>
+      <c r="F1241"/>
+      <c r="G1241"/>
+      <c r="H1241"/>
+      <c r="I1241"/>
+      <c r="J1241"/>
+      <c r="K1241"/>
+    </row>
+    <row r="1242" spans="1:11">
+      <c r="A1242"/>
+      <c r="B1242"/>
+      <c r="C1242"/>
+      <c r="D1242"/>
+      <c r="E1242"/>
+      <c r="F1242"/>
+      <c r="G1242"/>
+      <c r="H1242"/>
+      <c r="I1242"/>
+      <c r="J1242"/>
+      <c r="K1242"/>
+    </row>
+    <row r="1243" spans="1:11">
+      <c r="A1243"/>
+      <c r="B1243"/>
+      <c r="C1243"/>
+      <c r="D1243"/>
+      <c r="E1243"/>
+      <c r="F1243"/>
+      <c r="G1243"/>
+      <c r="H1243"/>
+      <c r="I1243"/>
+      <c r="J1243"/>
+      <c r="K1243"/>
+    </row>
+    <row r="1244" spans="1:11">
+      <c r="A1244"/>
+      <c r="B1244"/>
+      <c r="C1244"/>
+      <c r="D1244"/>
+      <c r="E1244"/>
+      <c r="F1244"/>
+      <c r="G1244"/>
+      <c r="H1244"/>
+      <c r="I1244"/>
+      <c r="J1244"/>
+      <c r="K1244"/>
+    </row>
+    <row r="1245" spans="1:11">
+      <c r="A1245"/>
+      <c r="B1245"/>
+      <c r="C1245"/>
+      <c r="D1245"/>
+      <c r="E1245"/>
+      <c r="F1245"/>
+      <c r="G1245"/>
+      <c r="H1245"/>
+      <c r="I1245"/>
+      <c r="J1245"/>
+      <c r="K1245"/>
+    </row>
+    <row r="1246" spans="1:11">
+      <c r="A1246"/>
+      <c r="B1246"/>
+      <c r="C1246"/>
+      <c r="D1246"/>
+      <c r="E1246"/>
+      <c r="F1246"/>
+      <c r="G1246"/>
+      <c r="H1246"/>
+      <c r="I1246"/>
+      <c r="J1246"/>
+      <c r="K1246"/>
+    </row>
+    <row r="1247" spans="1:11">
+      <c r="A1247"/>
+      <c r="B1247"/>
+      <c r="C1247"/>
+      <c r="D1247"/>
+      <c r="E1247"/>
+      <c r="F1247"/>
+      <c r="G1247"/>
+      <c r="H1247"/>
+      <c r="I1247"/>
+      <c r="J1247"/>
+      <c r="K1247"/>
+    </row>
+    <row r="1248" spans="1:11">
+      <c r="A1248"/>
+      <c r="B1248"/>
+      <c r="C1248"/>
+      <c r="D1248"/>
+      <c r="E1248"/>
+      <c r="F1248"/>
+      <c r="G1248"/>
+      <c r="H1248"/>
+      <c r="I1248"/>
+      <c r="J1248"/>
+      <c r="K1248"/>
+    </row>
+    <row r="1249" spans="1:11">
+      <c r="A1249"/>
+      <c r="B1249"/>
+      <c r="C1249"/>
+      <c r="D1249"/>
+      <c r="E1249"/>
+      <c r="F1249"/>
+      <c r="G1249"/>
+      <c r="H1249"/>
+      <c r="I1249"/>
+      <c r="J1249"/>
+      <c r="K1249"/>
+    </row>
+    <row r="1250" spans="1:11">
+      <c r="A1250"/>
+      <c r="B1250"/>
+      <c r="C1250"/>
+      <c r="D1250"/>
+      <c r="E1250"/>
+      <c r="F1250"/>
+      <c r="G1250"/>
+      <c r="H1250"/>
+      <c r="I1250"/>
+      <c r="J1250"/>
+      <c r="K1250"/>
+    </row>
+    <row r="1251" spans="1:11">
+      <c r="A1251"/>
+      <c r="B1251"/>
+      <c r="C1251"/>
+      <c r="D1251"/>
+      <c r="E1251"/>
+      <c r="F1251"/>
+      <c r="G1251"/>
+      <c r="H1251"/>
+      <c r="I1251"/>
+      <c r="J1251"/>
+      <c r="K1251"/>
+    </row>
+    <row r="1252" spans="1:11">
+      <c r="A1252"/>
+      <c r="B1252"/>
+      <c r="C1252"/>
+      <c r="D1252"/>
+      <c r="E1252"/>
+      <c r="F1252"/>
+      <c r="G1252"/>
+      <c r="H1252"/>
+      <c r="I1252"/>
+      <c r="J1252"/>
+      <c r="K1252"/>
+    </row>
+    <row r="1253" spans="1:11">
+      <c r="A1253"/>
+      <c r="B1253"/>
+      <c r="C1253"/>
+      <c r="D1253"/>
+      <c r="E1253"/>
+      <c r="F1253"/>
+      <c r="G1253"/>
+      <c r="H1253"/>
+      <c r="I1253"/>
+      <c r="J1253"/>
+      <c r="K1253"/>
+    </row>
+    <row r="1254" spans="1:11">
+      <c r="A1254"/>
+      <c r="B1254"/>
+      <c r="C1254"/>
+      <c r="D1254"/>
+      <c r="E1254"/>
+      <c r="F1254"/>
+      <c r="G1254"/>
+      <c r="H1254"/>
+      <c r="I1254"/>
+      <c r="J1254"/>
+      <c r="K1254"/>
+    </row>
+    <row r="1255" spans="1:11">
+      <c r="A1255"/>
+      <c r="B1255"/>
+      <c r="C1255"/>
+      <c r="D1255"/>
+      <c r="E1255"/>
+      <c r="F1255"/>
+      <c r="G1255"/>
+      <c r="H1255"/>
+      <c r="I1255"/>
+      <c r="J1255"/>
+      <c r="K1255"/>
+    </row>
+    <row r="1256" spans="1:11">
+      <c r="A1256"/>
+      <c r="B1256"/>
+      <c r="C1256"/>
+      <c r="D1256"/>
+      <c r="E1256"/>
+      <c r="F1256"/>
+      <c r="G1256"/>
+      <c r="H1256"/>
+      <c r="I1256"/>
+      <c r="J1256"/>
+      <c r="K1256"/>
+    </row>
+    <row r="1257" spans="1:11">
+      <c r="A1257"/>
+      <c r="B1257"/>
+      <c r="C1257"/>
+      <c r="D1257"/>
+      <c r="E1257"/>
+      <c r="F1257"/>
+      <c r="G1257"/>
+      <c r="H1257"/>
+      <c r="I1257"/>
+      <c r="J1257"/>
+      <c r="K1257"/>
+    </row>
+    <row r="1258" spans="1:11">
+      <c r="A1258"/>
+      <c r="B1258"/>
+      <c r="C1258"/>
+      <c r="D1258"/>
+      <c r="E1258"/>
+      <c r="F1258"/>
+      <c r="G1258"/>
+      <c r="H1258"/>
+      <c r="I1258"/>
+      <c r="J1258"/>
+      <c r="K1258"/>
+    </row>
+    <row r="1259" spans="1:11">
+      <c r="A1259"/>
+      <c r="B1259"/>
+      <c r="C1259"/>
+      <c r="D1259"/>
+      <c r="E1259"/>
+      <c r="F1259"/>
+      <c r="G1259"/>
+      <c r="H1259"/>
+      <c r="I1259"/>
+      <c r="J1259"/>
+      <c r="K1259"/>
+    </row>
+    <row r="1260" spans="1:11">
+      <c r="A1260"/>
+      <c r="B1260"/>
+      <c r="C1260"/>
+      <c r="D1260"/>
+      <c r="E1260"/>
+      <c r="F1260"/>
+      <c r="G1260"/>
+      <c r="H1260"/>
+      <c r="I1260"/>
+      <c r="J1260"/>
+      <c r="K1260"/>
+    </row>
+    <row r="1261" spans="1:11">
+      <c r="A1261"/>
+      <c r="B1261"/>
+      <c r="C1261"/>
+      <c r="D1261"/>
+      <c r="E1261"/>
+      <c r="F1261"/>
+      <c r="G1261"/>
+      <c r="H1261"/>
+      <c r="I1261"/>
+      <c r="J1261"/>
+      <c r="K1261"/>
+    </row>
+    <row r="1262" spans="1:11">
+      <c r="A1262"/>
+      <c r="B1262"/>
+      <c r="C1262"/>
+      <c r="D1262"/>
+      <c r="E1262"/>
+      <c r="F1262"/>
+      <c r="G1262"/>
+      <c r="H1262"/>
+      <c r="I1262"/>
+      <c r="J1262"/>
+      <c r="K1262"/>
+    </row>
+    <row r="1263" spans="1:11">
+      <c r="A1263"/>
+      <c r="B1263"/>
+      <c r="C1263"/>
+      <c r="D1263"/>
+      <c r="E1263"/>
+      <c r="F1263"/>
+      <c r="G1263"/>
+      <c r="H1263"/>
+      <c r="I1263"/>
+      <c r="J1263"/>
+      <c r="K1263"/>
+    </row>
+    <row r="1264" spans="1:11">
+      <c r="A1264"/>
+      <c r="B1264"/>
+      <c r="C1264"/>
+      <c r="D1264"/>
+      <c r="E1264"/>
+      <c r="F1264"/>
+      <c r="G1264"/>
+      <c r="H1264"/>
+      <c r="I1264"/>
+      <c r="J1264"/>
+      <c r="K1264"/>
+    </row>
+    <row r="1265" spans="1:11">
+      <c r="A1265"/>
+      <c r="B1265"/>
+      <c r="C1265"/>
+      <c r="D1265"/>
+      <c r="E1265"/>
+      <c r="F1265"/>
+      <c r="G1265"/>
+      <c r="H1265"/>
+      <c r="I1265"/>
+      <c r="J1265"/>
+      <c r="K1265"/>
+    </row>
+    <row r="1266" spans="1:11">
+      <c r="A1266"/>
+      <c r="B1266"/>
+      <c r="C1266"/>
+      <c r="D1266"/>
+      <c r="E1266"/>
+      <c r="F1266"/>
+      <c r="G1266"/>
+      <c r="H1266"/>
+      <c r="I1266"/>
+      <c r="J1266"/>
+      <c r="K1266"/>
+    </row>
+    <row r="1267" spans="1:11">
+      <c r="A1267"/>
+      <c r="B1267"/>
+      <c r="C1267"/>
+      <c r="D1267"/>
+      <c r="E1267"/>
+      <c r="F1267"/>
+      <c r="G1267"/>
+      <c r="H1267"/>
+      <c r="I1267"/>
+      <c r="J1267"/>
+      <c r="K1267"/>
+    </row>
+    <row r="1268" spans="1:11">
+      <c r="A1268"/>
+      <c r="B1268"/>
+      <c r="C1268"/>
+      <c r="D1268"/>
+      <c r="E1268"/>
+      <c r="F1268"/>
+      <c r="G1268"/>
+      <c r="H1268"/>
+      <c r="I1268"/>
+      <c r="J1268"/>
+      <c r="K1268"/>
+    </row>
+    <row r="1269" spans="1:11">
+      <c r="A1269"/>
+      <c r="B1269"/>
+      <c r="C1269"/>
+      <c r="D1269"/>
+      <c r="E1269"/>
+      <c r="F1269"/>
+      <c r="G1269"/>
+      <c r="H1269"/>
+      <c r="I1269"/>
+      <c r="J1269"/>
+      <c r="K1269"/>
+    </row>
+    <row r="1270" spans="1:11">
+      <c r="A1270"/>
+      <c r="B1270"/>
+      <c r="C1270"/>
+      <c r="D1270"/>
+      <c r="E1270"/>
+      <c r="F1270"/>
+      <c r="G1270"/>
+      <c r="H1270"/>
+      <c r="I1270"/>
+      <c r="J1270"/>
+      <c r="K1270"/>
+    </row>
+    <row r="1271" spans="1:11">
+      <c r="A1271"/>
+      <c r="B1271"/>
+      <c r="C1271"/>
+      <c r="D1271"/>
+      <c r="E1271"/>
+      <c r="F1271"/>
+      <c r="G1271"/>
+      <c r="H1271"/>
+      <c r="I1271"/>
+      <c r="J1271"/>
+      <c r="K1271"/>
+    </row>
+    <row r="1272" spans="1:11">
+      <c r="A1272"/>
+      <c r="B1272"/>
+      <c r="C1272"/>
+      <c r="D1272"/>
+      <c r="E1272"/>
+      <c r="F1272"/>
+      <c r="G1272"/>
+      <c r="H1272"/>
+      <c r="I1272"/>
+      <c r="J1272"/>
+      <c r="K1272"/>
+    </row>
+    <row r="1273" spans="1:11">
+      <c r="A1273"/>
+      <c r="B1273"/>
+      <c r="C1273"/>
+      <c r="D1273"/>
+      <c r="E1273"/>
+      <c r="F1273"/>
+      <c r="G1273"/>
+      <c r="H1273"/>
+      <c r="I1273"/>
+      <c r="J1273"/>
+      <c r="K1273"/>
+    </row>
+    <row r="1274" spans="1:11">
+      <c r="A1274"/>
+      <c r="B1274"/>
+      <c r="C1274"/>
+      <c r="D1274"/>
+      <c r="E1274"/>
+      <c r="F1274"/>
+      <c r="G1274"/>
+      <c r="H1274"/>
+      <c r="I1274"/>
+      <c r="J1274"/>
+      <c r="K1274"/>
+    </row>
+    <row r="1275" spans="1:11">
+      <c r="A1275"/>
+      <c r="B1275"/>
+      <c r="C1275"/>
+      <c r="D1275"/>
+      <c r="E1275"/>
+      <c r="F1275"/>
+      <c r="G1275"/>
+      <c r="H1275"/>
+      <c r="I1275"/>
+      <c r="J1275"/>
+      <c r="K1275"/>
+    </row>
+    <row r="1276" spans="1:11">
+      <c r="A1276"/>
+      <c r="B1276"/>
+      <c r="C1276"/>
+      <c r="D1276"/>
+      <c r="E1276"/>
+      <c r="F1276"/>
+      <c r="G1276"/>
+      <c r="H1276"/>
+      <c r="I1276"/>
+      <c r="J1276"/>
+      <c r="K1276"/>
+    </row>
+    <row r="1277" spans="1:11">
+      <c r="A1277"/>
+      <c r="B1277"/>
+      <c r="C1277"/>
+      <c r="D1277"/>
+      <c r="E1277"/>
+      <c r="F1277"/>
+      <c r="G1277"/>
+      <c r="H1277"/>
+      <c r="I1277"/>
+      <c r="J1277"/>
+      <c r="K1277"/>
+    </row>
+    <row r="1278" spans="1:11">
+      <c r="A1278"/>
+      <c r="B1278"/>
+      <c r="C1278"/>
+      <c r="D1278"/>
+      <c r="E1278"/>
+      <c r="F1278"/>
+      <c r="G1278"/>
+      <c r="H1278"/>
+      <c r="I1278"/>
+      <c r="J1278"/>
+      <c r="K1278"/>
+    </row>
+    <row r="1279" spans="1:11">
+      <c r="A1279"/>
+      <c r="B1279"/>
+      <c r="C1279"/>
+      <c r="D1279"/>
+      <c r="E1279"/>
+      <c r="F1279"/>
+      <c r="G1279"/>
+      <c r="H1279"/>
+      <c r="I1279"/>
+      <c r="J1279"/>
+      <c r="K1279"/>
+    </row>
+    <row r="1280" spans="1:11">
+      <c r="A1280"/>
+      <c r="B1280"/>
+      <c r="C1280"/>
+      <c r="D1280"/>
+      <c r="E1280"/>
+      <c r="F1280"/>
+      <c r="G1280"/>
+      <c r="H1280"/>
+      <c r="I1280"/>
+      <c r="J1280"/>
+      <c r="K1280"/>
+    </row>
+    <row r="1281" spans="1:11">
+      <c r="A1281"/>
+      <c r="B1281"/>
+      <c r="C1281"/>
+      <c r="D1281"/>
+      <c r="E1281"/>
+      <c r="F1281"/>
+      <c r="G1281"/>
+      <c r="H1281"/>
+      <c r="I1281"/>
+      <c r="J1281"/>
+      <c r="K1281"/>
+    </row>
+    <row r="1282" spans="1:11">
+      <c r="A1282"/>
+      <c r="B1282"/>
+      <c r="C1282"/>
+      <c r="D1282"/>
+      <c r="E1282"/>
+      <c r="F1282"/>
+      <c r="G1282"/>
+      <c r="H1282"/>
+      <c r="I1282"/>
+      <c r="J1282"/>
+      <c r="K1282"/>
+    </row>
+    <row r="1283" spans="1:11">
+      <c r="A1283"/>
+      <c r="B1283"/>
+      <c r="C1283"/>
+      <c r="D1283"/>
+      <c r="E1283"/>
+      <c r="F1283"/>
+      <c r="G1283"/>
+      <c r="H1283"/>
+      <c r="I1283"/>
+      <c r="J1283"/>
+      <c r="K1283"/>
+    </row>
+    <row r="1284" spans="1:11">
+      <c r="A1284"/>
+      <c r="B1284"/>
+      <c r="C1284"/>
+      <c r="D1284"/>
+      <c r="E1284"/>
+      <c r="F1284"/>
+      <c r="G1284"/>
+      <c r="H1284"/>
+      <c r="I1284"/>
+      <c r="J1284"/>
+      <c r="K1284"/>
+    </row>
+    <row r="1285" spans="1:11">
+      <c r="A1285"/>
+      <c r="B1285"/>
+      <c r="C1285"/>
+      <c r="D1285"/>
+      <c r="E1285"/>
+      <c r="F1285"/>
+      <c r="G1285"/>
+      <c r="H1285"/>
+      <c r="I1285"/>
+      <c r="J1285"/>
+      <c r="K1285"/>
+    </row>
+    <row r="1286" spans="1:11">
+      <c r="A1286"/>
+      <c r="B1286"/>
+      <c r="C1286"/>
+      <c r="D1286"/>
+      <c r="E1286"/>
+      <c r="F1286"/>
+      <c r="G1286"/>
+      <c r="H1286"/>
+      <c r="I1286"/>
+      <c r="J1286"/>
+      <c r="K1286"/>
+    </row>
+    <row r="1287" spans="1:11">
+      <c r="A1287"/>
+      <c r="B1287"/>
+      <c r="C1287"/>
+      <c r="D1287"/>
+      <c r="E1287"/>
+      <c r="F1287"/>
+      <c r="G1287"/>
+      <c r="H1287"/>
+      <c r="I1287"/>
+      <c r="J1287"/>
+      <c r="K1287"/>
+    </row>
+    <row r="1288" spans="1:11">
+      <c r="A1288"/>
+      <c r="B1288"/>
+      <c r="C1288"/>
+      <c r="D1288"/>
+      <c r="E1288"/>
+      <c r="F1288"/>
+      <c r="G1288"/>
+      <c r="H1288"/>
+      <c r="I1288"/>
+      <c r="J1288"/>
+      <c r="K1288"/>
+    </row>
+    <row r="1289" spans="1:11">
+      <c r="A1289"/>
+      <c r="B1289"/>
+      <c r="C1289"/>
+      <c r="D1289"/>
+      <c r="E1289"/>
+      <c r="F1289"/>
+      <c r="G1289"/>
+      <c r="H1289"/>
+      <c r="I1289"/>
+      <c r="J1289"/>
+      <c r="K1289"/>
+    </row>
+    <row r="1290" spans="1:11">
+      <c r="A1290"/>
+      <c r="B1290"/>
+      <c r="C1290"/>
+      <c r="D1290"/>
+      <c r="E1290"/>
+      <c r="F1290"/>
+      <c r="G1290"/>
+      <c r="H1290"/>
+      <c r="I1290"/>
+      <c r="J1290"/>
+      <c r="K1290"/>
+    </row>
+    <row r="1291" spans="1:11">
+      <c r="A1291"/>
+      <c r="B1291"/>
+      <c r="C1291"/>
+      <c r="D1291"/>
+      <c r="E1291"/>
+      <c r="F1291"/>
+      <c r="G1291"/>
+      <c r="H1291"/>
+      <c r="I1291"/>
+      <c r="J1291"/>
+      <c r="K1291"/>
+    </row>
+    <row r="1292" spans="1:11">
+      <c r="A1292"/>
+      <c r="B1292"/>
+      <c r="C1292"/>
+      <c r="D1292"/>
+      <c r="E1292"/>
+      <c r="F1292"/>
+      <c r="G1292"/>
+      <c r="H1292"/>
+      <c r="I1292"/>
+      <c r="J1292"/>
+      <c r="K1292"/>
+    </row>
+    <row r="1293" spans="1:11">
+      <c r="A1293"/>
+      <c r="B1293"/>
+      <c r="C1293"/>
+      <c r="D1293"/>
+      <c r="E1293"/>
+      <c r="F1293"/>
+      <c r="G1293"/>
+      <c r="H1293"/>
+      <c r="I1293"/>
+      <c r="J1293"/>
+      <c r="K1293"/>
+    </row>
+    <row r="1294" spans="1:11">
+      <c r="A1294"/>
+      <c r="B1294"/>
+      <c r="C1294"/>
+      <c r="D1294"/>
+      <c r="E1294"/>
+      <c r="F1294"/>
+      <c r="G1294"/>
+      <c r="H1294"/>
+      <c r="I1294"/>
+      <c r="J1294"/>
+      <c r="K1294"/>
+    </row>
+    <row r="1295" spans="1:11">
+      <c r="A1295"/>
+      <c r="B1295"/>
+      <c r="C1295"/>
+      <c r="D1295"/>
+      <c r="E1295"/>
+      <c r="F1295"/>
+      <c r="G1295"/>
+      <c r="H1295"/>
+      <c r="I1295"/>
+      <c r="J1295"/>
+      <c r="K1295"/>
+    </row>
+    <row r="1296" spans="1:11">
+      <c r="A1296"/>
+      <c r="B1296"/>
+      <c r="C1296"/>
+      <c r="D1296"/>
+      <c r="E1296"/>
+      <c r="F1296"/>
+      <c r="G1296"/>
+      <c r="H1296"/>
+      <c r="I1296"/>
+      <c r="J1296"/>
+      <c r="K1296"/>
+    </row>
+    <row r="1297" spans="1:11">
+      <c r="A1297"/>
+      <c r="B1297"/>
+      <c r="C1297"/>
+      <c r="D1297"/>
+      <c r="E1297"/>
+      <c r="F1297"/>
+      <c r="G1297"/>
+      <c r="H1297"/>
+      <c r="I1297"/>
+      <c r="J1297"/>
+      <c r="K1297"/>
+    </row>
+    <row r="1298" spans="1:11">
+      <c r="A1298"/>
+      <c r="B1298"/>
+      <c r="C1298"/>
+      <c r="D1298"/>
+      <c r="E1298"/>
+      <c r="F1298"/>
+      <c r="G1298"/>
+      <c r="H1298"/>
+      <c r="I1298"/>
+      <c r="J1298"/>
+      <c r="K1298"/>
+    </row>
+    <row r="1299" spans="1:11">
+      <c r="A1299"/>
+      <c r="B1299"/>
+      <c r="C1299"/>
+      <c r="D1299"/>
+      <c r="E1299"/>
+      <c r="F1299"/>
+      <c r="G1299"/>
+      <c r="H1299"/>
+      <c r="I1299"/>
+      <c r="J1299"/>
+      <c r="K1299"/>
+    </row>
+    <row r="1300" spans="1:11">
+      <c r="A1300"/>
+      <c r="B1300"/>
+      <c r="C1300"/>
+      <c r="D1300"/>
+      <c r="E1300"/>
+      <c r="F1300"/>
+      <c r="G1300"/>
+      <c r="H1300"/>
+      <c r="I1300"/>
+      <c r="J1300"/>
+      <c r="K1300"/>
+    </row>
+    <row r="1301" spans="1:11">
+      <c r="A1301"/>
+      <c r="B1301"/>
+      <c r="C1301"/>
+      <c r="D1301"/>
+      <c r="E1301"/>
+      <c r="F1301"/>
+      <c r="G1301"/>
+      <c r="H1301"/>
+      <c r="I1301"/>
+      <c r="J1301"/>
+      <c r="K1301"/>
+    </row>
+    <row r="1302" spans="1:11">
+      <c r="A1302"/>
+      <c r="B1302"/>
+      <c r="C1302"/>
+      <c r="D1302"/>
+      <c r="E1302"/>
+      <c r="F1302"/>
+      <c r="G1302"/>
+      <c r="H1302"/>
+      <c r="I1302"/>
+      <c r="J1302"/>
+      <c r="K1302"/>
+    </row>
+    <row r="1303" spans="1:11">
+      <c r="A1303"/>
+      <c r="B1303"/>
+      <c r="C1303"/>
+      <c r="D1303"/>
+      <c r="E1303"/>
+      <c r="F1303"/>
+      <c r="G1303"/>
+      <c r="H1303"/>
+      <c r="I1303"/>
+      <c r="J1303"/>
+      <c r="K1303"/>
+    </row>
+    <row r="1304" spans="1:11">
+      <c r="A1304"/>
+      <c r="B1304"/>
+      <c r="C1304"/>
+      <c r="D1304"/>
+      <c r="E1304"/>
+      <c r="F1304"/>
+      <c r="G1304"/>
+      <c r="H1304"/>
+      <c r="I1304"/>
+      <c r="J1304"/>
+      <c r="K1304"/>
+    </row>
+    <row r="1305" spans="1:11">
+      <c r="A1305"/>
+      <c r="B1305"/>
+      <c r="C1305"/>
+      <c r="D1305"/>
+      <c r="E1305"/>
+      <c r="F1305"/>
+      <c r="G1305"/>
+      <c r="H1305"/>
+      <c r="I1305"/>
+      <c r="J1305"/>
+      <c r="K1305"/>
+    </row>
+    <row r="1306" spans="1:11">
+      <c r="A1306"/>
+      <c r="B1306"/>
+      <c r="C1306"/>
+      <c r="D1306"/>
+      <c r="E1306"/>
+      <c r="F1306"/>
+      <c r="G1306"/>
+      <c r="H1306"/>
+      <c r="I1306"/>
+      <c r="J1306"/>
+      <c r="K1306"/>
+    </row>
+    <row r="1307" spans="1:11">
+      <c r="A1307"/>
+      <c r="B1307"/>
+      <c r="C1307"/>
+      <c r="D1307"/>
+      <c r="E1307"/>
+      <c r="F1307"/>
+      <c r="G1307"/>
+      <c r="H1307"/>
+      <c r="I1307"/>
+      <c r="J1307"/>
+      <c r="K1307"/>
+    </row>
+    <row r="1308" spans="1:11">
+      <c r="A1308"/>
+      <c r="B1308"/>
+      <c r="C1308"/>
+      <c r="D1308"/>
+      <c r="E1308"/>
+      <c r="F1308"/>
+      <c r="G1308"/>
+      <c r="H1308"/>
+      <c r="I1308"/>
+      <c r="J1308"/>
+      <c r="K1308"/>
+    </row>
+    <row r="1309" spans="1:11">
+      <c r="A1309"/>
+      <c r="B1309"/>
+      <c r="C1309"/>
+      <c r="D1309"/>
+      <c r="E1309"/>
+      <c r="F1309"/>
+      <c r="G1309"/>
+      <c r="H1309"/>
+      <c r="I1309"/>
+      <c r="J1309"/>
+      <c r="K1309"/>
+    </row>
+    <row r="1310" spans="1:11">
+      <c r="A1310"/>
+      <c r="B1310"/>
+      <c r="C1310"/>
+      <c r="D1310"/>
+      <c r="E1310"/>
+      <c r="F1310"/>
+      <c r="G1310"/>
+      <c r="H1310"/>
+      <c r="I1310"/>
+      <c r="J1310"/>
+      <c r="K1310"/>
+    </row>
+    <row r="1311" spans="1:11">
+      <c r="A1311"/>
+      <c r="B1311"/>
+      <c r="C1311"/>
+      <c r="D1311"/>
+      <c r="E1311"/>
+      <c r="F1311"/>
+      <c r="G1311"/>
+      <c r="H1311"/>
+      <c r="I1311"/>
+      <c r="J1311"/>
+      <c r="K1311"/>
+    </row>
+    <row r="1312" spans="1:11">
+      <c r="A1312"/>
+      <c r="B1312"/>
+      <c r="C1312"/>
+      <c r="D1312"/>
+      <c r="E1312"/>
+      <c r="F1312"/>
+      <c r="G1312"/>
+      <c r="H1312"/>
+      <c r="I1312"/>
+      <c r="J1312"/>
+      <c r="K1312"/>
+    </row>
+    <row r="1313" spans="1:11">
+      <c r="A1313"/>
+      <c r="B1313"/>
+      <c r="C1313"/>
+      <c r="D1313"/>
+      <c r="E1313"/>
+      <c r="F1313"/>
+      <c r="G1313"/>
+      <c r="H1313"/>
+      <c r="I1313"/>
+      <c r="J1313"/>
+      <c r="K1313"/>
+    </row>
+    <row r="1314" spans="1:11">
+      <c r="A1314"/>
+      <c r="B1314"/>
+      <c r="C1314"/>
+      <c r="D1314"/>
+      <c r="E1314"/>
+      <c r="F1314"/>
+      <c r="G1314"/>
+      <c r="H1314"/>
+      <c r="I1314"/>
+      <c r="J1314"/>
+      <c r="K1314"/>
+    </row>
+    <row r="1315" spans="1:11">
+      <c r="A1315"/>
+      <c r="B1315"/>
+      <c r="C1315"/>
+      <c r="D1315"/>
+      <c r="E1315"/>
+      <c r="F1315"/>
+      <c r="G1315"/>
+      <c r="H1315"/>
+      <c r="I1315"/>
+      <c r="J1315"/>
+      <c r="K1315"/>
+    </row>
+    <row r="1316" spans="1:11">
+      <c r="A1316"/>
+      <c r="B1316"/>
+      <c r="C1316"/>
+      <c r="D1316"/>
+      <c r="E1316"/>
+      <c r="F1316"/>
+      <c r="G1316"/>
+      <c r="H1316"/>
+      <c r="I1316"/>
+      <c r="J1316"/>
+      <c r="K1316"/>
+    </row>
+    <row r="1317" spans="1:11">
+      <c r="A1317"/>
+      <c r="B1317"/>
+      <c r="C1317"/>
+      <c r="D1317"/>
+      <c r="E1317"/>
+      <c r="F1317"/>
+      <c r="G1317"/>
+      <c r="H1317"/>
+      <c r="I1317"/>
+      <c r="J1317"/>
+      <c r="K1317"/>
+    </row>
+    <row r="1318" spans="1:11">
+      <c r="A1318"/>
+      <c r="B1318"/>
+      <c r="C1318"/>
+      <c r="D1318"/>
+      <c r="E1318"/>
+      <c r="F1318"/>
+      <c r="G1318"/>
+      <c r="H1318"/>
+      <c r="I1318"/>
+      <c r="J1318"/>
+      <c r="K1318"/>
+    </row>
+    <row r="1319" spans="1:11">
+      <c r="A1319"/>
+      <c r="B1319"/>
+      <c r="C1319"/>
+      <c r="D1319"/>
+      <c r="E1319"/>
+      <c r="F1319"/>
+      <c r="G1319"/>
+      <c r="H1319"/>
+      <c r="I1319"/>
+      <c r="J1319"/>
+      <c r="K1319"/>
+    </row>
+    <row r="1320" spans="1:11">
+      <c r="A1320"/>
+      <c r="B1320"/>
+      <c r="C1320"/>
+      <c r="D1320"/>
+      <c r="E1320"/>
+      <c r="F1320"/>
+      <c r="G1320"/>
+      <c r="H1320"/>
+      <c r="I1320"/>
+      <c r="J1320"/>
+      <c r="K1320"/>
+    </row>
+    <row r="1321" spans="1:11">
+      <c r="A1321"/>
+      <c r="B1321"/>
+      <c r="C1321"/>
+      <c r="D1321"/>
+      <c r="E1321"/>
+      <c r="F1321"/>
+      <c r="G1321"/>
+      <c r="H1321"/>
+      <c r="I1321"/>
+      <c r="J1321"/>
+      <c r="K1321"/>
+    </row>
+    <row r="1322" spans="1:11">
+      <c r="A1322"/>
+      <c r="B1322"/>
+      <c r="C1322"/>
+      <c r="D1322"/>
+      <c r="E1322"/>
+      <c r="F1322"/>
+      <c r="G1322"/>
+      <c r="H1322"/>
+      <c r="I1322"/>
+      <c r="J1322"/>
+      <c r="K1322"/>
+    </row>
+    <row r="1323" spans="1:11">
+      <c r="A1323"/>
+      <c r="B1323"/>
+      <c r="C1323"/>
+      <c r="D1323"/>
+      <c r="E1323"/>
+      <c r="F1323"/>
+      <c r="G1323"/>
+      <c r="H1323"/>
+      <c r="I1323"/>
+      <c r="J1323"/>
+      <c r="K1323"/>
+    </row>
+    <row r="1324" spans="1:11">
+      <c r="A1324"/>
+      <c r="B1324"/>
+      <c r="C1324"/>
+      <c r="D1324"/>
+      <c r="E1324"/>
+      <c r="F1324"/>
+      <c r="G1324"/>
+      <c r="H1324"/>
+      <c r="I1324"/>
+      <c r="J1324"/>
+      <c r="K1324"/>
+    </row>
+    <row r="1325" spans="1:11">
+      <c r="A1325"/>
+      <c r="B1325"/>
+      <c r="C1325"/>
+      <c r="D1325"/>
+      <c r="E1325"/>
+      <c r="F1325"/>
+      <c r="G1325"/>
+      <c r="H1325"/>
+      <c r="I1325"/>
+      <c r="J1325"/>
+      <c r="K1325"/>
+    </row>
+    <row r="1326" spans="1:11">
+      <c r="A1326"/>
+      <c r="B1326"/>
+      <c r="C1326"/>
+      <c r="D1326"/>
+      <c r="E1326"/>
+      <c r="F1326"/>
+      <c r="G1326"/>
+      <c r="H1326"/>
+      <c r="I1326"/>
+      <c r="J1326"/>
+      <c r="K1326"/>
+    </row>
+    <row r="1327" spans="1:11">
+      <c r="A1327"/>
+      <c r="B1327"/>
+      <c r="C1327"/>
+      <c r="D1327"/>
+      <c r="E1327"/>
+      <c r="F1327"/>
+      <c r="G1327"/>
+      <c r="H1327"/>
+      <c r="I1327"/>
+      <c r="J1327"/>
+      <c r="K1327"/>
+    </row>
+    <row r="1328" spans="1:11">
+      <c r="A1328"/>
+      <c r="B1328"/>
+      <c r="C1328"/>
+      <c r="D1328"/>
+      <c r="E1328"/>
+      <c r="F1328"/>
+      <c r="G1328"/>
+      <c r="H1328"/>
+      <c r="I1328"/>
+      <c r="J1328"/>
+      <c r="K1328"/>
+    </row>
+    <row r="1329" spans="1:11">
+      <c r="A1329"/>
+      <c r="B1329"/>
+      <c r="C1329"/>
+      <c r="D1329"/>
+      <c r="E1329"/>
+      <c r="F1329"/>
+      <c r="G1329"/>
+      <c r="H1329"/>
+      <c r="I1329"/>
+      <c r="J1329"/>
+      <c r="K1329"/>
+    </row>
+    <row r="1330" spans="1:11">
+      <c r="A1330"/>
+      <c r="B1330"/>
+      <c r="C1330"/>
+      <c r="D1330"/>
+      <c r="E1330"/>
+      <c r="F1330"/>
+      <c r="G1330"/>
+      <c r="H1330"/>
+      <c r="I1330"/>
+      <c r="J1330"/>
+      <c r="K1330"/>
+    </row>
+    <row r="1331" spans="1:11">
+      <c r="A1331"/>
+      <c r="B1331"/>
+      <c r="C1331"/>
+      <c r="D1331"/>
+      <c r="E1331"/>
+      <c r="F1331"/>
+      <c r="G1331"/>
+      <c r="H1331"/>
+      <c r="I1331"/>
+      <c r="J1331"/>
+      <c r="K1331"/>
+    </row>
+    <row r="1332" spans="1:11">
+      <c r="A1332"/>
+      <c r="B1332"/>
+      <c r="C1332"/>
+      <c r="D1332"/>
+      <c r="E1332"/>
+      <c r="F1332"/>
+      <c r="G1332"/>
+      <c r="H1332"/>
+      <c r="I1332"/>
+      <c r="J1332"/>
+      <c r="K1332"/>
+    </row>
+    <row r="1333" spans="1:11">
+      <c r="A1333"/>
+      <c r="B1333"/>
+      <c r="C1333"/>
+      <c r="D1333"/>
+      <c r="E1333"/>
+      <c r="F1333"/>
+      <c r="G1333"/>
+      <c r="H1333"/>
+      <c r="I1333"/>
+      <c r="J1333"/>
+      <c r="K1333"/>
+    </row>
+    <row r="1334" spans="1:11">
+      <c r="A1334"/>
+      <c r="B1334"/>
+      <c r="C1334"/>
+      <c r="D1334"/>
+      <c r="E1334"/>
+      <c r="F1334"/>
+      <c r="G1334"/>
+      <c r="H1334"/>
+      <c r="I1334"/>
+      <c r="J1334"/>
+      <c r="K1334"/>
+    </row>
+    <row r="1335" spans="1:11">
+      <c r="A1335"/>
+      <c r="B1335"/>
+      <c r="C1335"/>
+      <c r="D1335"/>
+      <c r="E1335"/>
+      <c r="F1335"/>
+      <c r="G1335"/>
+      <c r="H1335"/>
+      <c r="I1335"/>
+      <c r="J1335"/>
+      <c r="K1335"/>
+    </row>
+    <row r="1336" spans="1:11">
+      <c r="A1336"/>
+      <c r="B1336"/>
+      <c r="C1336"/>
+      <c r="D1336"/>
+      <c r="E1336"/>
+      <c r="F1336"/>
+      <c r="G1336"/>
+      <c r="H1336"/>
+      <c r="I1336"/>
+      <c r="J1336"/>
+      <c r="K1336"/>
+    </row>
+    <row r="1337" spans="1:11">
+      <c r="A1337"/>
+      <c r="B1337"/>
+      <c r="C1337"/>
+      <c r="D1337"/>
+      <c r="E1337"/>
+      <c r="F1337"/>
+      <c r="G1337"/>
+      <c r="H1337"/>
+      <c r="I1337"/>
+      <c r="J1337"/>
+      <c r="K1337"/>
+    </row>
+    <row r="1338" spans="1:11">
+      <c r="A1338"/>
+      <c r="B1338"/>
+      <c r="C1338"/>
+      <c r="D1338"/>
+      <c r="E1338"/>
+      <c r="F1338"/>
+      <c r="G1338"/>
+      <c r="H1338"/>
+      <c r="I1338"/>
+      <c r="J1338"/>
+      <c r="K1338"/>
+    </row>
+    <row r="1339" spans="1:11">
+      <c r="A1339"/>
+      <c r="B1339"/>
+      <c r="C1339"/>
+      <c r="D1339"/>
+      <c r="E1339"/>
+      <c r="F1339"/>
+      <c r="G1339"/>
+      <c r="H1339"/>
+      <c r="I1339"/>
+      <c r="J1339"/>
+      <c r="K1339"/>
+    </row>
+    <row r="1340" spans="1:11">
+      <c r="A1340"/>
+      <c r="B1340"/>
+      <c r="C1340"/>
+      <c r="D1340"/>
+      <c r="E1340"/>
+      <c r="F1340"/>
+      <c r="G1340"/>
+      <c r="H1340"/>
+      <c r="I1340"/>
+      <c r="J1340"/>
+      <c r="K1340"/>
+    </row>
+    <row r="1341" spans="1:11">
+      <c r="A1341"/>
+      <c r="B1341"/>
+      <c r="C1341"/>
+      <c r="D1341"/>
+      <c r="E1341"/>
+      <c r="F1341"/>
+      <c r="G1341"/>
+      <c r="H1341"/>
+      <c r="I1341"/>
+      <c r="J1341"/>
+      <c r="K1341"/>
+    </row>
+    <row r="1342" spans="1:11">
+      <c r="A1342"/>
+      <c r="B1342"/>
+      <c r="C1342"/>
+      <c r="D1342"/>
+      <c r="E1342"/>
+      <c r="F1342"/>
+      <c r="G1342"/>
+      <c r="H1342"/>
+      <c r="I1342"/>
+      <c r="J1342"/>
+      <c r="K1342"/>
+    </row>
+    <row r="1343" spans="1:11">
+      <c r="A1343"/>
+      <c r="B1343"/>
+      <c r="C1343"/>
+      <c r="D1343"/>
+      <c r="E1343"/>
+      <c r="F1343"/>
+      <c r="G1343"/>
+      <c r="H1343"/>
+      <c r="I1343"/>
+      <c r="J1343"/>
+      <c r="K1343"/>
+    </row>
+    <row r="1344" spans="1:11">
+      <c r="A1344"/>
+      <c r="B1344"/>
+      <c r="C1344"/>
+      <c r="D1344"/>
+      <c r="E1344"/>
+      <c r="F1344"/>
+      <c r="G1344"/>
+      <c r="H1344"/>
+      <c r="I1344"/>
+      <c r="J1344"/>
+      <c r="K1344"/>
+    </row>
+    <row r="1345" spans="1:11">
+      <c r="A1345"/>
+      <c r="B1345"/>
+      <c r="C1345"/>
+      <c r="D1345"/>
+      <c r="E1345"/>
+      <c r="F1345"/>
+      <c r="G1345"/>
+      <c r="H1345"/>
+      <c r="I1345"/>
+      <c r="J1345"/>
+      <c r="K1345"/>
+    </row>
+    <row r="1346" spans="1:11">
+      <c r="A1346"/>
+      <c r="B1346"/>
+      <c r="C1346"/>
+      <c r="D1346"/>
+      <c r="E1346"/>
+      <c r="F1346"/>
+      <c r="G1346"/>
+      <c r="H1346"/>
+      <c r="I1346"/>
+      <c r="J1346"/>
+      <c r="K1346"/>
+    </row>
+    <row r="1347" spans="1:11">
+      <c r="A1347"/>
+      <c r="B1347"/>
+      <c r="C1347"/>
+      <c r="D1347"/>
+      <c r="E1347"/>
+      <c r="F1347"/>
+      <c r="G1347"/>
+      <c r="H1347"/>
+      <c r="I1347"/>
+      <c r="J1347"/>
+      <c r="K1347"/>
+    </row>
+    <row r="1348" spans="1:11">
+      <c r="A1348"/>
+      <c r="B1348"/>
+      <c r="C1348"/>
+      <c r="D1348"/>
+      <c r="E1348"/>
+      <c r="F1348"/>
+      <c r="G1348"/>
+      <c r="H1348"/>
+      <c r="I1348"/>
+      <c r="J1348"/>
+      <c r="K1348"/>
+    </row>
+    <row r="1349" spans="1:11">
+      <c r="A1349"/>
+      <c r="B1349"/>
+      <c r="C1349"/>
+      <c r="D1349"/>
+      <c r="E1349"/>
+      <c r="F1349"/>
+      <c r="G1349"/>
+      <c r="H1349"/>
+      <c r="I1349"/>
+      <c r="J1349"/>
+      <c r="K1349"/>
+    </row>
+    <row r="1350" spans="1:11">
+      <c r="A1350"/>
+      <c r="B1350"/>
+      <c r="C1350"/>
+      <c r="D1350"/>
+      <c r="E1350"/>
+      <c r="F1350"/>
+      <c r="G1350"/>
+      <c r="H1350"/>
+      <c r="I1350"/>
+      <c r="J1350"/>
+      <c r="K1350"/>
+    </row>
+    <row r="1351" spans="1:11">
+      <c r="A1351"/>
+      <c r="B1351"/>
+      <c r="C1351"/>
+      <c r="D1351"/>
+      <c r="E1351"/>
+      <c r="F1351"/>
+      <c r="G1351"/>
+      <c r="H1351"/>
+      <c r="I1351"/>
+      <c r="J1351"/>
+      <c r="K1351"/>
+    </row>
+    <row r="1352" spans="1:11">
+      <c r="A1352"/>
+      <c r="B1352"/>
+      <c r="C1352"/>
+      <c r="D1352"/>
+      <c r="E1352"/>
+      <c r="F1352"/>
+      <c r="G1352"/>
+      <c r="H1352"/>
+      <c r="I1352"/>
+      <c r="J1352"/>
+      <c r="K1352"/>
+    </row>
+    <row r="1353" spans="1:11">
+      <c r="A1353"/>
+      <c r="B1353"/>
+      <c r="C1353"/>
+      <c r="D1353"/>
+      <c r="E1353"/>
+      <c r="F1353"/>
+      <c r="G1353"/>
+      <c r="H1353"/>
+      <c r="I1353"/>
+      <c r="J1353"/>
+      <c r="K1353"/>
+    </row>
+    <row r="1354" spans="1:11">
+      <c r="A1354"/>
+      <c r="B1354"/>
+      <c r="C1354"/>
+      <c r="D1354"/>
+      <c r="E1354"/>
+      <c r="F1354"/>
+      <c r="G1354"/>
+      <c r="H1354"/>
+      <c r="I1354"/>
+      <c r="J1354"/>
+      <c r="K1354"/>
+    </row>
+    <row r="1355" spans="1:11">
+      <c r="A1355"/>
+      <c r="B1355"/>
+      <c r="C1355"/>
+      <c r="D1355"/>
+      <c r="E1355"/>
+      <c r="F1355"/>
+      <c r="G1355"/>
+      <c r="H1355"/>
+      <c r="I1355"/>
+      <c r="J1355"/>
+      <c r="K1355"/>
+    </row>
+    <row r="1356" spans="1:11">
+      <c r="A1356"/>
+      <c r="B1356"/>
+      <c r="C1356"/>
+      <c r="D1356"/>
+      <c r="E1356"/>
+      <c r="F1356"/>
+      <c r="G1356"/>
+      <c r="H1356"/>
+      <c r="I1356"/>
+      <c r="J1356"/>
+      <c r="K1356"/>
+    </row>
+    <row r="1357" spans="1:11">
+      <c r="A1357"/>
+      <c r="B1357"/>
+      <c r="C1357"/>
+      <c r="D1357"/>
+      <c r="E1357"/>
+      <c r="F1357"/>
+      <c r="G1357"/>
+      <c r="H1357"/>
+      <c r="I1357"/>
+      <c r="J1357"/>
+      <c r="K1357"/>
+    </row>
+    <row r="1358" spans="1:11">
+      <c r="A1358"/>
+      <c r="B1358"/>
+      <c r="C1358"/>
+      <c r="D1358"/>
+      <c r="E1358"/>
+      <c r="F1358"/>
+      <c r="G1358"/>
+      <c r="H1358"/>
+      <c r="I1358"/>
+      <c r="J1358"/>
+      <c r="K1358"/>
+    </row>
+    <row r="1359" spans="1:11">
+      <c r="A1359"/>
+      <c r="B1359"/>
+      <c r="C1359"/>
+      <c r="D1359"/>
+      <c r="E1359"/>
+      <c r="F1359"/>
+      <c r="G1359"/>
+      <c r="H1359"/>
+      <c r="I1359"/>
+      <c r="J1359"/>
+      <c r="K1359"/>
+    </row>
+    <row r="1360" spans="1:11">
+      <c r="A1360"/>
+      <c r="B1360"/>
+      <c r="C1360"/>
+      <c r="D1360"/>
+      <c r="E1360"/>
+      <c r="F1360"/>
+      <c r="G1360"/>
+      <c r="H1360"/>
+      <c r="I1360"/>
+      <c r="J1360"/>
+      <c r="K1360"/>
+    </row>
+    <row r="1361" spans="1:11">
+      <c r="A1361"/>
+      <c r="B1361"/>
+      <c r="C1361"/>
+      <c r="D1361"/>
+      <c r="E1361"/>
+      <c r="F1361"/>
+      <c r="G1361"/>
+      <c r="H1361"/>
+      <c r="I1361"/>
+      <c r="J1361"/>
+      <c r="K1361"/>
+    </row>
+    <row r="1362" spans="1:11">
+      <c r="A1362"/>
+      <c r="B1362"/>
+      <c r="C1362"/>
+      <c r="D1362"/>
+      <c r="E1362"/>
+      <c r="F1362"/>
+      <c r="G1362"/>
+      <c r="H1362"/>
+      <c r="I1362"/>
+      <c r="J1362"/>
+      <c r="K1362"/>
+    </row>
+    <row r="1363" spans="1:11">
+      <c r="A1363"/>
+      <c r="B1363"/>
+      <c r="C1363"/>
+      <c r="D1363"/>
+      <c r="E1363"/>
+      <c r="F1363"/>
+      <c r="G1363"/>
+      <c r="H1363"/>
+      <c r="I1363"/>
+      <c r="J1363"/>
+      <c r="K1363"/>
+    </row>
+    <row r="1364" spans="1:11">
+      <c r="A1364"/>
+      <c r="B1364"/>
+      <c r="C1364"/>
+      <c r="D1364"/>
+      <c r="E1364"/>
+      <c r="F1364"/>
+      <c r="G1364"/>
+      <c r="H1364"/>
+      <c r="I1364"/>
+      <c r="J1364"/>
+      <c r="K1364"/>
+    </row>
+    <row r="1365" spans="1:11">
+      <c r="A1365"/>
+      <c r="B1365"/>
+      <c r="C1365"/>
+      <c r="D1365"/>
+      <c r="E1365"/>
+      <c r="F1365"/>
+      <c r="G1365"/>
+      <c r="H1365"/>
+      <c r="I1365"/>
+      <c r="J1365"/>
+      <c r="K1365"/>
+    </row>
+    <row r="1366" spans="1:11">
+      <c r="A1366"/>
+      <c r="B1366"/>
+      <c r="C1366"/>
+      <c r="D1366"/>
+      <c r="E1366"/>
+      <c r="F1366"/>
+      <c r="G1366"/>
+      <c r="H1366"/>
+      <c r="I1366"/>
+      <c r="J1366"/>
+      <c r="K1366"/>
+    </row>
+    <row r="1367" spans="1:11">
+      <c r="A1367"/>
+      <c r="B1367"/>
+      <c r="C1367"/>
+      <c r="D1367"/>
+      <c r="E1367"/>
+      <c r="F1367"/>
+      <c r="G1367"/>
+      <c r="H1367"/>
+      <c r="I1367"/>
+      <c r="J1367"/>
+      <c r="K1367"/>
+    </row>
+    <row r="1368" spans="1:11">
+      <c r="A1368"/>
+      <c r="B1368"/>
+      <c r="C1368"/>
+      <c r="D1368"/>
+      <c r="E1368"/>
+      <c r="F1368"/>
+      <c r="G1368"/>
+      <c r="H1368"/>
+      <c r="I1368"/>
+      <c r="J1368"/>
+      <c r="K1368"/>
+    </row>
+    <row r="1369" spans="1:11">
+      <c r="A1369"/>
+      <c r="B1369"/>
+      <c r="C1369"/>
+      <c r="D1369"/>
+      <c r="E1369"/>
+      <c r="F1369"/>
+      <c r="G1369"/>
+      <c r="H1369"/>
+      <c r="I1369"/>
+      <c r="J1369"/>
+      <c r="K1369"/>
+    </row>
+    <row r="1370" spans="1:11">
+      <c r="A1370"/>
+      <c r="B1370"/>
+      <c r="C1370"/>
+      <c r="D1370"/>
+      <c r="E1370"/>
+      <c r="F1370"/>
+      <c r="G1370"/>
+      <c r="H1370"/>
+      <c r="I1370"/>
+      <c r="J1370"/>
+      <c r="K1370"/>
+    </row>
+    <row r="1371" spans="1:11">
+      <c r="A1371"/>
+      <c r="B1371"/>
+      <c r="C1371"/>
+      <c r="D1371"/>
+      <c r="E1371"/>
+      <c r="F1371"/>
+      <c r="G1371"/>
+      <c r="H1371"/>
+      <c r="I1371"/>
+      <c r="J1371"/>
+      <c r="K1371"/>
+    </row>
+    <row r="1372" spans="1:11">
+      <c r="A1372"/>
+      <c r="B1372"/>
+      <c r="C1372"/>
+      <c r="D1372"/>
+      <c r="E1372"/>
+      <c r="F1372"/>
+      <c r="G1372"/>
+      <c r="H1372"/>
+      <c r="I1372"/>
+      <c r="J1372"/>
+      <c r="K1372"/>
+    </row>
+    <row r="1373" spans="1:11">
+      <c r="A1373"/>
+      <c r="B1373"/>
+      <c r="C1373"/>
+      <c r="D1373"/>
+      <c r="E1373"/>
+      <c r="F1373"/>
+      <c r="G1373"/>
+      <c r="H1373"/>
+      <c r="I1373"/>
+      <c r="J1373"/>
+      <c r="K1373"/>
+    </row>
+    <row r="1374" spans="1:11">
+      <c r="A1374"/>
+      <c r="B1374"/>
+      <c r="C1374"/>
+      <c r="D1374"/>
+      <c r="E1374"/>
+      <c r="F1374"/>
+      <c r="G1374"/>
+      <c r="H1374"/>
+      <c r="I1374"/>
+      <c r="J1374"/>
+      <c r="K1374"/>
+    </row>
+    <row r="1375" spans="1:11">
+      <c r="A1375"/>
+      <c r="B1375"/>
+      <c r="C1375"/>
+      <c r="D1375"/>
+      <c r="E1375"/>
+      <c r="F1375"/>
+      <c r="G1375"/>
+      <c r="H1375"/>
+      <c r="I1375"/>
+      <c r="J1375"/>
+      <c r="K1375"/>
+    </row>
+    <row r="1376" spans="1:11">
+      <c r="A1376"/>
+      <c r="B1376"/>
+      <c r="C1376"/>
+      <c r="D1376"/>
+      <c r="E1376"/>
+      <c r="F1376"/>
+      <c r="G1376"/>
+      <c r="H1376"/>
+      <c r="I1376"/>
+      <c r="J1376"/>
+      <c r="K1376"/>
+    </row>
+    <row r="1377" spans="1:11">
+      <c r="A1377"/>
+      <c r="B1377"/>
+      <c r="C1377"/>
+      <c r="D1377"/>
+      <c r="E1377"/>
+      <c r="F1377"/>
+      <c r="G1377"/>
+      <c r="H1377"/>
+      <c r="I1377"/>
+      <c r="J1377"/>
+      <c r="K1377"/>
+    </row>
+    <row r="1378" spans="1:11">
+      <c r="A1378"/>
+      <c r="B1378"/>
+      <c r="C1378"/>
+      <c r="D1378"/>
+      <c r="E1378"/>
+      <c r="F1378"/>
+      <c r="G1378"/>
+      <c r="H1378"/>
+      <c r="I1378"/>
+      <c r="J1378"/>
+      <c r="K1378"/>
+    </row>
+    <row r="1379" spans="1:11">
+      <c r="A1379"/>
+      <c r="B1379"/>
+      <c r="C1379"/>
+      <c r="D1379"/>
+      <c r="E1379"/>
+      <c r="F1379"/>
+      <c r="G1379"/>
+      <c r="H1379"/>
+      <c r="I1379"/>
+      <c r="J1379"/>
+      <c r="K1379"/>
+    </row>
+    <row r="1380" spans="1:11">
+      <c r="A1380"/>
+      <c r="B1380"/>
+      <c r="C1380"/>
+      <c r="D1380"/>
+      <c r="E1380"/>
+      <c r="F1380"/>
+      <c r="G1380"/>
+      <c r="H1380"/>
+      <c r="I1380"/>
+      <c r="J1380"/>
+      <c r="K1380"/>
+    </row>
+    <row r="1381" spans="1:11">
+      <c r="A1381"/>
+      <c r="B1381"/>
+      <c r="C1381"/>
+      <c r="D1381"/>
+      <c r="E1381"/>
+      <c r="F1381"/>
+      <c r="G1381"/>
+      <c r="H1381"/>
+      <c r="I1381"/>
+      <c r="J1381"/>
+      <c r="K1381"/>
+    </row>
+    <row r="1382" spans="1:11">
+      <c r="A1382"/>
+      <c r="B1382"/>
+      <c r="C1382"/>
+      <c r="D1382"/>
+      <c r="E1382"/>
+      <c r="F1382"/>
+      <c r="G1382"/>
+      <c r="H1382"/>
+      <c r="I1382"/>
+      <c r="J1382"/>
+      <c r="K1382"/>
+    </row>
+    <row r="1383" spans="1:11">
+      <c r="A1383"/>
+      <c r="B1383"/>
+      <c r="C1383"/>
+      <c r="D1383"/>
+      <c r="E1383"/>
+      <c r="F1383"/>
+      <c r="G1383"/>
+      <c r="H1383"/>
+      <c r="I1383"/>
+      <c r="J1383"/>
+      <c r="K1383"/>
+    </row>
+    <row r="1384" spans="1:11">
+      <c r="A1384"/>
+      <c r="B1384"/>
+      <c r="C1384"/>
+      <c r="D1384"/>
+      <c r="E1384"/>
+      <c r="F1384"/>
+      <c r="G1384"/>
+      <c r="H1384"/>
+      <c r="I1384"/>
+      <c r="J1384"/>
+      <c r="K1384"/>
+    </row>
+    <row r="1385" spans="1:11">
+      <c r="A1385"/>
+      <c r="B1385"/>
+      <c r="C1385"/>
+      <c r="D1385"/>
+      <c r="E1385"/>
+      <c r="F1385"/>
+      <c r="G1385"/>
+      <c r="H1385"/>
+      <c r="I1385"/>
+      <c r="J1385"/>
+      <c r="K1385"/>
+    </row>
+    <row r="1386" spans="1:11">
+      <c r="A1386"/>
+      <c r="B1386"/>
+      <c r="C1386"/>
+      <c r="D1386"/>
+      <c r="E1386"/>
+      <c r="F1386"/>
+      <c r="G1386"/>
+      <c r="H1386"/>
+      <c r="I1386"/>
+      <c r="J1386"/>
+      <c r="K1386"/>
+    </row>
+    <row r="1387" spans="1:11">
+      <c r="A1387"/>
+      <c r="B1387"/>
+      <c r="C1387"/>
+      <c r="D1387"/>
+      <c r="E1387"/>
+      <c r="F1387"/>
+      <c r="G1387"/>
+      <c r="H1387"/>
+      <c r="I1387"/>
+      <c r="J1387"/>
+      <c r="K1387"/>
+    </row>
+    <row r="1388" spans="1:11">
+      <c r="A1388"/>
+      <c r="B1388"/>
+      <c r="C1388"/>
+      <c r="D1388"/>
+      <c r="E1388"/>
+      <c r="F1388"/>
+      <c r="G1388"/>
+      <c r="H1388"/>
+      <c r="I1388"/>
+      <c r="J1388"/>
+      <c r="K1388"/>
+    </row>
+    <row r="1389" spans="1:11">
+      <c r="A1389"/>
+      <c r="B1389"/>
+      <c r="C1389"/>
+      <c r="D1389"/>
+      <c r="E1389"/>
+      <c r="F1389"/>
+      <c r="G1389"/>
+      <c r="H1389"/>
+      <c r="I1389"/>
+      <c r="J1389"/>
+      <c r="K1389"/>
+    </row>
+    <row r="1390" spans="1:11">
+      <c r="A1390"/>
+      <c r="B1390"/>
+      <c r="C1390"/>
+      <c r="D1390"/>
+      <c r="E1390"/>
+      <c r="F1390"/>
+      <c r="G1390"/>
+      <c r="H1390"/>
+      <c r="I1390"/>
+      <c r="J1390"/>
+      <c r="K1390"/>
+    </row>
+    <row r="1391" spans="1:11">
+      <c r="A1391"/>
+      <c r="B1391"/>
+      <c r="C1391"/>
+      <c r="D1391"/>
+      <c r="E1391"/>
+      <c r="F1391"/>
+      <c r="G1391"/>
+      <c r="H1391"/>
+      <c r="I1391"/>
+      <c r="J1391"/>
+      <c r="K1391"/>
+    </row>
+    <row r="1392" spans="1:11">
+      <c r="A1392"/>
+      <c r="B1392"/>
+      <c r="C1392"/>
+      <c r="D1392"/>
+      <c r="E1392"/>
+      <c r="F1392"/>
+      <c r="G1392"/>
+      <c r="H1392"/>
+      <c r="I1392"/>
+      <c r="J1392"/>
+      <c r="K1392"/>
+    </row>
+    <row r="1393" spans="1:11">
+      <c r="A1393"/>
+      <c r="B1393"/>
+      <c r="C1393"/>
+      <c r="D1393"/>
+      <c r="E1393"/>
+      <c r="F1393"/>
+      <c r="G1393"/>
+      <c r="H1393"/>
+      <c r="I1393"/>
+      <c r="J1393"/>
+      <c r="K1393"/>
+    </row>
+    <row r="1394" spans="1:11">
+      <c r="A1394"/>
+      <c r="B1394"/>
+      <c r="C1394"/>
+      <c r="D1394"/>
+      <c r="E1394"/>
+      <c r="F1394"/>
+      <c r="G1394"/>
+      <c r="H1394"/>
+      <c r="I1394"/>
+      <c r="J1394"/>
+      <c r="K1394"/>
+    </row>
+    <row r="1395" spans="1:11">
+      <c r="A1395"/>
+      <c r="B1395"/>
+      <c r="C1395"/>
+      <c r="D1395"/>
+      <c r="E1395"/>
+      <c r="F1395"/>
+      <c r="G1395"/>
+      <c r="H1395"/>
+      <c r="I1395"/>
+      <c r="J1395"/>
+      <c r="K1395"/>
+    </row>
+    <row r="1396" spans="1:11">
+      <c r="A1396"/>
+      <c r="B1396"/>
+      <c r="C1396"/>
+      <c r="D1396"/>
+      <c r="E1396"/>
+      <c r="F1396"/>
+      <c r="G1396"/>
+      <c r="H1396"/>
+      <c r="I1396"/>
+      <c r="J1396"/>
+      <c r="K1396"/>
+    </row>
+    <row r="1397" spans="1:11">
+      <c r="A1397"/>
+      <c r="B1397"/>
+      <c r="C1397"/>
+      <c r="D1397"/>
+      <c r="E1397"/>
+      <c r="F1397"/>
+      <c r="G1397"/>
+      <c r="H1397"/>
+      <c r="I1397"/>
+      <c r="J1397"/>
+      <c r="K1397"/>
+    </row>
+    <row r="1398" spans="1:11">
+      <c r="A1398"/>
+      <c r="B1398"/>
+      <c r="C1398"/>
+      <c r="D1398"/>
+      <c r="E1398"/>
+      <c r="F1398"/>
+      <c r="G1398"/>
+      <c r="H1398"/>
+      <c r="I1398"/>
+      <c r="J1398"/>
+      <c r="K1398"/>
+    </row>
+    <row r="1399" spans="1:11">
+      <c r="A1399"/>
+      <c r="B1399"/>
+      <c r="C1399"/>
+      <c r="D1399"/>
+      <c r="E1399"/>
+      <c r="F1399"/>
+      <c r="G1399"/>
+      <c r="H1399"/>
+      <c r="I1399"/>
+      <c r="J1399"/>
+      <c r="K1399"/>
+    </row>
+    <row r="1400" spans="1:11">
+      <c r="A1400"/>
+      <c r="B1400"/>
+      <c r="C1400"/>
+      <c r="D1400"/>
+      <c r="E1400"/>
+      <c r="F1400"/>
+      <c r="G1400"/>
+      <c r="H1400"/>
+      <c r="I1400"/>
+      <c r="J1400"/>
+      <c r="K1400"/>
+    </row>
+    <row r="1401" spans="1:11">
+      <c r="A1401"/>
+      <c r="B1401"/>
+      <c r="C1401"/>
+      <c r="D1401"/>
+      <c r="E1401"/>
+      <c r="F1401"/>
+      <c r="G1401"/>
+      <c r="H1401"/>
+      <c r="I1401"/>
+      <c r="J1401"/>
+      <c r="K1401"/>
+    </row>
+    <row r="1402" spans="1:11">
+      <c r="A1402"/>
+      <c r="B1402"/>
+      <c r="C1402"/>
+      <c r="D1402"/>
+      <c r="E1402"/>
+      <c r="F1402"/>
+      <c r="G1402"/>
+      <c r="H1402"/>
+      <c r="I1402"/>
+      <c r="J1402"/>
+      <c r="K1402"/>
+    </row>
+    <row r="1403" spans="1:11">
+      <c r="A1403"/>
+      <c r="B1403"/>
+      <c r="C1403"/>
+      <c r="D1403"/>
+      <c r="E1403"/>
+      <c r="F1403"/>
+      <c r="G1403"/>
+      <c r="H1403"/>
+      <c r="I1403"/>
+      <c r="J1403"/>
+      <c r="K1403"/>
+    </row>
+    <row r="1404" spans="1:11">
+      <c r="A1404"/>
+      <c r="B1404"/>
+      <c r="C1404"/>
+      <c r="D1404"/>
+      <c r="E1404"/>
+      <c r="F1404"/>
+      <c r="G1404"/>
+      <c r="H1404"/>
+      <c r="I1404"/>
+      <c r="J1404"/>
+      <c r="K1404"/>
+    </row>
+    <row r="1405" spans="1:11">
+      <c r="A1405"/>
+      <c r="B1405"/>
+      <c r="C1405"/>
+      <c r="D1405"/>
+      <c r="E1405"/>
+      <c r="F1405"/>
+      <c r="G1405"/>
+      <c r="H1405"/>
+      <c r="I1405"/>
+      <c r="J1405"/>
+      <c r="K1405"/>
+    </row>
+    <row r="1406" spans="1:11">
+      <c r="A1406"/>
+      <c r="B1406"/>
+      <c r="C1406"/>
+      <c r="D1406"/>
+      <c r="E1406"/>
+      <c r="F1406"/>
+      <c r="G1406"/>
+      <c r="H1406"/>
+      <c r="I1406"/>
+      <c r="J1406"/>
+      <c r="K1406"/>
+    </row>
+    <row r="1407" spans="1:11">
+      <c r="A1407"/>
+      <c r="B1407"/>
+      <c r="C1407"/>
+      <c r="D1407"/>
+      <c r="E1407"/>
+      <c r="F1407"/>
+      <c r="G1407"/>
+      <c r="H1407"/>
+      <c r="I1407"/>
+      <c r="J1407"/>
+      <c r="K1407"/>
+    </row>
+    <row r="1408" spans="1:11">
+      <c r="A1408"/>
+      <c r="B1408"/>
+      <c r="C1408"/>
+      <c r="D1408"/>
+      <c r="E1408"/>
+      <c r="F1408"/>
+      <c r="G1408"/>
+      <c r="H1408"/>
+      <c r="I1408"/>
+      <c r="J1408"/>
+      <c r="K1408"/>
+    </row>
+    <row r="1409" spans="1:11">
+      <c r="A1409"/>
+      <c r="B1409"/>
+      <c r="C1409"/>
+      <c r="D1409"/>
+      <c r="E1409"/>
+      <c r="F1409"/>
+      <c r="G1409"/>
+      <c r="H1409"/>
+      <c r="I1409"/>
+      <c r="J1409"/>
+      <c r="K1409"/>
+    </row>
+    <row r="1410" spans="1:11">
+      <c r="A1410"/>
+      <c r="B1410"/>
+      <c r="C1410"/>
+      <c r="D1410"/>
+      <c r="E1410"/>
+      <c r="F1410"/>
+      <c r="G1410"/>
+      <c r="H1410"/>
+      <c r="I1410"/>
+      <c r="J1410"/>
+      <c r="K1410"/>
+    </row>
+    <row r="1411" spans="1:11">
+      <c r="A1411"/>
+      <c r="B1411"/>
+      <c r="C1411"/>
+      <c r="D1411"/>
+      <c r="E1411"/>
+      <c r="F1411"/>
+      <c r="G1411"/>
+      <c r="H1411"/>
+      <c r="I1411"/>
+      <c r="J1411"/>
+      <c r="K1411"/>
+    </row>
+    <row r="1412" spans="1:11">
+      <c r="A1412"/>
+      <c r="B1412"/>
+      <c r="C1412"/>
+      <c r="D1412"/>
+      <c r="E1412"/>
+      <c r="F1412"/>
+      <c r="G1412"/>
+      <c r="H1412"/>
+      <c r="I1412"/>
+      <c r="J1412"/>
+      <c r="K1412"/>
+    </row>
+    <row r="1413" spans="1:11">
+      <c r="A1413"/>
+      <c r="B1413"/>
+      <c r="C1413"/>
+      <c r="D1413"/>
+      <c r="E1413"/>
+      <c r="F1413"/>
+      <c r="G1413"/>
+      <c r="H1413"/>
+      <c r="I1413"/>
+      <c r="J1413"/>
+      <c r="K1413"/>
+    </row>
+    <row r="1414" spans="1:11">
+      <c r="A1414"/>
+      <c r="B1414"/>
+      <c r="C1414"/>
+      <c r="D1414"/>
+      <c r="E1414"/>
+      <c r="F1414"/>
+      <c r="G1414"/>
+      <c r="H1414"/>
+      <c r="I1414"/>
+      <c r="J1414"/>
+      <c r="K1414"/>
+    </row>
+    <row r="1415" spans="1:11">
+      <c r="A1415"/>
+      <c r="B1415"/>
+      <c r="C1415"/>
+      <c r="D1415"/>
+      <c r="E1415"/>
+      <c r="F1415"/>
+      <c r="G1415"/>
+      <c r="H1415"/>
+      <c r="I1415"/>
+      <c r="J1415"/>
+      <c r="K1415"/>
+    </row>
+    <row r="1416" spans="1:11">
+      <c r="A1416"/>
+      <c r="B1416"/>
+      <c r="C1416"/>
+      <c r="D1416"/>
+      <c r="E1416"/>
+      <c r="F1416"/>
+      <c r="G1416"/>
+      <c r="H1416"/>
+      <c r="I1416"/>
+      <c r="J1416"/>
+      <c r="K1416"/>
+    </row>
+    <row r="1417" spans="1:11">
+      <c r="A1417"/>
+      <c r="B1417"/>
+      <c r="C1417"/>
+      <c r="D1417"/>
+      <c r="E1417"/>
+      <c r="F1417"/>
+      <c r="G1417"/>
+      <c r="H1417"/>
+      <c r="I1417"/>
+      <c r="J1417"/>
+      <c r="K1417"/>
+    </row>
+    <row r="1418" spans="1:11">
+      <c r="A1418"/>
+      <c r="B1418"/>
+      <c r="C1418"/>
+      <c r="D1418"/>
+      <c r="E1418"/>
+      <c r="F1418"/>
+      <c r="G1418"/>
+      <c r="H1418"/>
+      <c r="I1418"/>
+      <c r="J1418"/>
+      <c r="K1418"/>
+    </row>
+    <row r="1419" spans="1:11">
+      <c r="A1419"/>
+      <c r="B1419"/>
+      <c r="C1419"/>
+      <c r="D1419"/>
+      <c r="E1419"/>
+      <c r="F1419"/>
+      <c r="G1419"/>
+      <c r="H1419"/>
+      <c r="I1419"/>
+      <c r="J1419"/>
+      <c r="K1419"/>
+    </row>
+    <row r="1420" spans="1:11">
+      <c r="A1420"/>
+      <c r="B1420"/>
+      <c r="C1420"/>
+      <c r="D1420"/>
+      <c r="E1420"/>
+      <c r="F1420"/>
+      <c r="G1420"/>
+      <c r="H1420"/>
+      <c r="I1420"/>
+      <c r="J1420"/>
+      <c r="K1420"/>
+    </row>
+    <row r="1421" spans="1:11">
+      <c r="A1421"/>
+      <c r="B1421"/>
+      <c r="C1421"/>
+      <c r="D1421"/>
+      <c r="E1421"/>
+      <c r="F1421"/>
+      <c r="G1421"/>
+      <c r="H1421"/>
+      <c r="I1421"/>
+      <c r="J1421"/>
+      <c r="K1421"/>
+    </row>
+    <row r="1422" spans="1:11">
+      <c r="A1422"/>
+      <c r="B1422"/>
+      <c r="C1422"/>
+      <c r="D1422"/>
+      <c r="E1422"/>
+      <c r="F1422"/>
+      <c r="G1422"/>
+      <c r="H1422"/>
+      <c r="I1422"/>
+      <c r="J1422"/>
+      <c r="K1422"/>
+    </row>
+    <row r="1423" spans="1:11">
+      <c r="A1423"/>
+      <c r="B1423"/>
+      <c r="C1423"/>
+      <c r="D1423"/>
+      <c r="E1423"/>
+      <c r="F1423"/>
+      <c r="G1423"/>
+      <c r="H1423"/>
+      <c r="I1423"/>
+      <c r="J1423"/>
+      <c r="K1423"/>
+    </row>
+    <row r="1424" spans="1:11">
+      <c r="A1424"/>
+      <c r="B1424"/>
+      <c r="C1424"/>
+      <c r="D1424"/>
+      <c r="E1424"/>
+      <c r="F1424"/>
+      <c r="G1424"/>
+      <c r="H1424"/>
+      <c r="I1424"/>
+      <c r="J1424"/>
+      <c r="K1424"/>
+    </row>
+    <row r="1425" spans="1:11">
+      <c r="A1425"/>
+      <c r="B1425"/>
+      <c r="C1425"/>
+      <c r="D1425"/>
+      <c r="E1425"/>
+      <c r="F1425"/>
+      <c r="G1425"/>
+      <c r="H1425"/>
+      <c r="I1425"/>
+      <c r="J1425"/>
+      <c r="K1425"/>
+    </row>
+    <row r="1426" spans="1:11">
+      <c r="A1426"/>
+      <c r="B1426"/>
+      <c r="C1426"/>
+      <c r="D1426"/>
+      <c r="E1426"/>
+      <c r="F1426"/>
+      <c r="G1426"/>
+      <c r="H1426"/>
+      <c r="I1426"/>
+      <c r="J1426"/>
+      <c r="K1426"/>
+    </row>
+    <row r="1427" spans="1:11">
+      <c r="A1427"/>
+      <c r="B1427"/>
+      <c r="C1427"/>
+      <c r="D1427"/>
+      <c r="E1427"/>
+      <c r="F1427"/>
+      <c r="G1427"/>
+      <c r="H1427"/>
+      <c r="I1427"/>
+      <c r="J1427"/>
+      <c r="K1427"/>
+    </row>
+    <row r="1428" spans="1:11">
+      <c r="A1428"/>
+      <c r="B1428"/>
+      <c r="C1428"/>
+      <c r="D1428"/>
+      <c r="E1428"/>
+      <c r="F1428"/>
+      <c r="G1428"/>
+      <c r="H1428"/>
+      <c r="I1428"/>
+      <c r="J1428"/>
+      <c r="K1428"/>
+    </row>
+    <row r="1429" spans="1:11">
+      <c r="A1429"/>
+      <c r="B1429"/>
+      <c r="C1429"/>
+      <c r="D1429"/>
+      <c r="E1429"/>
+      <c r="F1429"/>
+      <c r="G1429"/>
+      <c r="H1429"/>
+      <c r="I1429"/>
+      <c r="J1429"/>
+      <c r="K1429"/>
+    </row>
+    <row r="1430" spans="1:11">
+      <c r="A1430"/>
+      <c r="B1430"/>
+      <c r="C1430"/>
+      <c r="D1430"/>
+      <c r="E1430"/>
+      <c r="F1430"/>
+      <c r="G1430"/>
+      <c r="H1430"/>
+      <c r="I1430"/>
+      <c r="J1430"/>
+      <c r="K1430"/>
+    </row>
+    <row r="1431" spans="1:11">
+      <c r="A1431"/>
+      <c r="B1431"/>
+      <c r="C1431"/>
+      <c r="D1431"/>
+      <c r="E1431"/>
+      <c r="F1431"/>
+      <c r="G1431"/>
+      <c r="H1431"/>
+      <c r="I1431"/>
+      <c r="J1431"/>
+      <c r="K1431"/>
+    </row>
+    <row r="1432" spans="1:11">
+      <c r="A1432"/>
+      <c r="B1432"/>
+      <c r="C1432"/>
+      <c r="D1432"/>
+      <c r="E1432"/>
+      <c r="F1432"/>
+      <c r="G1432"/>
+      <c r="H1432"/>
+      <c r="I1432"/>
+      <c r="J1432"/>
+      <c r="K1432"/>
+    </row>
+    <row r="1433" spans="1:11">
+      <c r="A1433"/>
+      <c r="B1433"/>
+      <c r="C1433"/>
+      <c r="D1433"/>
+      <c r="E1433"/>
+      <c r="F1433"/>
+      <c r="G1433"/>
+      <c r="H1433"/>
+      <c r="I1433"/>
+      <c r="J1433"/>
+      <c r="K1433"/>
+    </row>
+    <row r="1434" spans="1:11">
+      <c r="A1434"/>
+      <c r="B1434"/>
+      <c r="C1434"/>
+      <c r="D1434"/>
+      <c r="E1434"/>
+      <c r="F1434"/>
+      <c r="G1434"/>
+      <c r="H1434"/>
+      <c r="I1434"/>
+      <c r="J1434"/>
+      <c r="K1434"/>
+    </row>
+    <row r="1435" spans="1:11">
+      <c r="A1435"/>
+      <c r="B1435"/>
+      <c r="C1435"/>
+      <c r="D1435"/>
+      <c r="E1435"/>
+      <c r="F1435"/>
+      <c r="G1435"/>
+      <c r="H1435"/>
+      <c r="I1435"/>
+      <c r="J1435"/>
+      <c r="K1435"/>
+    </row>
+    <row r="1436" spans="1:11">
+      <c r="A1436"/>
+      <c r="B1436"/>
+      <c r="C1436"/>
+      <c r="D1436"/>
+      <c r="E1436"/>
+      <c r="F1436"/>
+      <c r="G1436"/>
+      <c r="H1436"/>
+      <c r="I1436"/>
+      <c r="J1436"/>
+      <c r="K1436"/>
+    </row>
+    <row r="1437" spans="1:11">
+      <c r="A1437"/>
+      <c r="B1437"/>
+      <c r="C1437"/>
+      <c r="D1437"/>
+      <c r="E1437"/>
+      <c r="F1437"/>
+      <c r="G1437"/>
+      <c r="H1437"/>
+      <c r="I1437"/>
+      <c r="J1437"/>
+      <c r="K1437"/>
+    </row>
+    <row r="1438" spans="1:11">
+      <c r="A1438"/>
+      <c r="B1438"/>
+      <c r="C1438"/>
+      <c r="D1438"/>
+      <c r="E1438"/>
+      <c r="F1438"/>
+      <c r="G1438"/>
+      <c r="H1438"/>
+      <c r="I1438"/>
+      <c r="J1438"/>
+      <c r="K1438"/>
+    </row>
+    <row r="1439" spans="1:11">
+      <c r="A1439"/>
+      <c r="B1439"/>
+      <c r="C1439"/>
+      <c r="D1439"/>
+      <c r="E1439"/>
+      <c r="F1439"/>
+      <c r="G1439"/>
+      <c r="H1439"/>
+      <c r="I1439"/>
+      <c r="J1439"/>
+      <c r="K1439"/>
+    </row>
+    <row r="1440" spans="1:11">
+      <c r="A1440"/>
+      <c r="B1440"/>
+      <c r="C1440"/>
+      <c r="D1440"/>
+      <c r="E1440"/>
+      <c r="F1440"/>
+      <c r="G1440"/>
+      <c r="H1440"/>
+      <c r="I1440"/>
+      <c r="J1440"/>
+      <c r="K1440"/>
+    </row>
+    <row r="1441" spans="1:11">
+      <c r="A1441"/>
+      <c r="B1441"/>
+      <c r="C1441"/>
+      <c r="D1441"/>
+      <c r="E1441"/>
+      <c r="F1441"/>
+      <c r="G1441"/>
+      <c r="H1441"/>
+      <c r="I1441"/>
+      <c r="J1441"/>
+      <c r="K1441"/>
+    </row>
+    <row r="1442" spans="1:11">
+      <c r="A1442"/>
+      <c r="B1442"/>
+      <c r="C1442"/>
+      <c r="D1442"/>
+      <c r="E1442"/>
+      <c r="F1442"/>
+      <c r="G1442"/>
+      <c r="H1442"/>
+      <c r="I1442"/>
+      <c r="J1442"/>
+      <c r="K1442"/>
+    </row>
+    <row r="1443" spans="1:11">
+      <c r="A1443"/>
+      <c r="B1443"/>
+      <c r="C1443"/>
+      <c r="D1443"/>
+      <c r="E1443"/>
+      <c r="F1443"/>
+      <c r="G1443"/>
+      <c r="H1443"/>
+      <c r="I1443"/>
+      <c r="J1443"/>
+      <c r="K1443"/>
+    </row>
+    <row r="1444" spans="1:11">
+      <c r="A1444"/>
+      <c r="B1444"/>
+      <c r="C1444"/>
+      <c r="D1444"/>
+      <c r="E1444"/>
+      <c r="F1444"/>
+      <c r="G1444"/>
+      <c r="H1444"/>
+      <c r="I1444"/>
+      <c r="J1444"/>
+      <c r="K1444"/>
+    </row>
+    <row r="1445" spans="1:11">
+      <c r="A1445"/>
+      <c r="B1445"/>
+      <c r="C1445"/>
+      <c r="D1445"/>
+      <c r="E1445"/>
+      <c r="F1445"/>
+      <c r="G1445"/>
+      <c r="H1445"/>
+      <c r="I1445"/>
+      <c r="J1445"/>
+      <c r="K1445"/>
+    </row>
+    <row r="1446" spans="1:11">
+      <c r="A1446"/>
+      <c r="B1446"/>
+      <c r="C1446"/>
+      <c r="D1446"/>
+      <c r="E1446"/>
+      <c r="F1446"/>
+      <c r="G1446"/>
+      <c r="H1446"/>
+      <c r="I1446"/>
+      <c r="J1446"/>
+      <c r="K1446"/>
+    </row>
+    <row r="1447" spans="1:11">
+      <c r="A1447"/>
+      <c r="B1447"/>
+      <c r="C1447"/>
+      <c r="D1447"/>
+      <c r="E1447"/>
+      <c r="F1447"/>
+      <c r="G1447"/>
+      <c r="H1447"/>
+      <c r="I1447"/>
+      <c r="J1447"/>
+      <c r="K1447"/>
+    </row>
+    <row r="1448" spans="1:11">
+      <c r="A1448"/>
+      <c r="B1448"/>
+      <c r="C1448"/>
+      <c r="D1448"/>
+      <c r="E1448"/>
+      <c r="F1448"/>
+      <c r="G1448"/>
+      <c r="H1448"/>
+      <c r="I1448"/>
+      <c r="J1448"/>
+      <c r="K1448"/>
+    </row>
+    <row r="1449" spans="1:11">
+      <c r="A1449"/>
+      <c r="B1449"/>
+      <c r="C1449"/>
+      <c r="D1449"/>
+      <c r="E1449"/>
+      <c r="F1449"/>
+      <c r="G1449"/>
+      <c r="H1449"/>
+      <c r="I1449"/>
+      <c r="J1449"/>
+      <c r="K1449"/>
+    </row>
+    <row r="1450" spans="1:11">
+      <c r="A1450"/>
+      <c r="B1450"/>
+      <c r="C1450"/>
+      <c r="D1450"/>
+      <c r="E1450"/>
+      <c r="F1450"/>
+      <c r="G1450"/>
+      <c r="H1450"/>
+      <c r="I1450"/>
+      <c r="J1450"/>
+      <c r="K1450"/>
+    </row>
+    <row r="1451" spans="1:11">
+      <c r="A1451"/>
+      <c r="B1451"/>
+      <c r="C1451"/>
+      <c r="D1451"/>
+      <c r="E1451"/>
+      <c r="F1451"/>
+      <c r="G1451"/>
+      <c r="H1451"/>
+      <c r="I1451"/>
+      <c r="J1451"/>
+      <c r="K1451"/>
+    </row>
+    <row r="1452" spans="1:11">
+      <c r="A1452"/>
+      <c r="B1452"/>
+      <c r="C1452"/>
+      <c r="D1452"/>
+      <c r="E1452"/>
+      <c r="F1452"/>
+      <c r="G1452"/>
+      <c r="H1452"/>
+      <c r="I1452"/>
+      <c r="J1452"/>
+      <c r="K1452"/>
+    </row>
+    <row r="1453" spans="1:11">
+      <c r="A1453"/>
+      <c r="B1453"/>
+      <c r="C1453"/>
+      <c r="D1453"/>
+      <c r="E1453"/>
+      <c r="F1453"/>
+      <c r="G1453"/>
+      <c r="H1453"/>
+      <c r="I1453"/>
+      <c r="J1453"/>
+      <c r="K1453"/>
+    </row>
+    <row r="1454" spans="1:11">
+      <c r="A1454"/>
+      <c r="B1454"/>
+      <c r="C1454"/>
+      <c r="D1454"/>
+      <c r="E1454"/>
+      <c r="F1454"/>
+      <c r="G1454"/>
+      <c r="H1454"/>
+      <c r="I1454"/>
+      <c r="J1454"/>
+      <c r="K1454"/>
+    </row>
+    <row r="1455" spans="1:11">
+      <c r="A1455"/>
+      <c r="B1455"/>
+      <c r="C1455"/>
+      <c r="D1455"/>
+      <c r="E1455"/>
+      <c r="F1455"/>
+      <c r="G1455"/>
+      <c r="H1455"/>
+      <c r="I1455"/>
+      <c r="J1455"/>
+      <c r="K1455"/>
+    </row>
+    <row r="1456" spans="1:11">
+      <c r="A1456"/>
+      <c r="B1456"/>
+      <c r="C1456"/>
+      <c r="D1456"/>
+      <c r="E1456"/>
+      <c r="F1456"/>
+      <c r="G1456"/>
+      <c r="H1456"/>
+      <c r="I1456"/>
+      <c r="J1456"/>
+      <c r="K1456"/>
+    </row>
+    <row r="1457" spans="1:11">
+      <c r="A1457"/>
+      <c r="B1457"/>
+      <c r="C1457"/>
+      <c r="D1457"/>
+      <c r="E1457"/>
+      <c r="F1457"/>
+      <c r="G1457"/>
+      <c r="H1457"/>
+      <c r="I1457"/>
+      <c r="J1457"/>
+      <c r="K1457"/>
+    </row>
+    <row r="1458" spans="1:11">
+      <c r="A1458"/>
+      <c r="B1458"/>
+      <c r="C1458"/>
+      <c r="D1458"/>
+      <c r="E1458"/>
+      <c r="F1458"/>
+      <c r="G1458"/>
+      <c r="H1458"/>
+      <c r="I1458"/>
+      <c r="J1458"/>
+      <c r="K1458"/>
+    </row>
+    <row r="1459" spans="1:11">
+      <c r="A1459"/>
+      <c r="B1459"/>
+      <c r="C1459"/>
+      <c r="D1459"/>
+      <c r="E1459"/>
+      <c r="F1459"/>
+      <c r="G1459"/>
+      <c r="H1459"/>
+      <c r="I1459"/>
+      <c r="J1459"/>
+      <c r="K1459"/>
+    </row>
+    <row r="1460" spans="1:11">
+      <c r="A1460"/>
+      <c r="B1460"/>
+      <c r="C1460"/>
+      <c r="D1460"/>
+      <c r="E1460"/>
+      <c r="F1460"/>
+      <c r="G1460"/>
+      <c r="H1460"/>
+      <c r="I1460"/>
+      <c r="J1460"/>
+      <c r="K1460"/>
+    </row>
+    <row r="1461" spans="1:11">
+      <c r="A1461"/>
+      <c r="B1461"/>
+      <c r="C1461"/>
+      <c r="D1461"/>
+      <c r="E1461"/>
+      <c r="F1461"/>
+      <c r="G1461"/>
+      <c r="H1461"/>
+      <c r="I1461"/>
+      <c r="J1461"/>
+      <c r="K1461"/>
+    </row>
+    <row r="1462" spans="1:11">
+      <c r="A1462"/>
+      <c r="B1462"/>
+      <c r="C1462"/>
+      <c r="D1462"/>
+      <c r="E1462"/>
+      <c r="F1462"/>
+      <c r="G1462"/>
+      <c r="H1462"/>
+      <c r="I1462"/>
+      <c r="J1462"/>
+      <c r="K1462"/>
+    </row>
+    <row r="1463" spans="1:11">
+      <c r="A1463"/>
+      <c r="B1463"/>
+      <c r="C1463"/>
+      <c r="D1463"/>
+      <c r="E1463"/>
+      <c r="F1463"/>
+      <c r="G1463"/>
+      <c r="H1463"/>
+      <c r="I1463"/>
+      <c r="J1463"/>
+      <c r="K1463"/>
+    </row>
+    <row r="1464" spans="1:11">
+      <c r="A1464"/>
+      <c r="B1464"/>
+      <c r="C1464"/>
+      <c r="D1464"/>
+      <c r="E1464"/>
+      <c r="F1464"/>
+      <c r="G1464"/>
+      <c r="H1464"/>
+      <c r="I1464"/>
+      <c r="J1464"/>
+      <c r="K1464"/>
+    </row>
+    <row r="1465" spans="1:11">
+      <c r="A1465"/>
+      <c r="B1465"/>
+      <c r="C1465"/>
+      <c r="D1465"/>
+      <c r="E1465"/>
+      <c r="F1465"/>
+      <c r="G1465"/>
+      <c r="H1465"/>
+      <c r="I1465"/>
+      <c r="J1465"/>
+      <c r="K1465"/>
+    </row>
+    <row r="1466" spans="1:11">
+      <c r="A1466"/>
+      <c r="B1466"/>
+      <c r="C1466"/>
+      <c r="D1466"/>
+      <c r="E1466"/>
+      <c r="F1466"/>
+      <c r="G1466"/>
+      <c r="H1466"/>
+      <c r="I1466"/>
+      <c r="J1466"/>
+      <c r="K1466"/>
+    </row>
+    <row r="1467" spans="1:11">
+      <c r="A1467"/>
+      <c r="B1467"/>
+      <c r="C1467"/>
+      <c r="D1467"/>
+      <c r="E1467"/>
+      <c r="F1467"/>
+      <c r="G1467"/>
+      <c r="H1467"/>
+      <c r="I1467"/>
+      <c r="J1467"/>
+      <c r="K1467"/>
+    </row>
+    <row r="1468" spans="1:11">
+      <c r="A1468"/>
+      <c r="B1468"/>
+      <c r="C1468"/>
+      <c r="D1468"/>
+      <c r="E1468"/>
+      <c r="F1468"/>
+      <c r="G1468"/>
+      <c r="H1468"/>
+      <c r="I1468"/>
+      <c r="J1468"/>
+      <c r="K1468"/>
+    </row>
+    <row r="1469" spans="1:11">
+      <c r="A1469"/>
+      <c r="B1469"/>
+      <c r="C1469"/>
+      <c r="D1469"/>
+      <c r="E1469"/>
+      <c r="F1469"/>
+      <c r="G1469"/>
+      <c r="H1469"/>
+      <c r="I1469"/>
+      <c r="J1469"/>
+      <c r="K1469"/>
+    </row>
+    <row r="1470" spans="1:11">
+      <c r="A1470"/>
+      <c r="B1470"/>
+      <c r="C1470"/>
+      <c r="D1470"/>
+      <c r="E1470"/>
+      <c r="F1470"/>
+      <c r="G1470"/>
+      <c r="H1470"/>
+      <c r="I1470"/>
+      <c r="J1470"/>
+      <c r="K1470"/>
+    </row>
+    <row r="1471" spans="1:11">
+      <c r="A1471"/>
+      <c r="B1471"/>
+      <c r="C1471"/>
+      <c r="D1471"/>
+      <c r="E1471"/>
+      <c r="F1471"/>
+      <c r="G1471"/>
+      <c r="H1471"/>
+      <c r="I1471"/>
+      <c r="J1471"/>
+      <c r="K1471"/>
+    </row>
+    <row r="1472" spans="1:11">
+      <c r="A1472"/>
+      <c r="B1472"/>
+      <c r="C1472"/>
+      <c r="D1472"/>
+      <c r="E1472"/>
+      <c r="F1472"/>
+      <c r="G1472"/>
+      <c r="H1472"/>
+      <c r="I1472"/>
+      <c r="J1472"/>
+      <c r="K1472"/>
+    </row>
+    <row r="1473" spans="1:11">
+      <c r="A1473"/>
+      <c r="B1473"/>
+      <c r="C1473"/>
+      <c r="D1473"/>
+      <c r="E1473"/>
+      <c r="F1473"/>
+      <c r="G1473"/>
+      <c r="H1473"/>
+      <c r="I1473"/>
+      <c r="J1473"/>
+      <c r="K1473"/>
+    </row>
+    <row r="1474" spans="1:11">
+      <c r="A1474"/>
+      <c r="B1474"/>
+      <c r="C1474"/>
+      <c r="D1474"/>
+      <c r="E1474"/>
+      <c r="F1474"/>
+      <c r="G1474"/>
+      <c r="H1474"/>
+      <c r="I1474"/>
+      <c r="J1474"/>
+      <c r="K1474"/>
+    </row>
+    <row r="1475" spans="1:11">
+      <c r="A1475"/>
+      <c r="B1475"/>
+      <c r="C1475"/>
+      <c r="D1475"/>
+      <c r="E1475"/>
+      <c r="F1475"/>
+      <c r="G1475"/>
+      <c r="H1475"/>
+      <c r="I1475"/>
+      <c r="J1475"/>
+      <c r="K1475"/>
+    </row>
+    <row r="1476" spans="1:11">
+      <c r="A1476"/>
+      <c r="B1476"/>
+      <c r="C1476"/>
+      <c r="D1476"/>
+      <c r="E1476"/>
+      <c r="F1476"/>
+      <c r="G1476"/>
+      <c r="H1476"/>
+      <c r="I1476"/>
+      <c r="J1476"/>
+      <c r="K1476"/>
+    </row>
+    <row r="1477" spans="1:11">
+      <c r="A1477"/>
+      <c r="B1477"/>
+      <c r="C1477"/>
+      <c r="D1477"/>
+      <c r="E1477"/>
+      <c r="F1477"/>
+      <c r="G1477"/>
+      <c r="H1477"/>
+      <c r="I1477"/>
+      <c r="J1477"/>
+      <c r="K1477"/>
+    </row>
+    <row r="1478" spans="1:11">
+      <c r="A1478"/>
+      <c r="B1478"/>
+      <c r="C1478"/>
+      <c r="D1478"/>
+      <c r="E1478"/>
+      <c r="F1478"/>
+      <c r="G1478"/>
+      <c r="H1478"/>
+      <c r="I1478"/>
+      <c r="J1478"/>
+      <c r="K1478"/>
+    </row>
+    <row r="1479" spans="1:11">
+      <c r="A1479"/>
+      <c r="B1479"/>
+      <c r="C1479"/>
+      <c r="D1479"/>
+      <c r="E1479"/>
+      <c r="F1479"/>
+      <c r="G1479"/>
+      <c r="H1479"/>
+      <c r="I1479"/>
+      <c r="J1479"/>
+      <c r="K1479"/>
+    </row>
+    <row r="1480" spans="1:11">
+      <c r="A1480"/>
+      <c r="B1480"/>
+      <c r="C1480"/>
+      <c r="D1480"/>
+      <c r="E1480"/>
+      <c r="F1480"/>
+      <c r="G1480"/>
+      <c r="H1480"/>
+      <c r="I1480"/>
+      <c r="J1480"/>
+      <c r="K1480"/>
+    </row>
+    <row r="1481" spans="1:11">
+      <c r="A1481"/>
+      <c r="B1481"/>
+      <c r="C1481"/>
+      <c r="D1481"/>
+      <c r="E1481"/>
+      <c r="F1481"/>
+      <c r="G1481"/>
+      <c r="H1481"/>
+      <c r="I1481"/>
+      <c r="J1481"/>
+      <c r="K1481"/>
+    </row>
+    <row r="1482" spans="1:11">
+      <c r="A1482"/>
+      <c r="B1482"/>
+      <c r="C1482"/>
+      <c r="D1482"/>
+      <c r="E1482"/>
+      <c r="F1482"/>
+      <c r="G1482"/>
+      <c r="H1482"/>
+      <c r="I1482"/>
+      <c r="J1482"/>
+      <c r="K1482"/>
+    </row>
+    <row r="1483" spans="1:11">
+      <c r="A1483"/>
+      <c r="B1483"/>
+      <c r="C1483"/>
+      <c r="D1483"/>
+      <c r="E1483"/>
+      <c r="F1483"/>
+      <c r="G1483"/>
+      <c r="H1483"/>
+      <c r="I1483"/>
+      <c r="J1483"/>
+      <c r="K1483"/>
+    </row>
+    <row r="1484" spans="1:11">
+      <c r="A1484"/>
+      <c r="B1484"/>
+      <c r="C1484"/>
+      <c r="D1484"/>
+      <c r="E1484"/>
+      <c r="F1484"/>
+      <c r="G1484"/>
+      <c r="H1484"/>
+      <c r="I1484"/>
+      <c r="J1484"/>
+      <c r="K1484"/>
+    </row>
+    <row r="1485" spans="1:11">
+      <c r="A1485"/>
+      <c r="B1485"/>
+      <c r="C1485"/>
+      <c r="D1485"/>
+      <c r="E1485"/>
+      <c r="F1485"/>
+      <c r="G1485"/>
+      <c r="H1485"/>
+      <c r="I1485"/>
+      <c r="J1485"/>
+      <c r="K1485"/>
+    </row>
+    <row r="1486" spans="1:11">
+      <c r="A1486"/>
+      <c r="B1486"/>
+      <c r="C1486"/>
+      <c r="D1486"/>
+      <c r="E1486"/>
+      <c r="F1486"/>
+      <c r="G1486"/>
+      <c r="H1486"/>
+      <c r="I1486"/>
+      <c r="J1486"/>
+      <c r="K1486"/>
+    </row>
+    <row r="1487" spans="1:11">
+      <c r="A1487"/>
+      <c r="B1487"/>
+      <c r="C1487"/>
+      <c r="D1487"/>
+      <c r="E1487"/>
+      <c r="F1487"/>
+      <c r="G1487"/>
+      <c r="H1487"/>
+      <c r="I1487"/>
+      <c r="J1487"/>
+      <c r="K1487"/>
+    </row>
+    <row r="1488" spans="1:11">
+      <c r="A1488"/>
+      <c r="B1488"/>
+      <c r="C1488"/>
+      <c r="D1488"/>
+      <c r="E1488"/>
+      <c r="F1488"/>
+      <c r="G1488"/>
+      <c r="H1488"/>
+      <c r="I1488"/>
+      <c r="J1488"/>
+      <c r="K1488"/>
+    </row>
+    <row r="1489" spans="1:11">
+      <c r="A1489"/>
+      <c r="B1489"/>
+      <c r="C1489"/>
+      <c r="D1489"/>
+      <c r="E1489"/>
+      <c r="F1489"/>
+      <c r="G1489"/>
+      <c r="H1489"/>
+      <c r="I1489"/>
+      <c r="J1489"/>
+      <c r="K1489"/>
+    </row>
+    <row r="1490" spans="1:11">
+      <c r="A1490"/>
+      <c r="B1490"/>
+      <c r="C1490"/>
+      <c r="D1490"/>
+      <c r="E1490"/>
+      <c r="F1490"/>
+      <c r="G1490"/>
+      <c r="H1490"/>
+      <c r="I1490"/>
+      <c r="J1490"/>
+      <c r="K1490"/>
+    </row>
+    <row r="1491" spans="1:11">
+      <c r="A1491"/>
+      <c r="B1491"/>
+      <c r="C1491"/>
+      <c r="D1491"/>
+      <c r="E1491"/>
+      <c r="F1491"/>
+      <c r="G1491"/>
+      <c r="H1491"/>
+      <c r="I1491"/>
+      <c r="J1491"/>
+      <c r="K1491"/>
+    </row>
+    <row r="1492" spans="1:11">
+      <c r="A1492"/>
+      <c r="B1492"/>
+      <c r="C1492"/>
+      <c r="D1492"/>
+      <c r="E1492"/>
+      <c r="F1492"/>
+      <c r="G1492"/>
+      <c r="H1492"/>
+      <c r="I1492"/>
+      <c r="J1492"/>
+      <c r="K1492"/>
+    </row>
+    <row r="1493" spans="1:11">
+      <c r="A1493"/>
+      <c r="B1493"/>
+      <c r="C1493"/>
+      <c r="D1493"/>
+      <c r="E1493"/>
+      <c r="F1493"/>
+      <c r="G1493"/>
+      <c r="H1493"/>
+      <c r="I1493"/>
+      <c r="J1493"/>
+      <c r="K1493"/>
+    </row>
+    <row r="1494" spans="1:11">
+      <c r="A1494"/>
+      <c r="B1494"/>
+      <c r="C1494"/>
+      <c r="D1494"/>
+      <c r="E1494"/>
+      <c r="F1494"/>
+      <c r="G1494"/>
+      <c r="H1494"/>
+      <c r="I1494"/>
+      <c r="J1494"/>
+      <c r="K1494"/>
+    </row>
+    <row r="1495" spans="1:11">
+      <c r="A1495"/>
+      <c r="B1495"/>
+      <c r="C1495"/>
+      <c r="D1495"/>
+      <c r="E1495"/>
+      <c r="F1495"/>
+      <c r="G1495"/>
+      <c r="H1495"/>
+      <c r="I1495"/>
+      <c r="J1495"/>
+      <c r="K1495"/>
+    </row>
+    <row r="1496" spans="1:11">
+      <c r="A1496"/>
+      <c r="B1496"/>
+      <c r="C1496"/>
+      <c r="D1496"/>
+      <c r="E1496"/>
+      <c r="F1496"/>
+      <c r="G1496"/>
+      <c r="H1496"/>
+      <c r="I1496"/>
+      <c r="J1496"/>
+      <c r="K1496"/>
+    </row>
+    <row r="1497" spans="1:11">
+      <c r="A1497"/>
+      <c r="B1497"/>
+      <c r="C1497"/>
+      <c r="D1497"/>
+      <c r="E1497"/>
+      <c r="F1497"/>
+      <c r="G1497"/>
+      <c r="H1497"/>
+      <c r="I1497"/>
+      <c r="J1497"/>
+      <c r="K1497"/>
+    </row>
+    <row r="1498" spans="1:11">
+      <c r="A1498"/>
+      <c r="B1498"/>
+      <c r="C1498"/>
+      <c r="D1498"/>
+      <c r="E1498"/>
+      <c r="F1498"/>
+      <c r="G1498"/>
+      <c r="H1498"/>
+      <c r="I1498"/>
+      <c r="J1498"/>
+      <c r="K1498"/>
+    </row>
+    <row r="1499" spans="1:11">
+      <c r="A1499"/>
+      <c r="B1499"/>
+      <c r="C1499"/>
+      <c r="D1499"/>
+      <c r="E1499"/>
+      <c r="F1499"/>
+      <c r="G1499"/>
+      <c r="H1499"/>
+      <c r="I1499"/>
+      <c r="J1499"/>
+      <c r="K1499"/>
+    </row>
+    <row r="1500" spans="1:11">
+      <c r="A1500"/>
+      <c r="B1500"/>
+      <c r="C1500"/>
+      <c r="D1500"/>
+      <c r="E1500"/>
+      <c r="F1500"/>
+      <c r="G1500"/>
+      <c r="H1500"/>
+      <c r="I1500"/>
+      <c r="J1500"/>
+      <c r="K1500"/>
+    </row>
+    <row r="1501" spans="1:11">
+      <c r="A1501"/>
+      <c r="B1501"/>
+      <c r="C1501"/>
+      <c r="D1501"/>
+      <c r="E1501"/>
+      <c r="F1501"/>
+      <c r="G1501"/>
+      <c r="H1501"/>
+      <c r="I1501"/>
+      <c r="J1501"/>
+      <c r="K1501"/>
+    </row>
+    <row r="1502" spans="1:11">
+      <c r="A1502"/>
+      <c r="B1502"/>
+      <c r="C1502"/>
+      <c r="D1502"/>
+      <c r="E1502"/>
+      <c r="F1502"/>
+      <c r="G1502"/>
+      <c r="H1502"/>
+      <c r="I1502"/>
+      <c r="J1502"/>
+      <c r="K1502"/>
+    </row>
+    <row r="1503" spans="1:11">
+      <c r="A1503"/>
+      <c r="B1503"/>
+      <c r="C1503"/>
+      <c r="D1503"/>
+      <c r="E1503"/>
+      <c r="F1503"/>
+      <c r="G1503"/>
+      <c r="H1503"/>
+      <c r="I1503"/>
+      <c r="J1503"/>
+      <c r="K1503"/>
+    </row>
+    <row r="1504" spans="1:11">
+      <c r="A1504"/>
+      <c r="B1504"/>
+      <c r="C1504"/>
+      <c r="D1504"/>
+      <c r="E1504"/>
+      <c r="F1504"/>
+      <c r="G1504"/>
+      <c r="H1504"/>
+      <c r="I1504"/>
+      <c r="J1504"/>
+      <c r="K1504"/>
+    </row>
+    <row r="1505" spans="1:11">
+      <c r="A1505"/>
+      <c r="B1505"/>
+      <c r="C1505"/>
+      <c r="D1505"/>
+      <c r="E1505"/>
+      <c r="F1505"/>
+      <c r="G1505"/>
+      <c r="H1505"/>
+      <c r="I1505"/>
+      <c r="J1505"/>
+      <c r="K1505"/>
+    </row>
+    <row r="1506" spans="1:11">
+      <c r="A1506"/>
+      <c r="B1506"/>
+      <c r="C1506"/>
+      <c r="D1506"/>
+      <c r="E1506"/>
+      <c r="F1506"/>
+      <c r="G1506"/>
+      <c r="H1506"/>
+      <c r="I1506"/>
+      <c r="J1506"/>
+      <c r="K1506"/>
+    </row>
+    <row r="1507" spans="1:11">
+      <c r="A1507"/>
+      <c r="B1507"/>
+      <c r="C1507"/>
+      <c r="D1507"/>
+      <c r="E1507"/>
+      <c r="F1507"/>
+      <c r="G1507"/>
+      <c r="H1507"/>
+      <c r="I1507"/>
+      <c r="J1507"/>
+      <c r="K1507"/>
+    </row>
+    <row r="1508" spans="1:11">
+      <c r="A1508"/>
+      <c r="B1508"/>
+      <c r="C1508"/>
+      <c r="D1508"/>
+      <c r="E1508"/>
+      <c r="F1508"/>
+      <c r="G1508"/>
+      <c r="H1508"/>
+      <c r="I1508"/>
+      <c r="J1508"/>
+      <c r="K1508"/>
+    </row>
+    <row r="1509" spans="1:11">
+      <c r="A1509"/>
+      <c r="B1509"/>
+      <c r="C1509"/>
+      <c r="D1509"/>
+      <c r="E1509"/>
+      <c r="F1509"/>
+      <c r="G1509"/>
+      <c r="H1509"/>
+      <c r="I1509"/>
+      <c r="J1509"/>
+      <c r="K1509"/>
+    </row>
+    <row r="1510" spans="1:11">
+      <c r="A1510"/>
+      <c r="B1510"/>
+      <c r="C1510"/>
+      <c r="D1510"/>
+      <c r="E1510"/>
+      <c r="F1510"/>
+      <c r="G1510"/>
+      <c r="H1510"/>
+      <c r="I1510"/>
+      <c r="J1510"/>
+      <c r="K1510"/>
+    </row>
+    <row r="1511" spans="1:11">
+      <c r="A1511"/>
+      <c r="B1511"/>
+      <c r="C1511"/>
+      <c r="D1511"/>
+      <c r="E1511"/>
+      <c r="F1511"/>
+      <c r="G1511"/>
+      <c r="H1511"/>
+      <c r="I1511"/>
+      <c r="J1511"/>
+      <c r="K1511"/>
+    </row>
+    <row r="1512" spans="1:11">
+      <c r="A1512"/>
+      <c r="B1512"/>
+      <c r="C1512"/>
+      <c r="D1512"/>
+      <c r="E1512"/>
+      <c r="F1512"/>
+      <c r="G1512"/>
+      <c r="H1512"/>
+      <c r="I1512"/>
+      <c r="J1512"/>
+      <c r="K1512"/>
+    </row>
+    <row r="1513" spans="1:11">
+      <c r="A1513"/>
+      <c r="B1513"/>
+      <c r="C1513"/>
+      <c r="D1513"/>
+      <c r="E1513"/>
+      <c r="F1513"/>
+      <c r="G1513"/>
+      <c r="H1513"/>
+      <c r="I1513"/>
+      <c r="J1513"/>
+      <c r="K1513"/>
+    </row>
+    <row r="1514" spans="1:11">
+      <c r="A1514"/>
+      <c r="B1514"/>
+      <c r="C1514"/>
+      <c r="D1514"/>
+      <c r="E1514"/>
+      <c r="F1514"/>
+      <c r="G1514"/>
+      <c r="H1514"/>
+      <c r="I1514"/>
+      <c r="J1514"/>
+      <c r="K1514"/>
+    </row>
+    <row r="1515" spans="1:11">
+      <c r="A1515"/>
+      <c r="B1515"/>
+      <c r="C1515"/>
+      <c r="D1515"/>
+      <c r="E1515"/>
+      <c r="F1515"/>
+      <c r="G1515"/>
+      <c r="H1515"/>
+      <c r="I1515"/>
+      <c r="J1515"/>
+      <c r="K1515"/>
+    </row>
+    <row r="1516" spans="1:11">
+      <c r="A1516"/>
+      <c r="B1516"/>
+      <c r="C1516"/>
+      <c r="D1516"/>
+      <c r="E1516"/>
+      <c r="F1516"/>
+      <c r="G1516"/>
+      <c r="H1516"/>
+      <c r="I1516"/>
+      <c r="J1516"/>
+      <c r="K1516"/>
+    </row>
+    <row r="1517" spans="1:11">
+      <c r="A1517"/>
+      <c r="B1517"/>
+      <c r="C1517"/>
+      <c r="D1517"/>
+      <c r="E1517"/>
+      <c r="F1517"/>
+      <c r="G1517"/>
+      <c r="H1517"/>
+      <c r="I1517"/>
+      <c r="J1517"/>
+      <c r="K1517"/>
+    </row>
+    <row r="1518" spans="1:11">
+      <c r="A1518"/>
+      <c r="B1518"/>
+      <c r="C1518"/>
+      <c r="D1518"/>
+      <c r="E1518"/>
+      <c r="F1518"/>
+      <c r="G1518"/>
+      <c r="H1518"/>
+      <c r="I1518"/>
+      <c r="J1518"/>
+      <c r="K1518"/>
+    </row>
+    <row r="1519" spans="1:11">
+      <c r="A1519"/>
+      <c r="B1519"/>
+      <c r="C1519"/>
+      <c r="D1519"/>
+      <c r="E1519"/>
+      <c r="F1519"/>
+      <c r="G1519"/>
+      <c r="H1519"/>
+      <c r="I1519"/>
+      <c r="J1519"/>
+      <c r="K1519"/>
+    </row>
+    <row r="1520" spans="1:11">
+      <c r="A1520"/>
+      <c r="B1520"/>
+      <c r="C1520"/>
+      <c r="D1520"/>
+      <c r="E1520"/>
+      <c r="F1520"/>
+      <c r="G1520"/>
+      <c r="H1520"/>
+      <c r="I1520"/>
+      <c r="J1520"/>
+      <c r="K1520"/>
+    </row>
+    <row r="1521" spans="1:11">
+      <c r="A1521"/>
+      <c r="B1521"/>
+      <c r="C1521"/>
+      <c r="D1521"/>
+      <c r="E1521"/>
+      <c r="F1521"/>
+      <c r="G1521"/>
+      <c r="H1521"/>
+      <c r="I1521"/>
+      <c r="J1521"/>
+      <c r="K1521"/>
+    </row>
+    <row r="1522" spans="1:11">
+      <c r="A1522"/>
+      <c r="B1522"/>
+      <c r="C1522"/>
+      <c r="D1522"/>
+      <c r="E1522"/>
+      <c r="F1522"/>
+      <c r="G1522"/>
+      <c r="H1522"/>
+      <c r="I1522"/>
+      <c r="J1522"/>
+      <c r="K1522"/>
+    </row>
+    <row r="1523" spans="1:11">
+      <c r="A1523"/>
+      <c r="B1523"/>
+      <c r="C1523"/>
+      <c r="D1523"/>
+      <c r="E1523"/>
+      <c r="F1523"/>
+      <c r="G1523"/>
+      <c r="H1523"/>
+      <c r="I1523"/>
+      <c r="J1523"/>
+      <c r="K1523"/>
+    </row>
+    <row r="1524" spans="1:11">
+      <c r="A1524"/>
+      <c r="B1524"/>
+      <c r="C1524"/>
+      <c r="D1524"/>
+      <c r="E1524"/>
+      <c r="F1524"/>
+      <c r="G1524"/>
+      <c r="H1524"/>
+      <c r="I1524"/>
+      <c r="J1524"/>
+      <c r="K1524"/>
+    </row>
+    <row r="1525" spans="1:11">
+      <c r="A1525"/>
+      <c r="B1525"/>
+      <c r="C1525"/>
+      <c r="D1525"/>
+      <c r="E1525"/>
+      <c r="F1525"/>
+      <c r="G1525"/>
+      <c r="H1525"/>
+      <c r="I1525"/>
+      <c r="J1525"/>
+      <c r="K1525"/>
+    </row>
+    <row r="1526" spans="1:11">
+      <c r="A1526"/>
+      <c r="B1526"/>
+      <c r="C1526"/>
+      <c r="D1526"/>
+      <c r="E1526"/>
+      <c r="F1526"/>
+      <c r="G1526"/>
+      <c r="H1526"/>
+      <c r="I1526"/>
+      <c r="J1526"/>
+      <c r="K1526"/>
+    </row>
+    <row r="1527" spans="1:11">
+      <c r="A1527"/>
+      <c r="B1527"/>
+      <c r="C1527"/>
+      <c r="D1527"/>
+      <c r="E1527"/>
+      <c r="F1527"/>
+      <c r="G1527"/>
+      <c r="H1527"/>
+      <c r="I1527"/>
+      <c r="J1527"/>
+      <c r="K1527"/>
+    </row>
+    <row r="1528" spans="1:11">
+      <c r="A1528"/>
+      <c r="B1528"/>
+      <c r="C1528"/>
+      <c r="D1528"/>
+      <c r="E1528"/>
+      <c r="F1528"/>
+      <c r="G1528"/>
+      <c r="H1528"/>
+      <c r="I1528"/>
+      <c r="J1528"/>
+      <c r="K1528"/>
+    </row>
+    <row r="1529" spans="1:11">
+      <c r="A1529"/>
+      <c r="B1529"/>
+      <c r="C1529"/>
+      <c r="D1529"/>
+      <c r="E1529"/>
+      <c r="F1529"/>
+      <c r="G1529"/>
+      <c r="H1529"/>
+      <c r="I1529"/>
+      <c r="J1529"/>
+      <c r="K1529"/>
+    </row>
+    <row r="1530" spans="1:11">
+      <c r="A1530"/>
+      <c r="B1530"/>
+      <c r="C1530"/>
+      <c r="D1530"/>
+      <c r="E1530"/>
+      <c r="F1530"/>
+      <c r="G1530"/>
+      <c r="H1530"/>
+      <c r="I1530"/>
+      <c r="J1530"/>
+      <c r="K1530"/>
+    </row>
+    <row r="1531" spans="1:11">
+      <c r="A1531"/>
+      <c r="B1531"/>
+      <c r="C1531"/>
+      <c r="D1531"/>
+      <c r="E1531"/>
+      <c r="F1531"/>
+      <c r="G1531"/>
+      <c r="H1531"/>
+      <c r="I1531"/>
+      <c r="J1531"/>
+      <c r="K1531"/>
+    </row>
+    <row r="1532" spans="1:11">
+      <c r="A1532"/>
+      <c r="B1532"/>
+      <c r="C1532"/>
+      <c r="D1532"/>
+      <c r="E1532"/>
+      <c r="F1532"/>
+      <c r="G1532"/>
+      <c r="H1532"/>
+      <c r="I1532"/>
+      <c r="J1532"/>
+      <c r="K1532"/>
+    </row>
+    <row r="1533" spans="1:11">
+      <c r="A1533"/>
+      <c r="B1533"/>
+      <c r="C1533"/>
+      <c r="D1533"/>
+      <c r="E1533"/>
+      <c r="F1533"/>
+      <c r="G1533"/>
+      <c r="H1533"/>
+      <c r="I1533"/>
+      <c r="J1533"/>
+      <c r="K1533"/>
+    </row>
+    <row r="1534" spans="1:11">
+      <c r="A1534"/>
+      <c r="B1534"/>
+      <c r="C1534"/>
+      <c r="D1534"/>
+      <c r="E1534"/>
+      <c r="F1534"/>
+      <c r="G1534"/>
+      <c r="H1534"/>
+      <c r="I1534"/>
+      <c r="J1534"/>
+      <c r="K1534"/>
+    </row>
+    <row r="1535" spans="1:11">
+      <c r="A1535"/>
+      <c r="B1535"/>
+      <c r="C1535"/>
+      <c r="D1535"/>
+      <c r="E1535"/>
+      <c r="F1535"/>
+      <c r="G1535"/>
+      <c r="H1535"/>
+      <c r="I1535"/>
+      <c r="J1535"/>
+      <c r="K1535"/>
+    </row>
+    <row r="1536" spans="1:11">
+      <c r="A1536"/>
+      <c r="B1536"/>
+      <c r="C1536"/>
+      <c r="D1536"/>
+      <c r="E1536"/>
+      <c r="F1536"/>
+      <c r="G1536"/>
+      <c r="H1536"/>
+      <c r="I1536"/>
+      <c r="J1536"/>
+      <c r="K1536"/>
+    </row>
+    <row r="1537" spans="1:11">
+      <c r="A1537"/>
+      <c r="B1537"/>
+      <c r="C1537"/>
+      <c r="D1537"/>
+      <c r="E1537"/>
+      <c r="F1537"/>
+      <c r="G1537"/>
+      <c r="H1537"/>
+      <c r="I1537"/>
+      <c r="J1537"/>
+      <c r="K1537"/>
+    </row>
+    <row r="1538" spans="1:11">
+      <c r="A1538"/>
+      <c r="B1538"/>
+      <c r="C1538"/>
+      <c r="D1538"/>
+      <c r="E1538"/>
+      <c r="F1538"/>
+      <c r="G1538"/>
+      <c r="H1538"/>
+      <c r="I1538"/>
+      <c r="J1538"/>
+      <c r="K1538"/>
+    </row>
+    <row r="1539" spans="1:11">
+      <c r="A1539"/>
+      <c r="B1539"/>
+      <c r="C1539"/>
+      <c r="D1539"/>
+      <c r="E1539"/>
+      <c r="F1539"/>
+      <c r="G1539"/>
+      <c r="H1539"/>
+      <c r="I1539"/>
+      <c r="J1539"/>
+      <c r="K1539"/>
+    </row>
+    <row r="1540" spans="1:11">
+      <c r="A1540"/>
+      <c r="B1540"/>
+      <c r="C1540"/>
+      <c r="D1540"/>
+      <c r="E1540"/>
+      <c r="F1540"/>
+      <c r="G1540"/>
+      <c r="H1540"/>
+      <c r="I1540"/>
+      <c r="J1540"/>
+      <c r="K1540"/>
+    </row>
+    <row r="1541" spans="1:11">
+      <c r="A1541"/>
+      <c r="B1541"/>
+      <c r="C1541"/>
+      <c r="D1541"/>
+      <c r="E1541"/>
+      <c r="F1541"/>
+      <c r="G1541"/>
+      <c r="H1541"/>
+      <c r="I1541"/>
+      <c r="J1541"/>
+      <c r="K1541"/>
+    </row>
+    <row r="1542" spans="1:11">
+      <c r="A1542"/>
+      <c r="B1542"/>
+      <c r="C1542"/>
+      <c r="D1542"/>
+      <c r="E1542"/>
+      <c r="F1542"/>
+      <c r="G1542"/>
+      <c r="H1542"/>
+      <c r="I1542"/>
+      <c r="J1542"/>
+      <c r="K1542"/>
+    </row>
+    <row r="1543" spans="1:11">
+      <c r="A1543"/>
+      <c r="B1543"/>
+      <c r="C1543"/>
+      <c r="D1543"/>
+      <c r="E1543"/>
+      <c r="F1543"/>
+      <c r="G1543"/>
+      <c r="H1543"/>
+      <c r="I1543"/>
+      <c r="J1543"/>
+      <c r="K1543"/>
+    </row>
+    <row r="1544" spans="1:11">
+      <c r="A1544"/>
+      <c r="B1544"/>
+      <c r="C1544"/>
+      <c r="D1544"/>
+      <c r="E1544"/>
+      <c r="F1544"/>
+      <c r="G1544"/>
+      <c r="H1544"/>
+      <c r="I1544"/>
+      <c r="J1544"/>
+      <c r="K1544"/>
+    </row>
+    <row r="1545" spans="1:11">
+      <c r="A1545"/>
+      <c r="B1545"/>
+      <c r="C1545"/>
+      <c r="D1545"/>
+      <c r="E1545"/>
+      <c r="F1545"/>
+      <c r="G1545"/>
+      <c r="H1545"/>
+      <c r="I1545"/>
+      <c r="J1545"/>
+      <c r="K1545"/>
+    </row>
+    <row r="1546" spans="1:11">
+      <c r="A1546"/>
+      <c r="B1546"/>
+      <c r="C1546"/>
+      <c r="D1546"/>
+      <c r="E1546"/>
+      <c r="F1546"/>
+      <c r="G1546"/>
+      <c r="H1546"/>
+      <c r="I1546"/>
+      <c r="J1546"/>
+      <c r="K1546"/>
+    </row>
+    <row r="1547" spans="1:11">
+      <c r="A1547"/>
+      <c r="B1547"/>
+      <c r="C1547"/>
+      <c r="D1547"/>
+      <c r="E1547"/>
+      <c r="F1547"/>
+      <c r="G1547"/>
+      <c r="H1547"/>
+      <c r="I1547"/>
+      <c r="J1547"/>
+      <c r="K1547"/>
+    </row>
+    <row r="1548" spans="1:11">
+      <c r="A1548"/>
+      <c r="B1548"/>
+      <c r="C1548"/>
+      <c r="D1548"/>
+      <c r="E1548"/>
+      <c r="F1548"/>
+      <c r="G1548"/>
+      <c r="H1548"/>
+      <c r="I1548"/>
+      <c r="J1548"/>
+      <c r="K1548"/>
+    </row>
+    <row r="1549" spans="1:11">
+      <c r="A1549"/>
+      <c r="B1549"/>
+      <c r="C1549"/>
+      <c r="D1549"/>
+      <c r="E1549"/>
+      <c r="F1549"/>
+      <c r="G1549"/>
+      <c r="H1549"/>
+      <c r="I1549"/>
+      <c r="J1549"/>
+      <c r="K1549"/>
+    </row>
+    <row r="1550" spans="1:11">
+      <c r="A1550"/>
+      <c r="B1550"/>
+      <c r="C1550"/>
+      <c r="D1550"/>
+      <c r="E1550"/>
+      <c r="F1550"/>
+      <c r="G1550"/>
+      <c r="H1550"/>
+      <c r="I1550"/>
+      <c r="J1550"/>
+      <c r="K1550"/>
+    </row>
+    <row r="1551" spans="1:11">
+      <c r="A1551"/>
+      <c r="B1551"/>
+      <c r="C1551"/>
+      <c r="D1551"/>
+      <c r="E1551"/>
+      <c r="F1551"/>
+      <c r="G1551"/>
+      <c r="H1551"/>
+      <c r="I1551"/>
+      <c r="J1551"/>
+      <c r="K1551"/>
+    </row>
+    <row r="1552" spans="1:11">
+      <c r="A1552"/>
+      <c r="B1552"/>
+      <c r="C1552"/>
+      <c r="D1552"/>
+      <c r="E1552"/>
+      <c r="F1552"/>
+      <c r="G1552"/>
+      <c r="H1552"/>
+      <c r="I1552"/>
+      <c r="J1552"/>
+      <c r="K1552"/>
+    </row>
+    <row r="1553" spans="1:11">
+      <c r="A1553"/>
+      <c r="B1553"/>
+      <c r="C1553"/>
+      <c r="D1553"/>
+      <c r="E1553"/>
+      <c r="F1553"/>
+      <c r="G1553"/>
+      <c r="H1553"/>
+      <c r="I1553"/>
+      <c r="J1553"/>
+      <c r="K1553"/>
+    </row>
+    <row r="1554" spans="1:11">
+      <c r="A1554"/>
+      <c r="B1554"/>
+      <c r="C1554"/>
+      <c r="D1554"/>
+      <c r="E1554"/>
+      <c r="F1554"/>
+      <c r="G1554"/>
+      <c r="H1554"/>
+      <c r="I1554"/>
+      <c r="J1554"/>
+      <c r="K1554"/>
+    </row>
+    <row r="1555" spans="1:11">
+      <c r="A1555"/>
+      <c r="B1555"/>
+      <c r="C1555"/>
+      <c r="D1555"/>
+      <c r="E1555"/>
+      <c r="F1555"/>
+      <c r="G1555"/>
+      <c r="H1555"/>
+      <c r="I1555"/>
+      <c r="J1555"/>
+      <c r="K1555"/>
+    </row>
+    <row r="1556" spans="1:11">
+      <c r="A1556"/>
+      <c r="B1556"/>
+      <c r="C1556"/>
+      <c r="D1556"/>
+      <c r="E1556"/>
+      <c r="F1556"/>
+      <c r="G1556"/>
+      <c r="H1556"/>
+      <c r="I1556"/>
+      <c r="J1556"/>
+      <c r="K1556"/>
+    </row>
+    <row r="1557" spans="1:11">
+      <c r="A1557"/>
+      <c r="B1557"/>
+      <c r="C1557"/>
+      <c r="D1557"/>
+      <c r="E1557"/>
+      <c r="F1557"/>
+      <c r="G1557"/>
+      <c r="H1557"/>
+      <c r="I1557"/>
+      <c r="J1557"/>
+      <c r="K1557"/>
+    </row>
+    <row r="1558" spans="1:11">
+      <c r="A1558"/>
+      <c r="B1558"/>
+      <c r="C1558"/>
+      <c r="D1558"/>
+      <c r="E1558"/>
+      <c r="F1558"/>
+      <c r="G1558"/>
+      <c r="H1558"/>
+      <c r="I1558"/>
+      <c r="J1558"/>
+      <c r="K1558"/>
+    </row>
+    <row r="1559" spans="1:11">
+      <c r="A1559"/>
+      <c r="B1559"/>
+      <c r="C1559"/>
+      <c r="D1559"/>
+      <c r="E1559"/>
+      <c r="F1559"/>
+      <c r="G1559"/>
+      <c r="H1559"/>
+      <c r="I1559"/>
+      <c r="J1559"/>
+      <c r="K1559"/>
+    </row>
+    <row r="1560" spans="1:11">
+      <c r="A1560"/>
+      <c r="B1560"/>
+      <c r="C1560"/>
+      <c r="D1560"/>
+      <c r="E1560"/>
+      <c r="F1560"/>
+      <c r="G1560"/>
+      <c r="H1560"/>
+      <c r="I1560"/>
+      <c r="J1560"/>
+      <c r="K1560"/>
+    </row>
+    <row r="1561" spans="1:11">
+      <c r="A1561"/>
+      <c r="B1561"/>
+      <c r="C1561"/>
+      <c r="D1561"/>
+      <c r="E1561"/>
+      <c r="F1561"/>
+      <c r="G1561"/>
+      <c r="H1561"/>
+      <c r="I1561"/>
+      <c r="J1561"/>
+      <c r="K1561"/>
+    </row>
+    <row r="1562" spans="1:11">
+      <c r="A1562"/>
+      <c r="B1562"/>
+      <c r="C1562"/>
+      <c r="D1562"/>
+      <c r="E1562"/>
+      <c r="F1562"/>
+      <c r="G1562"/>
+      <c r="H1562"/>
+      <c r="I1562"/>
+      <c r="J1562"/>
+      <c r="K1562"/>
+    </row>
+    <row r="1563" spans="1:11">
+      <c r="A1563"/>
+      <c r="B1563"/>
+      <c r="C1563"/>
+      <c r="D1563"/>
+      <c r="E1563"/>
+      <c r="F1563"/>
+      <c r="G1563"/>
+      <c r="H1563"/>
+      <c r="I1563"/>
+      <c r="J1563"/>
+      <c r="K1563"/>
+    </row>
+    <row r="1564" spans="1:11">
+      <c r="A1564"/>
+      <c r="B1564"/>
+      <c r="C1564"/>
+      <c r="D1564"/>
+      <c r="E1564"/>
+      <c r="F1564"/>
+      <c r="G1564"/>
+      <c r="H1564"/>
+      <c r="I1564"/>
+      <c r="J1564"/>
+      <c r="K1564"/>
+    </row>
+    <row r="1565" spans="1:11">
+      <c r="A1565"/>
+      <c r="B1565"/>
+      <c r="C1565"/>
+      <c r="D1565"/>
+      <c r="E1565"/>
+      <c r="F1565"/>
+      <c r="G1565"/>
+      <c r="H1565"/>
+      <c r="I1565"/>
+      <c r="J1565"/>
+      <c r="K1565"/>
+    </row>
+    <row r="1566" spans="1:11">
+      <c r="A1566"/>
+      <c r="B1566"/>
+      <c r="C1566"/>
+      <c r="D1566"/>
+      <c r="E1566"/>
+      <c r="F1566"/>
+      <c r="G1566"/>
+      <c r="H1566"/>
+      <c r="I1566"/>
+      <c r="J1566"/>
+      <c r="K1566"/>
+    </row>
+    <row r="1567" spans="1:11">
+      <c r="A1567"/>
+      <c r="B1567"/>
+      <c r="C1567"/>
+      <c r="D1567"/>
+      <c r="E1567"/>
+      <c r="F1567"/>
+      <c r="G1567"/>
+      <c r="H1567"/>
+      <c r="I1567"/>
+      <c r="J1567"/>
+      <c r="K1567"/>
+    </row>
+    <row r="1568" spans="1:11">
+      <c r="A1568"/>
+      <c r="B1568"/>
+      <c r="C1568"/>
+      <c r="D1568"/>
+      <c r="E1568"/>
+      <c r="F1568"/>
+      <c r="G1568"/>
+      <c r="H1568"/>
+      <c r="I1568"/>
+      <c r="J1568"/>
+      <c r="K1568"/>
+    </row>
+    <row r="1569" spans="1:11">
+      <c r="A1569"/>
+      <c r="B1569"/>
+      <c r="C1569"/>
+      <c r="D1569"/>
+      <c r="E1569"/>
+      <c r="F1569"/>
+      <c r="G1569"/>
+      <c r="H1569"/>
+      <c r="I1569"/>
+      <c r="J1569"/>
+      <c r="K1569"/>
+    </row>
+    <row r="1570" spans="1:11">
+      <c r="A1570"/>
+      <c r="B1570"/>
+      <c r="C1570"/>
+      <c r="D1570"/>
+      <c r="E1570"/>
+      <c r="F1570"/>
+      <c r="G1570"/>
+      <c r="H1570"/>
+      <c r="I1570"/>
+      <c r="J1570"/>
+      <c r="K1570"/>
+    </row>
+    <row r="1571" spans="1:11">
+      <c r="A1571"/>
+      <c r="B1571"/>
+      <c r="C1571"/>
+      <c r="D1571"/>
+      <c r="E1571"/>
+      <c r="F1571"/>
+      <c r="G1571"/>
+      <c r="H1571"/>
+      <c r="I1571"/>
+      <c r="J1571"/>
+      <c r="K1571"/>
+    </row>
+    <row r="1572" spans="1:11">
+      <c r="A1572"/>
+      <c r="B1572"/>
+      <c r="C1572"/>
+      <c r="D1572"/>
+      <c r="E1572"/>
+      <c r="F1572"/>
+      <c r="G1572"/>
+      <c r="H1572"/>
+      <c r="I1572"/>
+      <c r="J1572"/>
+      <c r="K1572"/>
+    </row>
+    <row r="1573" spans="1:11">
+      <c r="A1573"/>
+      <c r="B1573"/>
+      <c r="C1573"/>
+      <c r="D1573"/>
+      <c r="E1573"/>
+      <c r="F1573"/>
+      <c r="G1573"/>
+      <c r="H1573"/>
+      <c r="I1573"/>
+      <c r="J1573"/>
+      <c r="K1573"/>
+    </row>
+    <row r="1574" spans="1:11">
+      <c r="A1574"/>
+      <c r="B1574"/>
+      <c r="C1574"/>
+      <c r="D1574"/>
+      <c r="E1574"/>
+      <c r="F1574"/>
+      <c r="G1574"/>
+      <c r="H1574"/>
+      <c r="I1574"/>
+      <c r="J1574"/>
+      <c r="K1574"/>
+    </row>
+    <row r="1575" spans="1:11">
+      <c r="A1575"/>
+      <c r="B1575"/>
+      <c r="C1575"/>
+      <c r="D1575"/>
+      <c r="E1575"/>
+      <c r="F1575"/>
+      <c r="G1575"/>
+      <c r="H1575"/>
+      <c r="I1575"/>
+      <c r="J1575"/>
+      <c r="K1575"/>
+    </row>
+    <row r="1576" spans="1:11">
+      <c r="A1576"/>
+      <c r="B1576"/>
+      <c r="C1576"/>
+      <c r="D1576"/>
+      <c r="E1576"/>
+      <c r="F1576"/>
+      <c r="G1576"/>
+      <c r="H1576"/>
+      <c r="I1576"/>
+      <c r="J1576"/>
+      <c r="K1576"/>
+    </row>
+    <row r="1577" spans="1:11">
+      <c r="A1577"/>
+      <c r="B1577"/>
+      <c r="C1577"/>
+      <c r="D1577"/>
+      <c r="E1577"/>
+      <c r="F1577"/>
+      <c r="G1577"/>
+      <c r="H1577"/>
+      <c r="I1577"/>
+      <c r="J1577"/>
+      <c r="K1577"/>
+    </row>
+    <row r="1578" spans="1:11">
+      <c r="A1578"/>
+      <c r="B1578"/>
+      <c r="C1578"/>
+      <c r="D1578"/>
+      <c r="E1578"/>
+      <c r="F1578"/>
+      <c r="G1578"/>
+      <c r="H1578"/>
+      <c r="I1578"/>
+      <c r="J1578"/>
+      <c r="K1578"/>
+    </row>
+    <row r="1579" spans="1:11">
+      <c r="A1579"/>
+      <c r="B1579"/>
+      <c r="C1579"/>
+      <c r="D1579"/>
+      <c r="E1579"/>
+      <c r="F1579"/>
+      <c r="G1579"/>
+      <c r="H1579"/>
+      <c r="I1579"/>
+      <c r="J1579"/>
+      <c r="K1579"/>
+    </row>
+    <row r="1580" spans="1:11">
+      <c r="A1580"/>
+      <c r="B1580"/>
+      <c r="C1580"/>
+      <c r="D1580"/>
+      <c r="E1580"/>
+      <c r="F1580"/>
+      <c r="G1580"/>
+      <c r="H1580"/>
+      <c r="I1580"/>
+      <c r="J1580"/>
+      <c r="K1580"/>
+    </row>
+    <row r="1581" spans="1:11">
+      <c r="A1581"/>
+      <c r="B1581"/>
+      <c r="C1581"/>
+      <c r="D1581"/>
+      <c r="E1581"/>
+      <c r="F1581"/>
+      <c r="G1581"/>
+      <c r="H1581"/>
+      <c r="I1581"/>
+      <c r="J1581"/>
+      <c r="K1581"/>
+    </row>
+    <row r="1582" spans="1:11">
+      <c r="A1582"/>
+      <c r="B1582"/>
+      <c r="C1582"/>
+      <c r="D1582"/>
+      <c r="E1582"/>
+      <c r="F1582"/>
+      <c r="G1582"/>
+      <c r="H1582"/>
+      <c r="I1582"/>
+      <c r="J1582"/>
+      <c r="K1582"/>
+    </row>
+    <row r="1583" spans="1:11">
+      <c r="A1583"/>
+      <c r="B1583"/>
+      <c r="C1583"/>
+      <c r="D1583"/>
+      <c r="E1583"/>
+      <c r="F1583"/>
+      <c r="G1583"/>
+      <c r="H1583"/>
+      <c r="I1583"/>
+      <c r="J1583"/>
+      <c r="K1583"/>
+    </row>
+    <row r="1584" spans="1:11">
+      <c r="A1584"/>
+      <c r="B1584"/>
+      <c r="C1584"/>
+      <c r="D1584"/>
+      <c r="E1584"/>
+      <c r="F1584"/>
+      <c r="G1584"/>
+      <c r="H1584"/>
+      <c r="I1584"/>
+      <c r="J1584"/>
+      <c r="K1584"/>
+    </row>
+    <row r="1585" spans="1:11">
+      <c r="A1585"/>
+      <c r="B1585"/>
+      <c r="C1585"/>
+      <c r="D1585"/>
+      <c r="E1585"/>
+      <c r="F1585"/>
+      <c r="G1585"/>
+      <c r="H1585"/>
+      <c r="I1585"/>
+      <c r="J1585"/>
+      <c r="K1585"/>
+    </row>
+    <row r="1586" spans="1:11">
+      <c r="A1586"/>
+      <c r="B1586"/>
+      <c r="C1586"/>
+      <c r="D1586"/>
+      <c r="E1586"/>
+      <c r="F1586"/>
+      <c r="G1586"/>
+      <c r="H1586"/>
+      <c r="I1586"/>
+      <c r="J1586"/>
+      <c r="K1586"/>
+    </row>
+    <row r="1587" spans="1:11">
+      <c r="A1587"/>
+      <c r="B1587"/>
+      <c r="C1587"/>
+      <c r="D1587"/>
+      <c r="E1587"/>
+      <c r="F1587"/>
+      <c r="G1587"/>
+      <c r="H1587"/>
+      <c r="I1587"/>
+      <c r="J1587"/>
+      <c r="K1587"/>
+    </row>
+    <row r="1588" spans="1:11">
+      <c r="A1588"/>
+      <c r="B1588"/>
+      <c r="C1588"/>
+      <c r="D1588"/>
+      <c r="E1588"/>
+      <c r="F1588"/>
+      <c r="G1588"/>
+      <c r="H1588"/>
+      <c r="I1588"/>
+      <c r="J1588"/>
+      <c r="K1588"/>
+    </row>
+    <row r="1589" spans="1:11">
+      <c r="A1589"/>
+      <c r="B1589"/>
+      <c r="C1589"/>
+      <c r="D1589"/>
+      <c r="E1589"/>
+      <c r="F1589"/>
+      <c r="G1589"/>
+      <c r="H1589"/>
+      <c r="I1589"/>
+      <c r="J1589"/>
+      <c r="K1589"/>
+    </row>
+    <row r="1590" spans="1:11">
+      <c r="A1590"/>
+      <c r="B1590"/>
+      <c r="C1590"/>
+      <c r="D1590"/>
+      <c r="E1590"/>
+      <c r="F1590"/>
+      <c r="G1590"/>
+      <c r="H1590"/>
+      <c r="I1590"/>
+      <c r="J1590"/>
+      <c r="K1590"/>
+    </row>
+    <row r="1591" spans="1:11">
+      <c r="A1591"/>
+      <c r="B1591"/>
+      <c r="C1591"/>
+      <c r="D1591"/>
+      <c r="E1591"/>
+      <c r="F1591"/>
+      <c r="G1591"/>
+      <c r="H1591"/>
+      <c r="I1591"/>
+      <c r="J1591"/>
+      <c r="K1591"/>
+    </row>
+    <row r="1592" spans="1:11">
+      <c r="A1592"/>
+      <c r="B1592"/>
+      <c r="C1592"/>
+      <c r="D1592"/>
+      <c r="E1592"/>
+      <c r="F1592"/>
+      <c r="G1592"/>
+      <c r="H1592"/>
+      <c r="I1592"/>
+      <c r="J1592"/>
+      <c r="K1592"/>
+    </row>
+    <row r="1593" spans="1:11">
+      <c r="A1593"/>
+      <c r="B1593"/>
+      <c r="C1593"/>
+      <c r="D1593"/>
+      <c r="E1593"/>
+      <c r="F1593"/>
+      <c r="G1593"/>
+      <c r="H1593"/>
+      <c r="I1593"/>
+      <c r="J1593"/>
+      <c r="K1593"/>
+    </row>
+    <row r="1594" spans="1:11">
+      <c r="A1594"/>
+      <c r="B1594"/>
+      <c r="C1594"/>
+      <c r="D1594"/>
+      <c r="E1594"/>
+      <c r="F1594"/>
+      <c r="G1594"/>
+      <c r="H1594"/>
+      <c r="I1594"/>
+      <c r="J1594"/>
+      <c r="K1594"/>
+    </row>
+    <row r="1595" spans="1:11">
+      <c r="A1595"/>
+      <c r="B1595"/>
+      <c r="C1595"/>
+      <c r="D1595"/>
+      <c r="E1595"/>
+      <c r="F1595"/>
+      <c r="G1595"/>
+      <c r="H1595"/>
+      <c r="I1595"/>
+      <c r="J1595"/>
+      <c r="K1595"/>
+    </row>
+    <row r="1596" spans="1:11">
+      <c r="A1596"/>
+      <c r="B1596"/>
+      <c r="C1596"/>
+      <c r="D1596"/>
+      <c r="E1596"/>
+      <c r="F1596"/>
+      <c r="G1596"/>
+      <c r="H1596"/>
+      <c r="I1596"/>
+      <c r="J1596"/>
+      <c r="K1596"/>
+    </row>
+    <row r="1597" spans="1:11">
+      <c r="A1597"/>
+      <c r="B1597"/>
+      <c r="C1597"/>
+      <c r="D1597"/>
+      <c r="E1597"/>
+      <c r="F1597"/>
+      <c r="G1597"/>
+      <c r="H1597"/>
+      <c r="I1597"/>
+      <c r="J1597"/>
+      <c r="K1597"/>
+    </row>
+    <row r="1598" spans="1:11">
+      <c r="A1598"/>
+      <c r="B1598"/>
+      <c r="C1598"/>
+      <c r="D1598"/>
+      <c r="E1598"/>
+      <c r="F1598"/>
+      <c r="G1598"/>
+      <c r="H1598"/>
+      <c r="I1598"/>
+      <c r="J1598"/>
+      <c r="K1598"/>
+    </row>
+    <row r="1599" spans="1:11">
+      <c r="A1599"/>
+      <c r="B1599"/>
+      <c r="C1599"/>
+      <c r="D1599"/>
+      <c r="E1599"/>
+      <c r="F1599"/>
+      <c r="G1599"/>
+      <c r="H1599"/>
+      <c r="I1599"/>
+      <c r="J1599"/>
+      <c r="K1599"/>
+    </row>
+    <row r="1600" spans="1:11">
+      <c r="A1600"/>
+      <c r="B1600"/>
+      <c r="C1600"/>
+      <c r="D1600"/>
+      <c r="E1600"/>
+      <c r="F1600"/>
+      <c r="G1600"/>
+      <c r="H1600"/>
+      <c r="I1600"/>
+      <c r="J1600"/>
+      <c r="K1600"/>
+    </row>
+    <row r="1601" spans="1:11">
+      <c r="A1601"/>
+      <c r="B1601"/>
+      <c r="C1601"/>
+      <c r="D1601"/>
+      <c r="E1601"/>
+      <c r="F1601"/>
+      <c r="G1601"/>
+      <c r="H1601"/>
+      <c r="I1601"/>
+      <c r="J1601"/>
+      <c r="K1601"/>
+    </row>
+    <row r="1602" spans="1:11">
+      <c r="A1602"/>
+      <c r="B1602"/>
+      <c r="C1602"/>
+      <c r="D1602"/>
+      <c r="E1602"/>
+      <c r="F1602"/>
+      <c r="G1602"/>
+      <c r="H1602"/>
+      <c r="I1602"/>
+      <c r="J1602"/>
+      <c r="K1602"/>
+    </row>
+    <row r="1603" spans="1:11">
+      <c r="A1603"/>
+      <c r="B1603"/>
+      <c r="C1603"/>
+      <c r="D1603"/>
+      <c r="E1603"/>
+      <c r="F1603"/>
+      <c r="G1603"/>
+      <c r="H1603"/>
+      <c r="I1603"/>
+      <c r="J1603"/>
+      <c r="K1603"/>
+    </row>
+    <row r="1604" spans="1:11">
+      <c r="A1604"/>
+      <c r="B1604"/>
+      <c r="C1604"/>
+      <c r="D1604"/>
+      <c r="E1604"/>
+      <c r="F1604"/>
+      <c r="G1604"/>
+      <c r="H1604"/>
+      <c r="I1604"/>
+      <c r="J1604"/>
+      <c r="K1604"/>
+    </row>
+    <row r="1605" spans="1:11">
+      <c r="A1605"/>
+      <c r="B1605"/>
+      <c r="C1605"/>
+      <c r="D1605"/>
+      <c r="E1605"/>
+      <c r="F1605"/>
+      <c r="G1605"/>
+      <c r="H1605"/>
+      <c r="I1605"/>
+      <c r="J1605"/>
+      <c r="K1605"/>
+    </row>
+    <row r="1606" spans="1:11">
+      <c r="A1606"/>
+      <c r="B1606"/>
+      <c r="C1606"/>
+      <c r="D1606"/>
+      <c r="E1606"/>
+      <c r="F1606"/>
+      <c r="G1606"/>
+      <c r="H1606"/>
+      <c r="I1606"/>
+      <c r="J1606"/>
+      <c r="K1606"/>
+    </row>
+    <row r="1607" spans="1:11">
+      <c r="A1607"/>
+      <c r="B1607"/>
+      <c r="C1607"/>
+      <c r="D1607"/>
+      <c r="E1607"/>
+      <c r="F1607"/>
+      <c r="G1607"/>
+      <c r="H1607"/>
+      <c r="I1607"/>
+      <c r="J1607"/>
+      <c r="K1607"/>
+    </row>
+    <row r="1608" spans="1:11">
+      <c r="A1608"/>
+      <c r="B1608"/>
+      <c r="C1608"/>
+      <c r="D1608"/>
+      <c r="E1608"/>
+      <c r="F1608"/>
+      <c r="G1608"/>
+      <c r="H1608"/>
+      <c r="I1608"/>
+      <c r="J1608"/>
+      <c r="K1608"/>
+    </row>
+    <row r="1609" spans="1:11">
+      <c r="A1609"/>
+      <c r="B1609"/>
+      <c r="C1609"/>
+      <c r="D1609"/>
+      <c r="E1609"/>
+      <c r="F1609"/>
+      <c r="G1609"/>
+      <c r="H1609"/>
+      <c r="I1609"/>
+      <c r="J1609"/>
+      <c r="K1609"/>
+    </row>
+    <row r="1610" spans="1:11">
+      <c r="A1610"/>
+      <c r="B1610"/>
+      <c r="C1610"/>
+      <c r="D1610"/>
+      <c r="E1610"/>
+      <c r="F1610"/>
+      <c r="G1610"/>
+      <c r="H1610"/>
+      <c r="I1610"/>
+      <c r="J1610"/>
+      <c r="K1610"/>
+    </row>
+    <row r="1611" spans="1:11">
+      <c r="A1611"/>
+      <c r="B1611"/>
+      <c r="C1611"/>
+      <c r="D1611"/>
+      <c r="E1611"/>
+      <c r="F1611"/>
+      <c r="G1611"/>
+      <c r="H1611"/>
+      <c r="I1611"/>
+      <c r="J1611"/>
+      <c r="K1611"/>
+    </row>
+    <row r="1612" spans="1:11">
+      <c r="A1612"/>
+      <c r="B1612"/>
+      <c r="C1612"/>
+      <c r="D1612"/>
+      <c r="E1612"/>
+      <c r="F1612"/>
+      <c r="G1612"/>
+      <c r="H1612"/>
+      <c r="I1612"/>
+      <c r="J1612"/>
+      <c r="K1612"/>
+    </row>
+    <row r="1613" spans="1:11">
+      <c r="A1613"/>
+      <c r="B1613"/>
+      <c r="C1613"/>
+      <c r="D1613"/>
+      <c r="E1613"/>
+      <c r="F1613"/>
+      <c r="G1613"/>
+      <c r="H1613"/>
+      <c r="I1613"/>
+      <c r="J1613"/>
+      <c r="K1613"/>
+    </row>
+    <row r="1614" spans="1:11">
+      <c r="A1614"/>
+      <c r="B1614"/>
+      <c r="C1614"/>
+      <c r="D1614"/>
+      <c r="E1614"/>
+      <c r="F1614"/>
+      <c r="G1614"/>
+      <c r="H1614"/>
+      <c r="I1614"/>
+      <c r="J1614"/>
+      <c r="K1614"/>
+    </row>
+    <row r="1615" spans="1:11">
+      <c r="A1615"/>
+      <c r="B1615"/>
+      <c r="C1615"/>
+      <c r="D1615"/>
+      <c r="E1615"/>
+      <c r="F1615"/>
+      <c r="G1615"/>
+      <c r="H1615"/>
+      <c r="I1615"/>
+      <c r="J1615"/>
+      <c r="K1615"/>
+    </row>
+    <row r="1616" spans="1:11">
+      <c r="A1616"/>
+      <c r="B1616"/>
+      <c r="C1616"/>
+      <c r="D1616"/>
+      <c r="E1616"/>
+      <c r="F1616"/>
+      <c r="G1616"/>
+      <c r="H1616"/>
+      <c r="I1616"/>
+      <c r="J1616"/>
+      <c r="K1616"/>
+    </row>
+    <row r="1617" spans="1:11">
+      <c r="A1617"/>
+      <c r="B1617"/>
+      <c r="C1617"/>
+      <c r="D1617"/>
+      <c r="E1617"/>
+      <c r="F1617"/>
+      <c r="G1617"/>
+      <c r="H1617"/>
+      <c r="I1617"/>
+      <c r="J1617"/>
+      <c r="K1617"/>
+    </row>
+    <row r="1618" spans="1:11">
+      <c r="A1618"/>
+      <c r="B1618"/>
+      <c r="C1618"/>
+      <c r="D1618"/>
+      <c r="E1618"/>
+      <c r="F1618"/>
+      <c r="G1618"/>
+      <c r="H1618"/>
+      <c r="I1618"/>
+      <c r="J1618"/>
+      <c r="K1618"/>
+    </row>
+    <row r="1619" spans="1:11">
+      <c r="A1619"/>
+      <c r="B1619"/>
+      <c r="C1619"/>
+      <c r="D1619"/>
+      <c r="E1619"/>
+      <c r="F1619"/>
+      <c r="G1619"/>
+      <c r="H1619"/>
+      <c r="I1619"/>
+      <c r="J1619"/>
+      <c r="K1619"/>
+    </row>
+    <row r="1620" spans="1:11">
+      <c r="A1620"/>
+      <c r="B1620"/>
+      <c r="C1620"/>
+      <c r="D1620"/>
+      <c r="E1620"/>
+      <c r="F1620"/>
+      <c r="G1620"/>
+      <c r="H1620"/>
+      <c r="I1620"/>
+      <c r="J1620"/>
+      <c r="K1620"/>
+    </row>
+    <row r="1621" spans="1:11">
+      <c r="A1621"/>
+      <c r="B1621"/>
+      <c r="C1621"/>
+      <c r="D1621"/>
+      <c r="E1621"/>
+      <c r="F1621"/>
+      <c r="G1621"/>
+      <c r="H1621"/>
+      <c r="I1621"/>
+      <c r="J1621"/>
+      <c r="K1621"/>
+    </row>
+    <row r="1622" spans="1:11">
+      <c r="A1622"/>
+      <c r="B1622"/>
+      <c r="C1622"/>
+      <c r="D1622"/>
+      <c r="E1622"/>
+      <c r="F1622"/>
+      <c r="G1622"/>
+      <c r="H1622"/>
+      <c r="I1622"/>
+      <c r="J1622"/>
+      <c r="K1622"/>
+    </row>
+    <row r="1623" spans="1:11">
+      <c r="A1623"/>
+      <c r="B1623"/>
+      <c r="C1623"/>
+      <c r="D1623"/>
+      <c r="E1623"/>
+      <c r="F1623"/>
+      <c r="G1623"/>
+      <c r="H1623"/>
+      <c r="I1623"/>
+      <c r="J1623"/>
+      <c r="K1623"/>
+    </row>
+    <row r="1624" spans="1:11">
+      <c r="A1624"/>
+      <c r="B1624"/>
+      <c r="C1624"/>
+      <c r="D1624"/>
+      <c r="E1624"/>
+      <c r="F1624"/>
+      <c r="G1624"/>
+      <c r="H1624"/>
+      <c r="I1624"/>
+      <c r="J1624"/>
+      <c r="K1624"/>
+    </row>
+    <row r="1625" spans="1:11">
+      <c r="A1625"/>
+      <c r="B1625"/>
+      <c r="C1625"/>
+      <c r="D1625"/>
+      <c r="E1625"/>
+      <c r="F1625"/>
+      <c r="G1625"/>
+      <c r="H1625"/>
+      <c r="I1625"/>
+      <c r="J1625"/>
+      <c r="K1625"/>
+    </row>
+    <row r="1626" spans="1:11">
+      <c r="A1626"/>
+      <c r="B1626"/>
+      <c r="C1626"/>
+      <c r="D1626"/>
+      <c r="E1626"/>
+      <c r="F1626"/>
+      <c r="G1626"/>
+      <c r="H1626"/>
+      <c r="I1626"/>
+      <c r="J1626"/>
+      <c r="K1626"/>
+    </row>
+    <row r="1627" spans="1:11">
+      <c r="A1627"/>
+      <c r="B1627"/>
+      <c r="C1627"/>
+      <c r="D1627"/>
+      <c r="E1627"/>
+      <c r="F1627"/>
+      <c r="G1627"/>
+      <c r="H1627"/>
+      <c r="I1627"/>
+      <c r="J1627"/>
+      <c r="K1627"/>
+    </row>
+    <row r="1628" spans="1:11">
+      <c r="A1628"/>
+      <c r="B1628"/>
+      <c r="C1628"/>
+      <c r="D1628"/>
+      <c r="E1628"/>
+      <c r="F1628"/>
+      <c r="G1628"/>
+      <c r="H1628"/>
+      <c r="I1628"/>
+      <c r="J1628"/>
+      <c r="K1628"/>
+    </row>
+    <row r="1629" spans="1:11">
+      <c r="A1629"/>
+      <c r="B1629"/>
+      <c r="C1629"/>
+      <c r="D1629"/>
+      <c r="E1629"/>
+      <c r="F1629"/>
+      <c r="G1629"/>
+      <c r="H1629"/>
+      <c r="I1629"/>
+      <c r="J1629"/>
+      <c r="K1629"/>
+    </row>
+    <row r="1630" spans="1:11">
+      <c r="A1630"/>
+      <c r="B1630"/>
+      <c r="C1630"/>
+      <c r="D1630"/>
+      <c r="E1630"/>
+      <c r="F1630"/>
+      <c r="G1630"/>
+      <c r="H1630"/>
+      <c r="I1630"/>
+      <c r="J1630"/>
+      <c r="K1630"/>
+    </row>
+    <row r="1631" spans="1:11">
+      <c r="A1631"/>
+      <c r="B1631"/>
+      <c r="C1631"/>
+      <c r="D1631"/>
+      <c r="E1631"/>
+      <c r="F1631"/>
+      <c r="G1631"/>
+      <c r="H1631"/>
+      <c r="I1631"/>
+      <c r="J1631"/>
+      <c r="K1631"/>
+    </row>
+    <row r="1632" spans="1:11">
+      <c r="A1632"/>
+      <c r="B1632"/>
+      <c r="C1632"/>
+      <c r="D1632"/>
+      <c r="E1632"/>
+      <c r="F1632"/>
+      <c r="G1632"/>
+      <c r="H1632"/>
+      <c r="I1632"/>
+      <c r="J1632"/>
+      <c r="K1632"/>
+    </row>
+    <row r="1633" spans="1:11">
+      <c r="A1633"/>
+      <c r="B1633"/>
+      <c r="C1633"/>
+      <c r="D1633"/>
+      <c r="E1633"/>
+      <c r="F1633"/>
+      <c r="G1633"/>
+      <c r="H1633"/>
+      <c r="I1633"/>
+      <c r="J1633"/>
+      <c r="K1633"/>
+    </row>
+    <row r="1634" spans="1:11">
+      <c r="A1634"/>
+      <c r="B1634"/>
+      <c r="C1634"/>
+      <c r="D1634"/>
+      <c r="E1634"/>
+      <c r="F1634"/>
+      <c r="G1634"/>
+      <c r="H1634"/>
+      <c r="I1634"/>
+      <c r="J1634"/>
+      <c r="K1634"/>
+    </row>
+    <row r="1635" spans="1:11">
+      <c r="A1635"/>
+      <c r="B1635"/>
+      <c r="C1635"/>
+      <c r="D1635"/>
+      <c r="E1635"/>
+      <c r="F1635"/>
+      <c r="G1635"/>
+      <c r="H1635"/>
+      <c r="I1635"/>
+      <c r="J1635"/>
+      <c r="K1635"/>
+    </row>
+    <row r="1636" spans="1:11">
+      <c r="A1636"/>
+      <c r="B1636"/>
+      <c r="C1636"/>
+      <c r="D1636"/>
+      <c r="E1636"/>
+      <c r="F1636"/>
+      <c r="G1636"/>
+      <c r="H1636"/>
+      <c r="I1636"/>
+      <c r="J1636"/>
+      <c r="K1636"/>
+    </row>
+    <row r="1637" spans="1:11">
+      <c r="A1637"/>
+      <c r="B1637"/>
+      <c r="C1637"/>
+      <c r="D1637"/>
+      <c r="E1637"/>
+      <c r="F1637"/>
+      <c r="G1637"/>
+      <c r="H1637"/>
+      <c r="I1637"/>
+      <c r="J1637"/>
+      <c r="K1637"/>
+    </row>
+    <row r="1638" spans="1:11">
+      <c r="A1638"/>
+      <c r="B1638"/>
+      <c r="C1638"/>
+      <c r="D1638"/>
+      <c r="E1638"/>
+      <c r="F1638"/>
+      <c r="G1638"/>
+      <c r="H1638"/>
+      <c r="I1638"/>
+      <c r="J1638"/>
+      <c r="K1638"/>
+    </row>
+    <row r="1639" spans="1:11">
+      <c r="A1639"/>
+      <c r="B1639"/>
+      <c r="C1639"/>
+      <c r="D1639"/>
+      <c r="E1639"/>
+      <c r="F1639"/>
+      <c r="G1639"/>
+      <c r="H1639"/>
+      <c r="I1639"/>
+      <c r="J1639"/>
+      <c r="K1639"/>
+    </row>
+    <row r="1640" spans="1:11">
+      <c r="A1640"/>
+      <c r="B1640"/>
+      <c r="C1640"/>
+      <c r="D1640"/>
+      <c r="E1640"/>
+      <c r="F1640"/>
+      <c r="G1640"/>
+      <c r="H1640"/>
+      <c r="I1640"/>
+      <c r="J1640"/>
+      <c r="K1640"/>
+    </row>
+    <row r="1641" spans="1:11">
+      <c r="A1641"/>
+      <c r="B1641"/>
+      <c r="C1641"/>
+      <c r="D1641"/>
+      <c r="E1641"/>
+      <c r="F1641"/>
+      <c r="G1641"/>
+      <c r="H1641"/>
+      <c r="I1641"/>
+      <c r="J1641"/>
+      <c r="K1641"/>
+    </row>
+    <row r="1642" spans="1:11">
+      <c r="A1642"/>
+      <c r="B1642"/>
+      <c r="C1642"/>
+      <c r="D1642"/>
+      <c r="E1642"/>
+      <c r="F1642"/>
+      <c r="G1642"/>
+      <c r="H1642"/>
+      <c r="I1642"/>
+      <c r="J1642"/>
+      <c r="K1642"/>
+    </row>
+    <row r="1643" spans="1:11">
+      <c r="A1643"/>
+      <c r="B1643"/>
+      <c r="C1643"/>
+      <c r="D1643"/>
+      <c r="E1643"/>
+      <c r="F1643"/>
+      <c r="G1643"/>
+      <c r="H1643"/>
+      <c r="I1643"/>
+      <c r="J1643"/>
+      <c r="K1643"/>
+    </row>
+    <row r="1644" spans="1:11">
+      <c r="A1644"/>
+      <c r="B1644"/>
+      <c r="C1644"/>
+      <c r="D1644"/>
+      <c r="E1644"/>
+      <c r="F1644"/>
+      <c r="G1644"/>
+      <c r="H1644"/>
+      <c r="I1644"/>
+      <c r="J1644"/>
+      <c r="K1644"/>
+    </row>
+    <row r="1645" spans="1:11">
+      <c r="A1645"/>
+      <c r="B1645"/>
+      <c r="C1645"/>
+      <c r="D1645"/>
+      <c r="E1645"/>
+      <c r="F1645"/>
+      <c r="G1645"/>
+      <c r="H1645"/>
+      <c r="I1645"/>
+      <c r="J1645"/>
+      <c r="K1645"/>
+    </row>
+    <row r="1646" spans="1:11">
+      <c r="A1646"/>
+      <c r="B1646"/>
+      <c r="C1646"/>
+      <c r="D1646"/>
+      <c r="E1646"/>
+      <c r="F1646"/>
+      <c r="G1646"/>
+      <c r="H1646"/>
+      <c r="I1646"/>
+      <c r="J1646"/>
+      <c r="K1646"/>
+    </row>
+    <row r="1647" spans="1:11">
+      <c r="A1647"/>
+      <c r="B1647"/>
+      <c r="C1647"/>
+      <c r="D1647"/>
+      <c r="E1647"/>
+      <c r="F1647"/>
+      <c r="G1647"/>
+      <c r="H1647"/>
+      <c r="I1647"/>
+      <c r="J1647"/>
+      <c r="K1647"/>
+    </row>
+    <row r="1648" spans="1:11">
+      <c r="A1648"/>
+      <c r="B1648"/>
+      <c r="C1648"/>
+      <c r="D1648"/>
+      <c r="E1648"/>
+      <c r="F1648"/>
+      <c r="G1648"/>
+      <c r="H1648"/>
+      <c r="I1648"/>
+      <c r="J1648"/>
+      <c r="K1648"/>
+    </row>
+    <row r="1649" spans="1:11">
+      <c r="A1649"/>
+      <c r="B1649"/>
+      <c r="C1649"/>
+      <c r="D1649"/>
+      <c r="E1649"/>
+      <c r="F1649"/>
+      <c r="G1649"/>
+      <c r="H1649"/>
+      <c r="I1649"/>
+      <c r="J1649"/>
+      <c r="K1649"/>
+    </row>
+    <row r="1650" spans="1:11">
+      <c r="A1650"/>
+      <c r="B1650"/>
+      <c r="C1650"/>
+      <c r="D1650"/>
+      <c r="E1650"/>
+      <c r="F1650"/>
+      <c r="G1650"/>
+      <c r="H1650"/>
+      <c r="I1650"/>
+      <c r="J1650"/>
+      <c r="K1650"/>
+    </row>
+    <row r="1651" spans="1:11">
+      <c r="A1651"/>
+      <c r="B1651"/>
+      <c r="C1651"/>
+      <c r="D1651"/>
+      <c r="E1651"/>
+      <c r="F1651"/>
+      <c r="G1651"/>
+      <c r="H1651"/>
+      <c r="I1651"/>
+      <c r="J1651"/>
+      <c r="K1651"/>
+    </row>
+    <row r="1652" spans="1:11">
+      <c r="A1652"/>
+      <c r="B1652"/>
+      <c r="C1652"/>
+      <c r="D1652"/>
+      <c r="E1652"/>
+      <c r="F1652"/>
+      <c r="G1652"/>
+      <c r="H1652"/>
+      <c r="I1652"/>
+      <c r="J1652"/>
+      <c r="K1652"/>
+    </row>
+    <row r="1653" spans="1:11">
+      <c r="A1653"/>
+      <c r="B1653"/>
+      <c r="C1653"/>
+      <c r="D1653"/>
+      <c r="E1653"/>
+      <c r="F1653"/>
+      <c r="G1653"/>
+      <c r="H1653"/>
+      <c r="I1653"/>
+      <c r="J1653"/>
+      <c r="K1653"/>
+    </row>
+    <row r="1654" spans="1:11">
+      <c r="A1654"/>
+      <c r="B1654"/>
+      <c r="C1654"/>
+      <c r="D1654"/>
+      <c r="E1654"/>
+      <c r="F1654"/>
+      <c r="G1654"/>
+      <c r="H1654"/>
+      <c r="I1654"/>
+      <c r="J1654"/>
+      <c r="K1654"/>
+    </row>
+    <row r="1655" spans="1:11">
+      <c r="A1655"/>
+      <c r="B1655"/>
+      <c r="C1655"/>
+      <c r="D1655"/>
+      <c r="E1655"/>
+      <c r="F1655"/>
+      <c r="G1655"/>
+      <c r="H1655"/>
+      <c r="I1655"/>
+      <c r="J1655"/>
+      <c r="K1655"/>
+    </row>
+    <row r="1656" spans="1:11">
+      <c r="A1656"/>
+      <c r="B1656"/>
+      <c r="C1656"/>
+      <c r="D1656"/>
+      <c r="E1656"/>
+      <c r="F1656"/>
+      <c r="G1656"/>
+      <c r="H1656"/>
+      <c r="I1656"/>
+      <c r="J1656"/>
+      <c r="K1656"/>
+    </row>
+    <row r="1657" spans="1:11">
+      <c r="A1657"/>
+      <c r="B1657"/>
+      <c r="C1657"/>
+      <c r="D1657"/>
+      <c r="E1657"/>
+      <c r="F1657"/>
+      <c r="G1657"/>
+      <c r="H1657"/>
+      <c r="I1657"/>
+      <c r="J1657"/>
+      <c r="K1657"/>
+    </row>
+    <row r="1658" spans="1:11">
+      <c r="A1658"/>
+      <c r="B1658"/>
+      <c r="C1658"/>
+      <c r="D1658"/>
+      <c r="E1658"/>
+      <c r="F1658"/>
+      <c r="G1658"/>
+      <c r="H1658"/>
+      <c r="I1658"/>
+      <c r="J1658"/>
+      <c r="K1658"/>
+    </row>
+    <row r="1659" spans="1:11">
+      <c r="A1659"/>
+      <c r="B1659"/>
+      <c r="C1659"/>
+      <c r="D1659"/>
+      <c r="E1659"/>
+      <c r="F1659"/>
+      <c r="G1659"/>
+      <c r="H1659"/>
+      <c r="I1659"/>
+      <c r="J1659"/>
+      <c r="K1659"/>
+    </row>
+    <row r="1660" spans="1:11">
+      <c r="A1660"/>
+      <c r="B1660"/>
+      <c r="C1660"/>
+      <c r="D1660"/>
+      <c r="E1660"/>
+      <c r="F1660"/>
+      <c r="G1660"/>
+      <c r="H1660"/>
+      <c r="I1660"/>
+      <c r="J1660"/>
+      <c r="K1660"/>
+    </row>
+    <row r="1661" spans="1:11">
+      <c r="A1661"/>
+      <c r="B1661"/>
+      <c r="C1661"/>
+      <c r="D1661"/>
+      <c r="E1661"/>
+      <c r="F1661"/>
+      <c r="G1661"/>
+      <c r="H1661"/>
+      <c r="I1661"/>
+      <c r="J1661"/>
+      <c r="K1661"/>
+    </row>
+    <row r="1662" spans="1:11">
+      <c r="A1662"/>
+      <c r="B1662"/>
+      <c r="C1662"/>
+      <c r="D1662"/>
+      <c r="E1662"/>
+      <c r="F1662"/>
+      <c r="G1662"/>
+      <c r="H1662"/>
+      <c r="I1662"/>
+      <c r="J1662"/>
+      <c r="K1662"/>
+    </row>
+    <row r="1663" spans="1:11">
+      <c r="A1663"/>
+      <c r="B1663"/>
+      <c r="C1663"/>
+      <c r="D1663"/>
+      <c r="E1663"/>
+      <c r="F1663"/>
+      <c r="G1663"/>
+      <c r="H1663"/>
+      <c r="I1663"/>
+      <c r="J1663"/>
+      <c r="K1663"/>
+    </row>
+    <row r="1664" spans="1:11">
+      <c r="A1664"/>
+      <c r="B1664"/>
+      <c r="C1664"/>
+      <c r="D1664"/>
+      <c r="E1664"/>
+      <c r="F1664"/>
+      <c r="G1664"/>
+      <c r="H1664"/>
+      <c r="I1664"/>
+      <c r="J1664"/>
+      <c r="K1664"/>
+    </row>
+    <row r="1665" spans="1:11">
+      <c r="A1665"/>
+      <c r="B1665"/>
+      <c r="C1665"/>
+      <c r="D1665"/>
+      <c r="E1665"/>
+      <c r="F1665"/>
+      <c r="G1665"/>
+      <c r="H1665"/>
+      <c r="I1665"/>
+      <c r="J1665"/>
+      <c r="K1665"/>
+    </row>
+    <row r="1666" spans="1:11">
+      <c r="A1666"/>
+      <c r="B1666"/>
+      <c r="C1666"/>
+      <c r="D1666"/>
+      <c r="E1666"/>
+      <c r="F1666"/>
+      <c r="G1666"/>
+      <c r="H1666"/>
+      <c r="I1666"/>
+      <c r="J1666"/>
+      <c r="K1666"/>
+    </row>
+    <row r="1667" spans="1:11">
+      <c r="A1667"/>
+      <c r="B1667"/>
+      <c r="C1667"/>
+      <c r="D1667"/>
+      <c r="E1667"/>
+      <c r="F1667"/>
+      <c r="G1667"/>
+      <c r="H1667"/>
+      <c r="I1667"/>
+      <c r="J1667"/>
+      <c r="K1667"/>
+    </row>
+    <row r="1668" spans="1:11">
+      <c r="A1668"/>
+      <c r="B1668"/>
+      <c r="C1668"/>
+      <c r="D1668"/>
+      <c r="E1668"/>
+      <c r="F1668"/>
+      <c r="G1668"/>
+      <c r="H1668"/>
+      <c r="I1668"/>
+      <c r="J1668"/>
+      <c r="K1668"/>
+    </row>
+    <row r="1669" spans="1:11">
+      <c r="A1669"/>
+      <c r="B1669"/>
+      <c r="C1669"/>
+      <c r="D1669"/>
+      <c r="E1669"/>
+      <c r="F1669"/>
+      <c r="G1669"/>
+      <c r="H1669"/>
+      <c r="I1669"/>
+      <c r="J1669"/>
+      <c r="K1669"/>
+    </row>
+    <row r="1670" spans="1:11">
+      <c r="A1670"/>
+      <c r="B1670"/>
+      <c r="C1670"/>
+      <c r="D1670"/>
+      <c r="E1670"/>
+      <c r="F1670"/>
+      <c r="G1670"/>
+      <c r="H1670"/>
+      <c r="I1670"/>
+      <c r="J1670"/>
+      <c r="K1670"/>
+    </row>
+    <row r="1671" spans="1:11">
+      <c r="A1671"/>
+      <c r="B1671"/>
+      <c r="C1671"/>
+      <c r="D1671"/>
+      <c r="E1671"/>
+      <c r="F1671"/>
+      <c r="G1671"/>
+      <c r="H1671"/>
+      <c r="I1671"/>
+      <c r="J1671"/>
+      <c r="K1671"/>
+    </row>
+    <row r="1672" spans="1:11">
+      <c r="A1672"/>
+      <c r="B1672"/>
+      <c r="C1672"/>
+      <c r="D1672"/>
+      <c r="E1672"/>
+      <c r="F1672"/>
+      <c r="G1672"/>
+      <c r="H1672"/>
+      <c r="I1672"/>
+      <c r="J1672"/>
+      <c r="K1672"/>
+    </row>
+    <row r="1673" spans="1:11">
+      <c r="A1673"/>
+      <c r="B1673"/>
+      <c r="C1673"/>
+      <c r="D1673"/>
+      <c r="E1673"/>
+      <c r="F1673"/>
+      <c r="G1673"/>
+      <c r="H1673"/>
+      <c r="I1673"/>
+      <c r="J1673"/>
+      <c r="K1673"/>
+    </row>
+    <row r="1674" spans="1:11">
+      <c r="A1674"/>
+      <c r="B1674"/>
+      <c r="C1674"/>
+      <c r="D1674"/>
+      <c r="E1674"/>
+      <c r="F1674"/>
+      <c r="G1674"/>
+      <c r="H1674"/>
+      <c r="I1674"/>
+      <c r="J1674"/>
+      <c r="K1674"/>
+    </row>
+    <row r="1675" spans="1:11">
+      <c r="A1675"/>
+      <c r="B1675"/>
+      <c r="C1675"/>
+      <c r="D1675"/>
+      <c r="E1675"/>
+      <c r="F1675"/>
+      <c r="G1675"/>
+      <c r="H1675"/>
+      <c r="I1675"/>
+      <c r="J1675"/>
+      <c r="K1675"/>
+    </row>
+    <row r="1676" spans="1:11">
+      <c r="A1676"/>
+      <c r="B1676"/>
+      <c r="C1676"/>
+      <c r="D1676"/>
+      <c r="E1676"/>
+      <c r="F1676"/>
+      <c r="G1676"/>
+      <c r="H1676"/>
+      <c r="I1676"/>
+      <c r="J1676"/>
+      <c r="K1676"/>
+    </row>
+    <row r="1677" spans="1:11">
+      <c r="A1677"/>
+      <c r="B1677"/>
+      <c r="C1677"/>
+      <c r="D1677"/>
+      <c r="E1677"/>
+      <c r="F1677"/>
+      <c r="G1677"/>
+      <c r="H1677"/>
+      <c r="I1677"/>
+      <c r="J1677"/>
+      <c r="K1677"/>
+    </row>
+    <row r="1678" spans="1:11">
+      <c r="A1678"/>
+      <c r="B1678"/>
+      <c r="C1678"/>
+      <c r="D1678"/>
+      <c r="E1678"/>
+      <c r="F1678"/>
+      <c r="G1678"/>
+      <c r="H1678"/>
+      <c r="I1678"/>
+      <c r="J1678"/>
+      <c r="K1678"/>
+    </row>
+    <row r="1679" spans="1:11">
+      <c r="A1679"/>
+      <c r="B1679"/>
+      <c r="C1679"/>
+      <c r="D1679"/>
+      <c r="E1679"/>
+      <c r="F1679"/>
+      <c r="G1679"/>
+      <c r="H1679"/>
+      <c r="I1679"/>
+      <c r="J1679"/>
+      <c r="K1679"/>
+    </row>
+    <row r="1680" spans="1:11">
+      <c r="A1680"/>
+      <c r="B1680"/>
+      <c r="C1680"/>
+      <c r="D1680"/>
+      <c r="E1680"/>
+      <c r="F1680"/>
+      <c r="G1680"/>
+      <c r="H1680"/>
+      <c r="I1680"/>
+      <c r="J1680"/>
+      <c r="K1680"/>
+    </row>
+    <row r="1681" spans="1:11">
+      <c r="A1681"/>
+      <c r="B1681"/>
+      <c r="C1681"/>
+      <c r="D1681"/>
+      <c r="E1681"/>
+      <c r="F1681"/>
+      <c r="G1681"/>
+      <c r="H1681"/>
+      <c r="I1681"/>
+      <c r="J1681"/>
+      <c r="K1681"/>
+    </row>
+    <row r="1682" spans="1:11">
+      <c r="A1682"/>
+      <c r="B1682"/>
+      <c r="C1682"/>
+      <c r="D1682"/>
+      <c r="E1682"/>
+      <c r="F1682"/>
+      <c r="G1682"/>
+      <c r="H1682"/>
+      <c r="I1682"/>
+      <c r="J1682"/>
+      <c r="K1682"/>
+    </row>
+    <row r="1683" spans="1:11">
+      <c r="A1683"/>
+      <c r="B1683"/>
+      <c r="C1683"/>
+      <c r="D1683"/>
+      <c r="E1683"/>
+      <c r="F1683"/>
+      <c r="G1683"/>
+      <c r="H1683"/>
+      <c r="I1683"/>
+      <c r="J1683"/>
+      <c r="K1683"/>
+    </row>
+    <row r="1684" spans="1:11">
+      <c r="A1684"/>
+      <c r="B1684"/>
+      <c r="C1684"/>
+      <c r="D1684"/>
+      <c r="E1684"/>
+      <c r="F1684"/>
+      <c r="G1684"/>
+      <c r="H1684"/>
+      <c r="I1684"/>
+      <c r="J1684"/>
+      <c r="K1684"/>
+    </row>
+    <row r="1685" spans="1:11">
+      <c r="A1685"/>
+      <c r="B1685"/>
+      <c r="C1685"/>
+      <c r="D1685"/>
+      <c r="E1685"/>
+      <c r="F1685"/>
+      <c r="G1685"/>
+      <c r="H1685"/>
+      <c r="I1685"/>
+      <c r="J1685"/>
+      <c r="K1685"/>
+    </row>
+    <row r="1686" spans="1:11">
+      <c r="A1686"/>
+      <c r="B1686"/>
+      <c r="C1686"/>
+      <c r="D1686"/>
+      <c r="E1686"/>
+      <c r="F1686"/>
+      <c r="G1686"/>
+      <c r="H1686"/>
+      <c r="I1686"/>
+      <c r="J1686"/>
+      <c r="K1686"/>
+    </row>
+    <row r="1687" spans="1:11">
+      <c r="A1687"/>
+      <c r="B1687"/>
+      <c r="C1687"/>
+      <c r="D1687"/>
+      <c r="E1687"/>
+      <c r="F1687"/>
+      <c r="G1687"/>
+      <c r="H1687"/>
+      <c r="I1687"/>
+      <c r="J1687"/>
+      <c r="K1687"/>
+    </row>
+    <row r="1688" spans="1:11">
+      <c r="A1688"/>
+      <c r="B1688"/>
+      <c r="C1688"/>
+      <c r="D1688"/>
+      <c r="E1688"/>
+      <c r="F1688"/>
+      <c r="G1688"/>
+      <c r="H1688"/>
+      <c r="I1688"/>
+      <c r="J1688"/>
+      <c r="K1688"/>
+    </row>
+    <row r="1689" spans="1:11">
+      <c r="A1689"/>
+      <c r="B1689"/>
+      <c r="C1689"/>
+      <c r="D1689"/>
+      <c r="E1689"/>
+      <c r="F1689"/>
+      <c r="G1689"/>
+      <c r="H1689"/>
+      <c r="I1689"/>
+      <c r="J1689"/>
+      <c r="K1689"/>
+    </row>
+    <row r="1690" spans="1:11">
+      <c r="A1690"/>
+      <c r="B1690"/>
+      <c r="C1690"/>
+      <c r="D1690"/>
+      <c r="E1690"/>
+      <c r="F1690"/>
+      <c r="G1690"/>
+      <c r="H1690"/>
+      <c r="I1690"/>
+      <c r="J1690"/>
+      <c r="K1690"/>
+    </row>
+    <row r="1691" spans="1:11">
+      <c r="A1691"/>
+      <c r="B1691"/>
+      <c r="C1691"/>
+      <c r="D1691"/>
+      <c r="E1691"/>
+      <c r="F1691"/>
+      <c r="G1691"/>
+      <c r="H1691"/>
+      <c r="I1691"/>
+      <c r="J1691"/>
+      <c r="K1691"/>
+    </row>
+    <row r="1692" spans="1:11">
+      <c r="A1692"/>
+      <c r="B1692"/>
+      <c r="C1692"/>
+      <c r="D1692"/>
+      <c r="E1692"/>
+      <c r="F1692"/>
+      <c r="G1692"/>
+      <c r="H1692"/>
+      <c r="I1692"/>
+      <c r="J1692"/>
+      <c r="K1692"/>
+    </row>
+    <row r="1693" spans="1:11">
+      <c r="A1693"/>
+      <c r="B1693"/>
+      <c r="C1693"/>
+      <c r="D1693"/>
+      <c r="E1693"/>
+      <c r="F1693"/>
+      <c r="G1693"/>
+      <c r="H1693"/>
+      <c r="I1693"/>
+      <c r="J1693"/>
+      <c r="K1693"/>
+    </row>
+    <row r="1694" spans="1:11">
+      <c r="A1694"/>
+      <c r="B1694"/>
+      <c r="C1694"/>
+      <c r="D1694"/>
+      <c r="E1694"/>
+      <c r="F1694"/>
+      <c r="G1694"/>
+      <c r="H1694"/>
+      <c r="I1694"/>
+      <c r="J1694"/>
+      <c r="K1694"/>
+    </row>
+    <row r="1695" spans="1:11">
+      <c r="A1695"/>
+      <c r="B1695"/>
+      <c r="C1695"/>
+      <c r="D1695"/>
+      <c r="E1695"/>
+      <c r="F1695"/>
+      <c r="G1695"/>
+      <c r="H1695"/>
+      <c r="I1695"/>
+      <c r="J1695"/>
+      <c r="K1695"/>
+    </row>
+    <row r="1696" spans="1:11">
+      <c r="A1696"/>
+      <c r="B1696"/>
+      <c r="C1696"/>
+      <c r="D1696"/>
+      <c r="E1696"/>
+      <c r="F1696"/>
+      <c r="G1696"/>
+      <c r="H1696"/>
+      <c r="I1696"/>
+      <c r="J1696"/>
+      <c r="K1696"/>
+    </row>
+    <row r="1697" spans="1:11">
+      <c r="A1697"/>
+      <c r="B1697"/>
+      <c r="C1697"/>
+      <c r="D1697"/>
+      <c r="E1697"/>
+      <c r="F1697"/>
+      <c r="G1697"/>
+      <c r="H1697"/>
+      <c r="I1697"/>
+      <c r="J1697"/>
+      <c r="K1697"/>
+    </row>
+    <row r="1698" spans="1:11">
+      <c r="A1698"/>
+      <c r="B1698"/>
+      <c r="C1698"/>
+      <c r="D1698"/>
+      <c r="E1698"/>
+      <c r="F1698"/>
+      <c r="G1698"/>
+      <c r="H1698"/>
+      <c r="I1698"/>
+      <c r="J1698"/>
+      <c r="K1698"/>
+    </row>
+    <row r="1699" spans="1:11">
+      <c r="A1699"/>
+      <c r="B1699"/>
+      <c r="C1699"/>
+      <c r="D1699"/>
+      <c r="E1699"/>
+      <c r="F1699"/>
+      <c r="G1699"/>
+      <c r="H1699"/>
+      <c r="I1699"/>
+      <c r="J1699"/>
+      <c r="K1699"/>
+    </row>
+    <row r="1700" spans="1:11">
+      <c r="A1700"/>
+      <c r="B1700"/>
+      <c r="C1700"/>
+      <c r="D1700"/>
+      <c r="E1700"/>
+      <c r="F1700"/>
+      <c r="G1700"/>
+      <c r="H1700"/>
+      <c r="I1700"/>
+      <c r="J1700"/>
+      <c r="K1700"/>
+    </row>
+    <row r="1701" spans="1:11">
+      <c r="A1701"/>
+      <c r="B1701"/>
+      <c r="C1701"/>
+      <c r="D1701"/>
+      <c r="E1701"/>
+      <c r="F1701"/>
+      <c r="G1701"/>
+      <c r="H1701"/>
+      <c r="I1701"/>
+      <c r="J1701"/>
+      <c r="K1701"/>
+    </row>
+    <row r="1702" spans="1:11">
+      <c r="A1702"/>
+      <c r="B1702"/>
+      <c r="C1702"/>
+      <c r="D1702"/>
+      <c r="E1702"/>
+      <c r="F1702"/>
+      <c r="G1702"/>
+      <c r="H1702"/>
+      <c r="I1702"/>
+      <c r="J1702"/>
+      <c r="K1702"/>
+    </row>
+    <row r="1703" spans="1:11">
+      <c r="A1703"/>
+      <c r="B1703"/>
+      <c r="C1703"/>
+      <c r="D1703"/>
+      <c r="E1703"/>
+      <c r="F1703"/>
+      <c r="G1703"/>
+      <c r="H1703"/>
+      <c r="I1703"/>
+      <c r="J1703"/>
+      <c r="K1703"/>
+    </row>
+    <row r="1704" spans="1:11">
+      <c r="A1704"/>
+      <c r="B1704"/>
+      <c r="C1704"/>
+      <c r="D1704"/>
+      <c r="E1704"/>
+      <c r="F1704"/>
+      <c r="G1704"/>
+      <c r="H1704"/>
+      <c r="I1704"/>
+      <c r="J1704"/>
+      <c r="K1704"/>
+    </row>
+    <row r="1705" spans="1:11">
+      <c r="A1705"/>
+      <c r="B1705"/>
+      <c r="C1705"/>
+      <c r="D1705"/>
+      <c r="E1705"/>
+      <c r="F1705"/>
+      <c r="G1705"/>
+      <c r="H1705"/>
+      <c r="I1705"/>
+      <c r="J1705"/>
+      <c r="K1705"/>
+    </row>
+    <row r="1706" spans="1:11">
+      <c r="A1706"/>
+      <c r="B1706"/>
+      <c r="C1706"/>
+      <c r="D1706"/>
+      <c r="E1706"/>
+      <c r="F1706"/>
+      <c r="G1706"/>
+      <c r="H1706"/>
+      <c r="I1706"/>
+      <c r="J1706"/>
+      <c r="K1706"/>
+    </row>
+    <row r="1707" spans="1:11">
+      <c r="A1707"/>
+      <c r="B1707"/>
+      <c r="C1707"/>
+      <c r="D1707"/>
+      <c r="E1707"/>
+      <c r="F1707"/>
+      <c r="G1707"/>
+      <c r="H1707"/>
+      <c r="I1707"/>
+      <c r="J1707"/>
+      <c r="K1707"/>
+    </row>
+    <row r="1708" spans="1:11">
+      <c r="A1708"/>
+      <c r="B1708"/>
+      <c r="C1708"/>
+      <c r="D1708"/>
+      <c r="E1708"/>
+      <c r="F1708"/>
+      <c r="G1708"/>
+      <c r="H1708"/>
+      <c r="I1708"/>
+      <c r="J1708"/>
+      <c r="K1708"/>
+    </row>
+    <row r="1709" spans="1:11">
+      <c r="A1709"/>
+      <c r="B1709"/>
+      <c r="C1709"/>
+      <c r="D1709"/>
+      <c r="E1709"/>
+      <c r="F1709"/>
+      <c r="G1709"/>
+      <c r="H1709"/>
+      <c r="I1709"/>
+      <c r="J1709"/>
+      <c r="K1709"/>
+    </row>
+    <row r="1710" spans="1:11">
+      <c r="A1710"/>
+      <c r="B1710"/>
+      <c r="C1710"/>
+      <c r="D1710"/>
+      <c r="E1710"/>
+      <c r="F1710"/>
+      <c r="G1710"/>
+      <c r="H1710"/>
+      <c r="I1710"/>
+      <c r="J1710"/>
+      <c r="K1710"/>
+    </row>
+    <row r="1711" spans="1:11">
+      <c r="A1711"/>
+      <c r="B1711"/>
+      <c r="C1711"/>
+      <c r="D1711"/>
+      <c r="E1711"/>
+      <c r="F1711"/>
+      <c r="G1711"/>
+      <c r="H1711"/>
+      <c r="I1711"/>
+      <c r="J1711"/>
+      <c r="K1711"/>
+    </row>
+    <row r="1712" spans="1:11">
+      <c r="A1712"/>
+      <c r="B1712"/>
+      <c r="C1712"/>
+      <c r="D1712"/>
+      <c r="E1712"/>
+      <c r="F1712"/>
+      <c r="G1712"/>
+      <c r="H1712"/>
+      <c r="I1712"/>
+      <c r="J1712"/>
+      <c r="K1712"/>
+    </row>
+    <row r="1713" spans="1:11">
+      <c r="A1713"/>
+      <c r="B1713"/>
+      <c r="C1713"/>
+      <c r="D1713"/>
+      <c r="E1713"/>
+      <c r="F1713"/>
+      <c r="G1713"/>
+      <c r="H1713"/>
+      <c r="I1713"/>
+      <c r="J1713"/>
+      <c r="K1713"/>
+    </row>
+    <row r="1714" spans="1:11">
+      <c r="A1714"/>
+      <c r="B1714"/>
+      <c r="C1714"/>
+      <c r="D1714"/>
+      <c r="E1714"/>
+      <c r="F1714"/>
+      <c r="G1714"/>
+      <c r="H1714"/>
+      <c r="I1714"/>
+      <c r="J1714"/>
+      <c r="K1714"/>
+    </row>
+    <row r="1715" spans="1:11">
+      <c r="A1715"/>
+      <c r="B1715"/>
+      <c r="C1715"/>
+      <c r="D1715"/>
+      <c r="E1715"/>
+      <c r="F1715"/>
+      <c r="G1715"/>
+      <c r="H1715"/>
+      <c r="I1715"/>
+      <c r="J1715"/>
+      <c r="K1715"/>
+    </row>
+    <row r="1716" spans="1:11">
+      <c r="A1716"/>
+      <c r="B1716"/>
+      <c r="C1716"/>
+      <c r="D1716"/>
+      <c r="E1716"/>
+      <c r="F1716"/>
+      <c r="G1716"/>
+      <c r="H1716"/>
+      <c r="I1716"/>
+      <c r="J1716"/>
+      <c r="K1716"/>
+    </row>
+    <row r="1717" spans="1:11">
+      <c r="A1717"/>
+      <c r="B1717"/>
+      <c r="C1717"/>
+      <c r="D1717"/>
+      <c r="E1717"/>
+      <c r="F1717"/>
+      <c r="G1717"/>
+      <c r="H1717"/>
+      <c r="I1717"/>
+      <c r="J1717"/>
+      <c r="K1717"/>
+    </row>
+    <row r="1718" spans="1:11">
+      <c r="A1718"/>
+      <c r="B1718"/>
+      <c r="C1718"/>
+      <c r="D1718"/>
+      <c r="E1718"/>
+      <c r="F1718"/>
+      <c r="G1718"/>
+      <c r="H1718"/>
+      <c r="I1718"/>
+      <c r="J1718"/>
+      <c r="K1718"/>
+    </row>
+    <row r="1719" spans="1:11">
+      <c r="A1719"/>
+      <c r="B1719"/>
+      <c r="C1719"/>
+      <c r="D1719"/>
+      <c r="E1719"/>
+      <c r="F1719"/>
+      <c r="G1719"/>
+      <c r="H1719"/>
+      <c r="I1719"/>
+      <c r="J1719"/>
+      <c r="K1719"/>
+    </row>
+    <row r="1720" spans="1:11">
+      <c r="A1720"/>
+      <c r="B1720"/>
+      <c r="C1720"/>
+      <c r="D1720"/>
+      <c r="E1720"/>
+      <c r="F1720"/>
+      <c r="G1720"/>
+      <c r="H1720"/>
+      <c r="I1720"/>
+      <c r="J1720"/>
+      <c r="K1720"/>
+    </row>
+    <row r="1721" spans="1:11">
+      <c r="A1721"/>
+      <c r="B1721"/>
+      <c r="C1721"/>
+      <c r="D1721"/>
+      <c r="E1721"/>
+      <c r="F1721"/>
+      <c r="G1721"/>
+      <c r="H1721"/>
+      <c r="I1721"/>
+      <c r="J1721"/>
+      <c r="K1721"/>
+    </row>
+    <row r="1722" spans="1:11">
+      <c r="A1722"/>
+      <c r="B1722"/>
+      <c r="C1722"/>
+      <c r="D1722"/>
+      <c r="E1722"/>
+      <c r="F1722"/>
+      <c r="G1722"/>
+      <c r="H1722"/>
+      <c r="I1722"/>
+      <c r="J1722"/>
+      <c r="K1722"/>
+    </row>
+    <row r="1723" spans="1:11">
+      <c r="A1723"/>
+      <c r="B1723"/>
+      <c r="C1723"/>
+      <c r="D1723"/>
+      <c r="E1723"/>
+      <c r="F1723"/>
+      <c r="G1723"/>
+      <c r="H1723"/>
+      <c r="I1723"/>
+      <c r="J1723"/>
+      <c r="K1723"/>
+    </row>
+    <row r="1724" spans="1:11">
+      <c r="A1724"/>
+      <c r="B1724"/>
+      <c r="C1724"/>
+      <c r="D1724"/>
+      <c r="E1724"/>
+      <c r="F1724"/>
+      <c r="G1724"/>
+      <c r="H1724"/>
+      <c r="I1724"/>
+      <c r="J1724"/>
+      <c r="K1724"/>
+    </row>
+    <row r="1725" spans="1:11">
+      <c r="A1725"/>
+      <c r="B1725"/>
+      <c r="C1725"/>
+      <c r="D1725"/>
+      <c r="E1725"/>
+      <c r="F1725"/>
+      <c r="G1725"/>
+      <c r="H1725"/>
+      <c r="I1725"/>
+      <c r="J1725"/>
+      <c r="K1725"/>
+    </row>
+    <row r="1726" spans="1:11">
+      <c r="A1726"/>
+      <c r="B1726"/>
+      <c r="C1726"/>
+      <c r="D1726"/>
+      <c r="E1726"/>
+      <c r="F1726"/>
+      <c r="G1726"/>
+      <c r="H1726"/>
+      <c r="I1726"/>
+      <c r="J1726"/>
+      <c r="K1726"/>
+    </row>
+    <row r="1727" spans="1:11">
+      <c r="A1727"/>
+      <c r="B1727"/>
+      <c r="C1727"/>
+      <c r="D1727"/>
+      <c r="E1727"/>
+      <c r="F1727"/>
+      <c r="G1727"/>
+      <c r="H1727"/>
+      <c r="I1727"/>
+      <c r="J1727"/>
+      <c r="K1727"/>
+    </row>
+    <row r="1728" spans="1:11">
+      <c r="A1728"/>
+      <c r="B1728"/>
+      <c r="C1728"/>
+      <c r="D1728"/>
+      <c r="E1728"/>
+      <c r="F1728"/>
+      <c r="G1728"/>
+      <c r="H1728"/>
+      <c r="I1728"/>
+      <c r="J1728"/>
+      <c r="K1728"/>
+    </row>
+    <row r="1729" spans="1:11">
+      <c r="A1729"/>
+      <c r="B1729"/>
+      <c r="C1729"/>
+      <c r="D1729"/>
+      <c r="E1729"/>
+      <c r="F1729"/>
+      <c r="G1729"/>
+      <c r="H1729"/>
+      <c r="I1729"/>
+      <c r="J1729"/>
+      <c r="K1729"/>
+    </row>
+    <row r="1730" spans="1:11">
+      <c r="A1730"/>
+      <c r="B1730"/>
+      <c r="C1730"/>
+      <c r="D1730"/>
+      <c r="E1730"/>
+      <c r="F1730"/>
+      <c r="G1730"/>
+      <c r="H1730"/>
+      <c r="I1730"/>
+      <c r="J1730"/>
+      <c r="K1730"/>
+    </row>
+    <row r="1731" spans="1:11">
+      <c r="A1731"/>
+      <c r="B1731"/>
+      <c r="C1731"/>
+      <c r="D1731"/>
+      <c r="E1731"/>
+      <c r="F1731"/>
+      <c r="G1731"/>
+      <c r="H1731"/>
+      <c r="I1731"/>
+      <c r="J1731"/>
+      <c r="K1731"/>
+    </row>
+    <row r="1732" spans="1:11">
+      <c r="A1732"/>
+      <c r="B1732"/>
+      <c r="C1732"/>
+      <c r="D1732"/>
+      <c r="E1732"/>
+      <c r="F1732"/>
+      <c r="G1732"/>
+      <c r="H1732"/>
+      <c r="I1732"/>
+      <c r="J1732"/>
+      <c r="K1732"/>
+    </row>
+    <row r="1733" spans="1:11">
+      <c r="A1733"/>
+      <c r="B1733"/>
+      <c r="C1733"/>
+      <c r="D1733"/>
+      <c r="E1733"/>
+      <c r="F1733"/>
+      <c r="G1733"/>
+      <c r="H1733"/>
+      <c r="I1733"/>
+      <c r="J1733"/>
+      <c r="K1733"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
